--- a/tests/testesmanuais/CBA_SESI_Planilha_Dados_Entrada - v1.1 - Versão Completa.xlsx
+++ b/tests/testesmanuais/CBA_SESI_Planilha_Dados_Entrada - v1.1 - Versão Completa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8190" tabRatio="926" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8190" tabRatio="926" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pl. suporte" sheetId="51" state="hidden" r:id="rId1"/>
@@ -6562,8 +6562,8 @@
   </sheetPr>
   <dimension ref="A1:T87"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10798,7 +10798,7 @@
   </sheetPr>
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/tests/testesmanuais/CBA_SESI_Planilha_Dados_Entrada - v1.1 - Versão Completa.xlsx
+++ b/tests/testesmanuais/CBA_SESI_Planilha_Dados_Entrada - v1.1 - Versão Completa.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536" tabRatio="846" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="846" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pl. suporte" sheetId="51" state="hidden" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <definedName name="d" localSheetId="6">#REF!</definedName>
     <definedName name="d">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -1720,12 +1720,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -2084,7 +2084,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2155,7 +2155,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2507,7 +2507,7 @@
     <xf numFmtId="10" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="5" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2554,14 +2554,14 @@
     </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Moeda 2" xfId="4"/>
+    <cellStyle name="Moeda 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="7" builtinId="5"/>
     <cellStyle name="Vírgula" xfId="6" builtinId="3"/>
-    <cellStyle name="Vírgula 2" xfId="1"/>
-    <cellStyle name="Vírgula 2 2" xfId="2"/>
-    <cellStyle name="Vírgula 3" xfId="5"/>
-    <cellStyle name="Vírgula 4" xfId="3"/>
+    <cellStyle name="Vírgula 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Vírgula 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Vírgula 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Vírgula 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2992,29 +2992,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -3025,7 +3025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
@@ -3035,25 +3035,25 @@
       <selection activeCell="I29" sqref="H29:I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
-    <col min="2" max="2" width="66.88671875" customWidth="1"/>
+    <col min="2" max="2" width="66.85546875" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="63.33203125" customWidth="1"/>
-    <col min="5" max="14" width="7.88671875" style="82" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5546875" style="171" customWidth="1"/>
-    <col min="16" max="16" width="9.44140625" style="171" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.77734375" style="171" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="33.77734375" customWidth="1"/>
-    <col min="19" max="19" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="49.21875" customWidth="1"/>
-    <col min="22" max="22" width="106.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.88671875" style="145"/>
+    <col min="4" max="4" width="63.28515625" customWidth="1"/>
+    <col min="5" max="14" width="7.85546875" style="82" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" style="171" customWidth="1"/>
+    <col min="16" max="16" width="9.42578125" style="171" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" style="171" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="33.7109375" customWidth="1"/>
+    <col min="19" max="19" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="49.28515625" customWidth="1"/>
+    <col min="22" max="22" width="106.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.85546875" style="145"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="167" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="167" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="163"/>
       <c r="B1" s="163"/>
       <c r="C1" s="163"/>
@@ -3077,7 +3077,7 @@
       <c r="U1" s="166"/>
       <c r="V1" s="166"/>
     </row>
-    <row r="2" spans="1:22" s="167" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" s="167" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="108" t="s">
         <v>351</v>
       </c>
@@ -3105,7 +3105,7 @@
       <c r="U2" s="166"/>
       <c r="V2" s="166"/>
     </row>
-    <row r="3" spans="1:22" s="167" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" s="167" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="163"/>
       <c r="B3" s="163"/>
       <c r="C3" s="163"/>
@@ -3129,7 +3129,7 @@
       <c r="U3" s="166"/>
       <c r="V3" s="166"/>
     </row>
-    <row r="4" spans="1:22" s="167" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" s="167" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D4" s="168"/>
       <c r="E4" s="169"/>
       <c r="F4" s="169"/>
@@ -3149,7 +3149,7 @@
       <c r="U4" s="166"/>
       <c r="V4" s="166"/>
     </row>
-    <row r="5" spans="1:22" s="167" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" s="167" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="166"/>
       <c r="B5" s="166"/>
       <c r="C5" s="166"/>
@@ -3173,7 +3173,7 @@
       <c r="U5" s="166"/>
       <c r="V5" s="166"/>
     </row>
-    <row r="6" spans="1:22" s="167" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:22" s="167" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A6" s="114" t="s">
         <v>349</v>
       </c>
@@ -3199,7 +3199,7 @@
       <c r="U6" s="115"/>
       <c r="V6" s="116"/>
     </row>
-    <row r="7" spans="1:22" s="167" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" s="167" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="166"/>
       <c r="B7" s="166"/>
       <c r="C7" s="166"/>
@@ -3227,7 +3227,7 @@
       <c r="U7" s="166"/>
       <c r="V7" s="166"/>
     </row>
-    <row r="8" spans="1:22" s="167" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" s="167" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="88" t="s">
         <v>43</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="144" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" s="144" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="147" t="s">
         <v>477</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="144" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" s="144" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
         <v>534</v>
       </c>
@@ -3407,10 +3407,10 @@
         <v>539</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="67"/>
     </row>
-    <row r="14" spans="1:22" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:22" ht="34.15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3418,22 +3418,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80.6640625" customWidth="1"/>
-    <col min="4" max="4" width="55.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.7109375" customWidth="1"/>
+    <col min="4" max="4" width="55.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>521</v>
       </c>
@@ -3450,7 +3448,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="146" t="s">
         <v>101</v>
       </c>
@@ -3467,7 +3465,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="146" t="s">
         <v>104</v>
       </c>
@@ -3484,7 +3482,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="146" t="s">
         <v>24</v>
       </c>
@@ -3501,7 +3499,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="146" t="s">
         <v>219</v>
       </c>
@@ -3518,7 +3516,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="146" t="s">
         <v>58</v>
       </c>
@@ -3535,7 +3533,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="146" t="s">
         <v>0</v>
       </c>
@@ -3552,7 +3550,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="146" t="s">
         <v>61</v>
       </c>
@@ -3569,7 +3567,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="146" t="s">
         <v>492</v>
       </c>
@@ -3586,7 +3584,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="146" t="s">
         <v>12</v>
       </c>
@@ -3603,7 +3601,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="146" t="s">
         <v>16</v>
       </c>
@@ -3620,7 +3618,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="146" t="s">
         <v>4</v>
       </c>
@@ -3637,7 +3635,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="146" t="s">
         <v>8</v>
       </c>
@@ -3654,7 +3652,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="146" t="s">
         <v>11</v>
       </c>
@@ -3671,7 +3669,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="146" t="s">
         <v>15</v>
       </c>
@@ -3688,7 +3686,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="146" t="s">
         <v>3</v>
       </c>
@@ -3705,7 +3703,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="146" t="s">
         <v>7</v>
       </c>
@@ -3722,7 +3720,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="146" t="s">
         <v>14</v>
       </c>
@@ -3739,7 +3737,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="146" t="s">
         <v>18</v>
       </c>
@@ -3756,7 +3754,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="146" t="s">
         <v>6</v>
       </c>
@@ -3773,7 +3771,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="146" t="s">
         <v>10</v>
       </c>
@@ -3790,7 +3788,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="146" t="s">
         <v>13</v>
       </c>
@@ -3807,7 +3805,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="146" t="s">
         <v>17</v>
       </c>
@@ -3824,7 +3822,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="146" t="s">
         <v>5</v>
       </c>
@@ -3841,7 +3839,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="146" t="s">
         <v>9</v>
       </c>
@@ -3858,7 +3856,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="146" t="s">
         <v>79</v>
       </c>
@@ -3875,7 +3873,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="146" t="s">
         <v>194</v>
       </c>
@@ -3892,7 +3890,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="146" t="s">
         <v>195</v>
       </c>
@@ -3909,7 +3907,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="146" t="s">
         <v>23</v>
       </c>
@@ -3926,7 +3924,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="146" t="s">
         <v>275</v>
       </c>
@@ -3943,7 +3941,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="146" t="s">
         <v>280</v>
       </c>
@@ -3960,7 +3958,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
         <v>524</v>
       </c>
@@ -3977,7 +3975,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="146" t="s">
         <v>284</v>
       </c>
@@ -3994,7 +3992,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="146" t="s">
         <v>286</v>
       </c>
@@ -4011,7 +4009,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="146" t="s">
         <v>288</v>
       </c>
@@ -4028,7 +4026,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="33" t="s">
         <v>523</v>
       </c>
@@ -4045,7 +4043,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="146" t="s">
         <v>291</v>
       </c>
@@ -4062,7 +4060,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="146" t="s">
         <v>295</v>
       </c>
@@ -4079,7 +4077,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="146" t="s">
         <v>298</v>
       </c>
@@ -4096,7 +4094,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="146" t="s">
         <v>301</v>
       </c>
@@ -4113,7 +4111,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="146" t="s">
         <v>305</v>
       </c>
@@ -4130,7 +4128,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="146" t="s">
         <v>309</v>
       </c>
@@ -4147,7 +4145,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="146" t="s">
         <v>444</v>
       </c>
@@ -4164,7 +4162,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="146" t="s">
         <v>445</v>
       </c>
@@ -4181,7 +4179,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="146" t="s">
         <v>446</v>
       </c>
@@ -4198,7 +4196,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="146" t="s">
         <v>447</v>
       </c>
@@ -4215,7 +4213,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="146" t="s">
         <v>448</v>
       </c>
@@ -4232,7 +4230,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="146" t="s">
         <v>449</v>
       </c>
@@ -4249,7 +4247,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="146" t="s">
         <v>450</v>
       </c>
@@ -4266,7 +4264,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="146" t="s">
         <v>451</v>
       </c>
@@ -4283,7 +4281,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="146" t="s">
         <v>452</v>
       </c>
@@ -4300,7 +4298,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="146" t="s">
         <v>453</v>
       </c>
@@ -4317,7 +4315,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="146" t="s">
         <v>352</v>
       </c>
@@ -4334,7 +4332,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="146" t="s">
         <v>353</v>
       </c>
@@ -4351,7 +4349,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="146" t="s">
         <v>322</v>
       </c>
@@ -4368,7 +4366,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="146" t="s">
         <v>363</v>
       </c>
@@ -4385,7 +4383,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="146" t="s">
         <v>369</v>
       </c>
@@ -4399,7 +4397,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="127" t="s">
         <v>376</v>
       </c>
@@ -4413,7 +4411,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="127" t="s">
         <v>378</v>
       </c>
@@ -4427,7 +4425,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="146" t="s">
         <v>382</v>
       </c>
@@ -4441,7 +4439,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="146" t="s">
         <v>383</v>
       </c>
@@ -4455,7 +4453,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="146" t="s">
         <v>402</v>
       </c>
@@ -4469,7 +4467,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="146" t="s">
         <v>403</v>
       </c>
@@ -4483,7 +4481,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="146" t="s">
         <v>409</v>
       </c>
@@ -4497,7 +4495,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="146" t="s">
         <v>411</v>
       </c>
@@ -4511,7 +4509,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="146" t="s">
         <v>421</v>
       </c>
@@ -4525,7 +4523,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="146" t="s">
         <v>425</v>
       </c>
@@ -4539,7 +4537,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="146" t="s">
         <v>432</v>
       </c>
@@ -4553,7 +4551,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="146" t="s">
         <v>434</v>
       </c>
@@ -4567,7 +4565,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="146" t="s">
         <v>476</v>
       </c>
@@ -4581,7 +4579,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="146" t="s">
         <v>515</v>
       </c>
@@ -4601,7 +4599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -4609,22 +4607,22 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="49" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" style="49" customWidth="1"/>
-    <col min="3" max="4" width="66.109375" style="49" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" style="49" customWidth="1"/>
-    <col min="6" max="16384" width="8.6640625" style="49"/>
+    <col min="1" max="1" width="4.7109375" style="49" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="49" customWidth="1"/>
+    <col min="3" max="4" width="66.140625" style="49" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" style="49" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
       <c r="E1" s="48"/>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="50" t="s">
         <v>270</v>
       </c>
@@ -4632,13 +4630,13 @@
       <c r="D2" s="50"/>
       <c r="E2" s="48"/>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="48"/>
       <c r="C3" s="51"/>
       <c r="D3" s="51"/>
       <c r="E3" s="48"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="52" t="s">
         <v>206</v>
       </c>
@@ -4646,7 +4644,7 @@
       <c r="D5" s="52"/>
       <c r="E5" s="52"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="49" t="s">
         <v>177</v>
       </c>
@@ -4654,7 +4652,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="49" t="s">
         <v>178</v>
       </c>
@@ -4665,7 +4663,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="49" t="s">
         <v>179</v>
       </c>
@@ -4676,7 +4674,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="49" t="s">
         <v>207</v>
       </c>
@@ -4684,7 +4682,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="49" t="s">
         <v>180</v>
       </c>
@@ -4695,7 +4693,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="13" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="52" t="s">
         <v>273</v>
       </c>
@@ -4703,8 +4701,8 @@
       <c r="D13" s="52"/>
       <c r="E13" s="52"/>
     </row>
-    <row r="14" spans="2:5" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="49" t="s">
         <v>209</v>
       </c>
@@ -4712,7 +4710,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="49" t="s">
         <v>208</v>
       </c>
@@ -4723,11 +4721,11 @@
         <v>205</v>
       </c>
     </row>
-    <row r="17" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="C17" s="53"/>
       <c r="D17" s="53"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="52" t="s">
         <v>137</v>
       </c>
@@ -4735,7 +4733,7 @@
       <c r="D18" s="52"/>
       <c r="E18" s="52"/>
     </row>
-    <row r="20" spans="2:5" s="56" customFormat="1" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" s="56" customFormat="1" ht="33.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="54" t="s">
         <v>171</v>
       </c>
@@ -4749,7 +4747,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" ht="90" x14ac:dyDescent="0.25">
       <c r="B21" s="57" t="s">
         <v>146</v>
       </c>
@@ -4763,7 +4761,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" ht="90" x14ac:dyDescent="0.25">
       <c r="B22" s="57" t="s">
         <v>147</v>
       </c>
@@ -4777,7 +4775,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B23" s="57" t="s">
         <v>176</v>
       </c>
@@ -4791,7 +4789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B24" s="57" t="s">
         <v>174</v>
       </c>
@@ -4805,7 +4803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B25" s="57" t="s">
         <v>138</v>
       </c>
@@ -4819,7 +4817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B26" s="57" t="s">
         <v>139</v>
       </c>
@@ -4833,7 +4831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B27" s="57" t="s">
         <v>140</v>
       </c>
@@ -4847,7 +4845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B28" s="57" t="s">
         <v>141</v>
       </c>
@@ -4861,7 +4859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B29" s="57" t="s">
         <v>142</v>
       </c>
@@ -4875,7 +4873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B30" s="57" t="s">
         <v>143</v>
       </c>
@@ -4889,7 +4887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B31" s="57" t="s">
         <v>144</v>
       </c>
@@ -4903,7 +4901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B32" s="57" t="s">
         <v>145</v>
       </c>
@@ -4917,7 +4915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B33" s="57" t="s">
         <v>148</v>
       </c>
@@ -4931,7 +4929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B34" s="57" t="s">
         <v>157</v>
       </c>
@@ -4945,7 +4943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B35" s="57" t="s">
         <v>149</v>
       </c>
@@ -4959,7 +4957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B36" s="57" t="s">
         <v>150</v>
       </c>
@@ -4973,7 +4971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="60" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" ht="61.5" x14ac:dyDescent="0.25">
       <c r="B37" s="57" t="s">
         <v>151</v>
       </c>
@@ -4987,7 +4985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" ht="90" x14ac:dyDescent="0.25">
       <c r="B38" s="61" t="s">
         <v>152</v>
       </c>
@@ -5001,7 +4999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B39" s="61" t="s">
         <v>153</v>
       </c>
@@ -5015,7 +5013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="52" t="s">
         <v>198</v>
       </c>
@@ -5023,7 +5021,7 @@
       <c r="D42" s="52"/>
       <c r="E42" s="52"/>
     </row>
-    <row r="43" spans="2:5" s="64" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5" s="64" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B43" s="62" t="s">
         <v>199</v>
       </c>
@@ -5036,11 +5034,11 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>12</formula1>
       <formula2>12</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C16">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C16" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>11</formula1>
       <formula2>11</formula2>
     </dataValidation>
@@ -5053,7 +5051,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
           <x14:formula1>
             <xm:f>'Pl. suporte'!$A$2:$A$3</xm:f>
           </x14:formula1>
@@ -5066,31 +5064,33 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:L214"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="44"/>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -5104,7 +5104,7 @@
       <c r="K1" s="44"/>
       <c r="L1" s="44"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="137" t="s">
         <v>271</v>
       </c>
@@ -5120,7 +5120,7 @@
       <c r="K2" s="44"/>
       <c r="L2" s="44"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="44"/>
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
@@ -5134,8 +5134,8 @@
       <c r="K3" s="44"/>
       <c r="L3" s="44"/>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:12" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
         <v>181</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>41739</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>41740</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>41858</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>4</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>41892</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>41894</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>6</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>42237</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>42267</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>8</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>42460</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>41458</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>2</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>41552</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>41657</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>4</v>
       </c>
@@ -5629,7 +5629,7 @@
         <v>41616</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>5</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>41766</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>6</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>41739</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>7</v>
       </c>
@@ -5743,7 +5743,7 @@
         <v>41740</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>8</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>41858</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>41892</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>2</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>41894</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>3</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>41101</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>4</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>41296</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13">
         <v>5</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>41458</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>41552</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>2</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>41657</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>3</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>41616</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>4</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>41766</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13">
         <v>1</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>40673</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>40795</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>2</v>
       </c>
@@ -6237,7 +6237,7 @@
         <v>40848</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>3</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>40892</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>4</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>41012</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13">
         <v>5</v>
       </c>
@@ -6351,7 +6351,7 @@
         <v>40888</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>40869</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>2</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>41101</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>3</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>41296</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>4</v>
       </c>
@@ -6501,7 +6501,7 @@
       </c>
       <c r="L40" s="155"/>
     </row>
-    <row r="41" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="13">
         <v>5</v>
       </c>
@@ -6539,7 +6539,7 @@
         <v>40869</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="13"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -6553,7 +6553,7 @@
       <c r="K42" s="15"/>
       <c r="L42" s="155"/>
     </row>
-    <row r="43" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -6567,7 +6567,7 @@
       <c r="K43" s="15"/>
       <c r="L43" s="155"/>
     </row>
-    <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -6581,7 +6581,7 @@
       <c r="K44" s="15"/>
       <c r="L44" s="155"/>
     </row>
-    <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -6595,7 +6595,7 @@
       <c r="K45" s="15"/>
       <c r="L45" s="155"/>
     </row>
-    <row r="46" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -6609,7 +6609,7 @@
       <c r="K46" s="15"/>
       <c r="L46" s="155"/>
     </row>
-    <row r="47" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -6623,7 +6623,7 @@
       <c r="K47" s="15"/>
       <c r="L47" s="155"/>
     </row>
-    <row r="48" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -6637,7 +6637,7 @@
       <c r="K48" s="15"/>
       <c r="L48" s="155"/>
     </row>
-    <row r="49" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="13"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -6651,7 +6651,7 @@
       <c r="K49" s="15"/>
       <c r="L49" s="155"/>
     </row>
-    <row r="50" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="13"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -6665,7 +6665,7 @@
       <c r="K50" s="15"/>
       <c r="L50" s="155"/>
     </row>
-    <row r="51" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="13"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -6679,7 +6679,7 @@
       <c r="K51" s="15"/>
       <c r="L51" s="155"/>
     </row>
-    <row r="52" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="13"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -6693,7 +6693,7 @@
       <c r="K52" s="15"/>
       <c r="L52" s="155"/>
     </row>
-    <row r="53" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="13"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -6707,7 +6707,7 @@
       <c r="K53" s="15"/>
       <c r="L53" s="155"/>
     </row>
-    <row r="54" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="13"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -6721,7 +6721,7 @@
       <c r="K54" s="15"/>
       <c r="L54" s="155"/>
     </row>
-    <row r="55" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -6735,7 +6735,7 @@
       <c r="K55" s="15"/>
       <c r="L55" s="155"/>
     </row>
-    <row r="56" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -6749,7 +6749,7 @@
       <c r="K56" s="15"/>
       <c r="L56" s="155"/>
     </row>
-    <row r="57" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="13"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -6763,7 +6763,7 @@
       <c r="K57" s="15"/>
       <c r="L57" s="155"/>
     </row>
-    <row r="58" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="13"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -6777,7 +6777,7 @@
       <c r="K58" s="15"/>
       <c r="L58" s="155"/>
     </row>
-    <row r="59" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="13"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
@@ -6791,7 +6791,7 @@
       <c r="K59" s="15"/>
       <c r="L59" s="155"/>
     </row>
-    <row r="60" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="13"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -6805,7 +6805,7 @@
       <c r="K60" s="15"/>
       <c r="L60" s="155"/>
     </row>
-    <row r="61" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="13"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
@@ -6819,7 +6819,7 @@
       <c r="K61" s="15"/>
       <c r="L61" s="155"/>
     </row>
-    <row r="62" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="13"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
@@ -6833,7 +6833,7 @@
       <c r="K62" s="15"/>
       <c r="L62" s="155"/>
     </row>
-    <row r="63" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="13"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
@@ -6847,7 +6847,7 @@
       <c r="K63" s="15"/>
       <c r="L63" s="155"/>
     </row>
-    <row r="64" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="13"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -6861,7 +6861,7 @@
       <c r="K64" s="15"/>
       <c r="L64" s="155"/>
     </row>
-    <row r="65" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="13"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
@@ -6875,7 +6875,7 @@
       <c r="K65" s="15"/>
       <c r="L65" s="155"/>
     </row>
-    <row r="66" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="13"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
@@ -6889,7 +6889,7 @@
       <c r="K66" s="15"/>
       <c r="L66" s="155"/>
     </row>
-    <row r="67" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="13"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
@@ -6903,7 +6903,7 @@
       <c r="K67" s="15"/>
       <c r="L67" s="155"/>
     </row>
-    <row r="68" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="13"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -6917,7 +6917,7 @@
       <c r="K68" s="15"/>
       <c r="L68" s="155"/>
     </row>
-    <row r="69" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="13"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
@@ -6931,7 +6931,7 @@
       <c r="K69" s="15"/>
       <c r="L69" s="155"/>
     </row>
-    <row r="70" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="13"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
@@ -6945,7 +6945,7 @@
       <c r="K70" s="15"/>
       <c r="L70" s="155"/>
     </row>
-    <row r="71" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="13"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -6959,7 +6959,7 @@
       <c r="K71" s="15"/>
       <c r="L71" s="155"/>
     </row>
-    <row r="72" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="13"/>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
@@ -6973,7 +6973,7 @@
       <c r="K72" s="15"/>
       <c r="L72" s="155"/>
     </row>
-    <row r="73" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="13"/>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
@@ -6987,7 +6987,7 @@
       <c r="K73" s="15"/>
       <c r="L73" s="155"/>
     </row>
-    <row r="74" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="13"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
@@ -7001,7 +7001,7 @@
       <c r="K74" s="15"/>
       <c r="L74" s="155"/>
     </row>
-    <row r="75" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="13"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
@@ -7015,7 +7015,7 @@
       <c r="K75" s="15"/>
       <c r="L75" s="155"/>
     </row>
-    <row r="76" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="13"/>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
@@ -7029,7 +7029,7 @@
       <c r="K76" s="15"/>
       <c r="L76" s="155"/>
     </row>
-    <row r="77" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="13"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
@@ -7043,7 +7043,7 @@
       <c r="K77" s="15"/>
       <c r="L77" s="155"/>
     </row>
-    <row r="78" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="13"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
@@ -7057,7 +7057,7 @@
       <c r="K78" s="15"/>
       <c r="L78" s="155"/>
     </row>
-    <row r="79" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="13"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
@@ -7071,7 +7071,7 @@
       <c r="K79" s="15"/>
       <c r="L79" s="155"/>
     </row>
-    <row r="80" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="13"/>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
@@ -7085,7 +7085,7 @@
       <c r="K80" s="15"/>
       <c r="L80" s="155"/>
     </row>
-    <row r="81" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="13"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
@@ -7099,7 +7099,7 @@
       <c r="K81" s="15"/>
       <c r="L81" s="155"/>
     </row>
-    <row r="82" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="13"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
@@ -7113,7 +7113,7 @@
       <c r="K82" s="15"/>
       <c r="L82" s="155"/>
     </row>
-    <row r="83" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="13"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
@@ -7127,7 +7127,7 @@
       <c r="K83" s="15"/>
       <c r="L83" s="155"/>
     </row>
-    <row r="84" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="13"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
@@ -7141,7 +7141,7 @@
       <c r="K84" s="15"/>
       <c r="L84" s="155"/>
     </row>
-    <row r="85" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="13"/>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
@@ -7155,7 +7155,7 @@
       <c r="K85" s="15"/>
       <c r="L85" s="155"/>
     </row>
-    <row r="86" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="13"/>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
@@ -7169,7 +7169,7 @@
       <c r="K86" s="15"/>
       <c r="L86" s="155"/>
     </row>
-    <row r="87" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="13"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
@@ -7183,7 +7183,7 @@
       <c r="K87" s="15"/>
       <c r="L87" s="155"/>
     </row>
-    <row r="88" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="13"/>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
@@ -7197,7 +7197,7 @@
       <c r="K88" s="15"/>
       <c r="L88" s="155"/>
     </row>
-    <row r="89" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="13"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
@@ -7211,7 +7211,7 @@
       <c r="K89" s="15"/>
       <c r="L89" s="155"/>
     </row>
-    <row r="90" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="13"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
@@ -7225,7 +7225,7 @@
       <c r="K90" s="15"/>
       <c r="L90" s="155"/>
     </row>
-    <row r="91" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="13"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
@@ -7239,7 +7239,7 @@
       <c r="K91" s="15"/>
       <c r="L91" s="155"/>
     </row>
-    <row r="92" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="13"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
@@ -7253,7 +7253,7 @@
       <c r="K92" s="15"/>
       <c r="L92" s="155"/>
     </row>
-    <row r="93" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="13"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
@@ -7267,7 +7267,7 @@
       <c r="K93" s="15"/>
       <c r="L93" s="155"/>
     </row>
-    <row r="94" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="13"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
@@ -7281,7 +7281,7 @@
       <c r="K94" s="15"/>
       <c r="L94" s="155"/>
     </row>
-    <row r="95" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="13"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
@@ -7295,7 +7295,7 @@
       <c r="K95" s="15"/>
       <c r="L95" s="155"/>
     </row>
-    <row r="96" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="13"/>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
@@ -7309,7 +7309,7 @@
       <c r="K96" s="15"/>
       <c r="L96" s="155"/>
     </row>
-    <row r="97" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="13"/>
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
@@ -7323,7 +7323,7 @@
       <c r="K97" s="15"/>
       <c r="L97" s="155"/>
     </row>
-    <row r="98" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="13"/>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
@@ -7337,7 +7337,7 @@
       <c r="K98" s="15"/>
       <c r="L98" s="155"/>
     </row>
-    <row r="99" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="13"/>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
@@ -7351,7 +7351,7 @@
       <c r="K99" s="15"/>
       <c r="L99" s="155"/>
     </row>
-    <row r="100" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="13"/>
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
@@ -7365,7 +7365,7 @@
       <c r="K100" s="15"/>
       <c r="L100" s="155"/>
     </row>
-    <row r="101" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="13"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
@@ -7379,7 +7379,7 @@
       <c r="K101" s="15"/>
       <c r="L101" s="155"/>
     </row>
-    <row r="102" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="13"/>
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
@@ -7393,7 +7393,7 @@
       <c r="K102" s="15"/>
       <c r="L102" s="155"/>
     </row>
-    <row r="103" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="13"/>
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
@@ -7407,7 +7407,7 @@
       <c r="K103" s="15"/>
       <c r="L103" s="155"/>
     </row>
-    <row r="104" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="13"/>
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
@@ -7421,7 +7421,7 @@
       <c r="K104" s="15"/>
       <c r="L104" s="155"/>
     </row>
-    <row r="105" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="13"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
@@ -7435,7 +7435,7 @@
       <c r="K105" s="15"/>
       <c r="L105" s="155"/>
     </row>
-    <row r="106" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="13"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
@@ -7449,7 +7449,7 @@
       <c r="K106" s="15"/>
       <c r="L106" s="155"/>
     </row>
-    <row r="107" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="13"/>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
@@ -7463,7 +7463,7 @@
       <c r="K107" s="15"/>
       <c r="L107" s="155"/>
     </row>
-    <row r="108" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="13"/>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
@@ -7477,7 +7477,7 @@
       <c r="K108" s="15"/>
       <c r="L108" s="155"/>
     </row>
-    <row r="109" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="13"/>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -7491,7 +7491,7 @@
       <c r="K109" s="15"/>
       <c r="L109" s="155"/>
     </row>
-    <row r="110" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="13"/>
       <c r="B110" s="14"/>
       <c r="C110" s="14"/>
@@ -7505,7 +7505,7 @@
       <c r="K110" s="15"/>
       <c r="L110" s="155"/>
     </row>
-    <row r="111" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="13"/>
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
@@ -7519,7 +7519,7 @@
       <c r="K111" s="15"/>
       <c r="L111" s="155"/>
     </row>
-    <row r="112" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="13"/>
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
@@ -7533,7 +7533,7 @@
       <c r="K112" s="15"/>
       <c r="L112" s="155"/>
     </row>
-    <row r="113" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="13"/>
       <c r="B113" s="14"/>
       <c r="C113" s="14"/>
@@ -7547,7 +7547,7 @@
       <c r="K113" s="15"/>
       <c r="L113" s="155"/>
     </row>
-    <row r="114" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="13"/>
       <c r="B114" s="14"/>
       <c r="C114" s="14"/>
@@ -7561,7 +7561,7 @@
       <c r="K114" s="15"/>
       <c r="L114" s="155"/>
     </row>
-    <row r="115" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="13"/>
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
@@ -7575,7 +7575,7 @@
       <c r="K115" s="15"/>
       <c r="L115" s="155"/>
     </row>
-    <row r="116" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="13"/>
       <c r="B116" s="14"/>
       <c r="C116" s="14"/>
@@ -7589,7 +7589,7 @@
       <c r="K116" s="15"/>
       <c r="L116" s="155"/>
     </row>
-    <row r="117" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="13"/>
       <c r="B117" s="14"/>
       <c r="C117" s="14"/>
@@ -7603,7 +7603,7 @@
       <c r="K117" s="15"/>
       <c r="L117" s="155"/>
     </row>
-    <row r="118" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="13"/>
       <c r="B118" s="14"/>
       <c r="C118" s="14"/>
@@ -7617,7 +7617,7 @@
       <c r="K118" s="15"/>
       <c r="L118" s="155"/>
     </row>
-    <row r="119" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="13"/>
       <c r="B119" s="14"/>
       <c r="C119" s="14"/>
@@ -7631,7 +7631,7 @@
       <c r="K119" s="15"/>
       <c r="L119" s="155"/>
     </row>
-    <row r="120" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="13"/>
       <c r="B120" s="14"/>
       <c r="C120" s="14"/>
@@ -7645,7 +7645,7 @@
       <c r="K120" s="15"/>
       <c r="L120" s="155"/>
     </row>
-    <row r="121" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="13"/>
       <c r="B121" s="14"/>
       <c r="C121" s="14"/>
@@ -7659,7 +7659,7 @@
       <c r="K121" s="15"/>
       <c r="L121" s="155"/>
     </row>
-    <row r="122" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="13"/>
       <c r="B122" s="14"/>
       <c r="C122" s="14"/>
@@ -7673,7 +7673,7 @@
       <c r="K122" s="15"/>
       <c r="L122" s="155"/>
     </row>
-    <row r="123" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="13"/>
       <c r="B123" s="14"/>
       <c r="C123" s="14"/>
@@ -7687,7 +7687,7 @@
       <c r="K123" s="15"/>
       <c r="L123" s="155"/>
     </row>
-    <row r="124" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="13"/>
       <c r="B124" s="14"/>
       <c r="C124" s="14"/>
@@ -7701,7 +7701,7 @@
       <c r="K124" s="15"/>
       <c r="L124" s="155"/>
     </row>
-    <row r="125" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="13"/>
       <c r="B125" s="14"/>
       <c r="C125" s="14"/>
@@ -7715,7 +7715,7 @@
       <c r="K125" s="15"/>
       <c r="L125" s="155"/>
     </row>
-    <row r="126" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="13"/>
       <c r="B126" s="14"/>
       <c r="C126" s="14"/>
@@ -7729,7 +7729,7 @@
       <c r="K126" s="15"/>
       <c r="L126" s="155"/>
     </row>
-    <row r="127" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="13"/>
       <c r="B127" s="14"/>
       <c r="C127" s="14"/>
@@ -7743,7 +7743,7 @@
       <c r="K127" s="15"/>
       <c r="L127" s="155"/>
     </row>
-    <row r="128" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="13"/>
       <c r="B128" s="14"/>
       <c r="C128" s="14"/>
@@ -7757,7 +7757,7 @@
       <c r="K128" s="15"/>
       <c r="L128" s="155"/>
     </row>
-    <row r="129" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="13"/>
       <c r="B129" s="14"/>
       <c r="C129" s="14"/>
@@ -7771,7 +7771,7 @@
       <c r="K129" s="15"/>
       <c r="L129" s="155"/>
     </row>
-    <row r="130" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="13"/>
       <c r="B130" s="14"/>
       <c r="C130" s="14"/>
@@ -7785,7 +7785,7 @@
       <c r="K130" s="15"/>
       <c r="L130" s="155"/>
     </row>
-    <row r="131" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="13"/>
       <c r="B131" s="14"/>
       <c r="C131" s="14"/>
@@ -7799,7 +7799,7 @@
       <c r="K131" s="15"/>
       <c r="L131" s="155"/>
     </row>
-    <row r="132" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="13"/>
       <c r="B132" s="14"/>
       <c r="C132" s="14"/>
@@ -7813,7 +7813,7 @@
       <c r="K132" s="15"/>
       <c r="L132" s="155"/>
     </row>
-    <row r="133" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="13"/>
       <c r="B133" s="14"/>
       <c r="C133" s="14"/>
@@ -7827,7 +7827,7 @@
       <c r="K133" s="15"/>
       <c r="L133" s="155"/>
     </row>
-    <row r="134" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="13"/>
       <c r="B134" s="14"/>
       <c r="C134" s="14"/>
@@ -7841,7 +7841,7 @@
       <c r="K134" s="15"/>
       <c r="L134" s="155"/>
     </row>
-    <row r="135" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="13"/>
       <c r="B135" s="14"/>
       <c r="C135" s="14"/>
@@ -7855,7 +7855,7 @@
       <c r="K135" s="15"/>
       <c r="L135" s="155"/>
     </row>
-    <row r="136" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="13"/>
       <c r="B136" s="14"/>
       <c r="C136" s="14"/>
@@ -7869,7 +7869,7 @@
       <c r="K136" s="15"/>
       <c r="L136" s="155"/>
     </row>
-    <row r="137" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="13"/>
       <c r="B137" s="14"/>
       <c r="C137" s="14"/>
@@ -7883,7 +7883,7 @@
       <c r="K137" s="15"/>
       <c r="L137" s="155"/>
     </row>
-    <row r="138" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="13"/>
       <c r="B138" s="14"/>
       <c r="C138" s="14"/>
@@ -7897,7 +7897,7 @@
       <c r="K138" s="15"/>
       <c r="L138" s="155"/>
     </row>
-    <row r="139" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="13"/>
       <c r="B139" s="14"/>
       <c r="C139" s="14"/>
@@ -7911,7 +7911,7 @@
       <c r="K139" s="15"/>
       <c r="L139" s="155"/>
     </row>
-    <row r="140" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="13"/>
       <c r="B140" s="14"/>
       <c r="C140" s="14"/>
@@ -7925,7 +7925,7 @@
       <c r="K140" s="15"/>
       <c r="L140" s="155"/>
     </row>
-    <row r="141" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="13"/>
       <c r="B141" s="14"/>
       <c r="C141" s="14"/>
@@ -7939,7 +7939,7 @@
       <c r="K141" s="15"/>
       <c r="L141" s="155"/>
     </row>
-    <row r="142" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="13"/>
       <c r="B142" s="14"/>
       <c r="C142" s="14"/>
@@ -7953,7 +7953,7 @@
       <c r="K142" s="15"/>
       <c r="L142" s="155"/>
     </row>
-    <row r="143" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="13"/>
       <c r="B143" s="14"/>
       <c r="C143" s="14"/>
@@ -7967,7 +7967,7 @@
       <c r="K143" s="15"/>
       <c r="L143" s="155"/>
     </row>
-    <row r="144" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="13"/>
       <c r="B144" s="14"/>
       <c r="C144" s="14"/>
@@ -7981,7 +7981,7 @@
       <c r="K144" s="15"/>
       <c r="L144" s="155"/>
     </row>
-    <row r="145" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="13"/>
       <c r="B145" s="14"/>
       <c r="C145" s="14"/>
@@ -7995,7 +7995,7 @@
       <c r="K145" s="15"/>
       <c r="L145" s="155"/>
     </row>
-    <row r="146" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="13"/>
       <c r="B146" s="14"/>
       <c r="C146" s="14"/>
@@ -8009,7 +8009,7 @@
       <c r="K146" s="15"/>
       <c r="L146" s="155"/>
     </row>
-    <row r="147" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="13"/>
       <c r="B147" s="14"/>
       <c r="C147" s="14"/>
@@ -8023,7 +8023,7 @@
       <c r="K147" s="15"/>
       <c r="L147" s="155"/>
     </row>
-    <row r="148" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="13"/>
       <c r="B148" s="14"/>
       <c r="C148" s="14"/>
@@ -8037,7 +8037,7 @@
       <c r="K148" s="15"/>
       <c r="L148" s="155"/>
     </row>
-    <row r="149" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="13"/>
       <c r="B149" s="14"/>
       <c r="C149" s="14"/>
@@ -8051,7 +8051,7 @@
       <c r="K149" s="15"/>
       <c r="L149" s="155"/>
     </row>
-    <row r="150" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="13"/>
       <c r="B150" s="14"/>
       <c r="C150" s="14"/>
@@ -8065,7 +8065,7 @@
       <c r="K150" s="15"/>
       <c r="L150" s="155"/>
     </row>
-    <row r="151" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="13"/>
       <c r="B151" s="14"/>
       <c r="C151" s="14"/>
@@ -8079,7 +8079,7 @@
       <c r="K151" s="15"/>
       <c r="L151" s="155"/>
     </row>
-    <row r="152" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="13"/>
       <c r="B152" s="14"/>
       <c r="C152" s="14"/>
@@ -8093,7 +8093,7 @@
       <c r="K152" s="15"/>
       <c r="L152" s="155"/>
     </row>
-    <row r="153" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="13"/>
       <c r="B153" s="14"/>
       <c r="C153" s="14"/>
@@ -8107,7 +8107,7 @@
       <c r="K153" s="15"/>
       <c r="L153" s="155"/>
     </row>
-    <row r="154" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="13"/>
       <c r="B154" s="14"/>
       <c r="C154" s="14"/>
@@ -8121,7 +8121,7 @@
       <c r="K154" s="15"/>
       <c r="L154" s="155"/>
     </row>
-    <row r="155" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="13"/>
       <c r="B155" s="14"/>
       <c r="C155" s="14"/>
@@ -8135,7 +8135,7 @@
       <c r="K155" s="15"/>
       <c r="L155" s="155"/>
     </row>
-    <row r="156" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="13"/>
       <c r="B156" s="14"/>
       <c r="C156" s="14"/>
@@ -8149,7 +8149,7 @@
       <c r="K156" s="15"/>
       <c r="L156" s="155"/>
     </row>
-    <row r="157" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="13"/>
       <c r="B157" s="14"/>
       <c r="C157" s="14"/>
@@ -8163,7 +8163,7 @@
       <c r="K157" s="15"/>
       <c r="L157" s="155"/>
     </row>
-    <row r="158" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="13"/>
       <c r="B158" s="14"/>
       <c r="C158" s="14"/>
@@ -8177,7 +8177,7 @@
       <c r="K158" s="15"/>
       <c r="L158" s="155"/>
     </row>
-    <row r="159" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="13"/>
       <c r="B159" s="14"/>
       <c r="C159" s="14"/>
@@ -8191,7 +8191,7 @@
       <c r="K159" s="15"/>
       <c r="L159" s="155"/>
     </row>
-    <row r="160" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="13"/>
       <c r="B160" s="14"/>
       <c r="C160" s="14"/>
@@ -8205,7 +8205,7 @@
       <c r="K160" s="15"/>
       <c r="L160" s="155"/>
     </row>
-    <row r="161" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="13"/>
       <c r="B161" s="14"/>
       <c r="C161" s="14"/>
@@ -8219,7 +8219,7 @@
       <c r="K161" s="15"/>
       <c r="L161" s="155"/>
     </row>
-    <row r="162" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="13"/>
       <c r="B162" s="14"/>
       <c r="C162" s="14"/>
@@ -8233,7 +8233,7 @@
       <c r="K162" s="15"/>
       <c r="L162" s="155"/>
     </row>
-    <row r="163" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="13"/>
       <c r="B163" s="14"/>
       <c r="C163" s="14"/>
@@ -8247,7 +8247,7 @@
       <c r="K163" s="15"/>
       <c r="L163" s="155"/>
     </row>
-    <row r="164" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="13"/>
       <c r="B164" s="14"/>
       <c r="C164" s="14"/>
@@ -8261,7 +8261,7 @@
       <c r="K164" s="15"/>
       <c r="L164" s="155"/>
     </row>
-    <row r="165" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="13"/>
       <c r="B165" s="14"/>
       <c r="C165" s="14"/>
@@ -8275,7 +8275,7 @@
       <c r="K165" s="15"/>
       <c r="L165" s="155"/>
     </row>
-    <row r="166" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="13"/>
       <c r="B166" s="14"/>
       <c r="C166" s="14"/>
@@ -8289,7 +8289,7 @@
       <c r="K166" s="15"/>
       <c r="L166" s="155"/>
     </row>
-    <row r="167" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="13"/>
       <c r="B167" s="14"/>
       <c r="C167" s="14"/>
@@ -8303,7 +8303,7 @@
       <c r="K167" s="15"/>
       <c r="L167" s="155"/>
     </row>
-    <row r="168" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="13"/>
       <c r="B168" s="14"/>
       <c r="C168" s="14"/>
@@ -8317,7 +8317,7 @@
       <c r="K168" s="15"/>
       <c r="L168" s="155"/>
     </row>
-    <row r="169" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="13"/>
       <c r="B169" s="14"/>
       <c r="C169" s="14"/>
@@ -8331,7 +8331,7 @@
       <c r="K169" s="15"/>
       <c r="L169" s="155"/>
     </row>
-    <row r="170" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="13"/>
       <c r="B170" s="14"/>
       <c r="C170" s="14"/>
@@ -8345,7 +8345,7 @@
       <c r="K170" s="15"/>
       <c r="L170" s="155"/>
     </row>
-    <row r="171" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="13"/>
       <c r="B171" s="14"/>
       <c r="C171" s="14"/>
@@ -8359,7 +8359,7 @@
       <c r="K171" s="15"/>
       <c r="L171" s="155"/>
     </row>
-    <row r="172" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="13"/>
       <c r="B172" s="14"/>
       <c r="C172" s="14"/>
@@ -8373,7 +8373,7 @@
       <c r="K172" s="15"/>
       <c r="L172" s="155"/>
     </row>
-    <row r="173" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="13"/>
       <c r="B173" s="14"/>
       <c r="C173" s="14"/>
@@ -8387,7 +8387,7 @@
       <c r="K173" s="15"/>
       <c r="L173" s="155"/>
     </row>
-    <row r="174" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="13"/>
       <c r="B174" s="14"/>
       <c r="C174" s="14"/>
@@ -8401,7 +8401,7 @@
       <c r="K174" s="15"/>
       <c r="L174" s="155"/>
     </row>
-    <row r="175" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="13"/>
       <c r="B175" s="14"/>
       <c r="C175" s="14"/>
@@ -8415,7 +8415,7 @@
       <c r="K175" s="15"/>
       <c r="L175" s="155"/>
     </row>
-    <row r="176" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="13"/>
       <c r="B176" s="14"/>
       <c r="C176" s="14"/>
@@ -8429,7 +8429,7 @@
       <c r="K176" s="15"/>
       <c r="L176" s="155"/>
     </row>
-    <row r="177" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="13"/>
       <c r="B177" s="14"/>
       <c r="C177" s="14"/>
@@ -8443,7 +8443,7 @@
       <c r="K177" s="15"/>
       <c r="L177" s="155"/>
     </row>
-    <row r="178" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="13"/>
       <c r="B178" s="14"/>
       <c r="C178" s="14"/>
@@ -8457,7 +8457,7 @@
       <c r="K178" s="15"/>
       <c r="L178" s="155"/>
     </row>
-    <row r="179" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="13"/>
       <c r="B179" s="14"/>
       <c r="C179" s="14"/>
@@ -8471,7 +8471,7 @@
       <c r="K179" s="15"/>
       <c r="L179" s="155"/>
     </row>
-    <row r="180" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="13"/>
       <c r="B180" s="14"/>
       <c r="C180" s="14"/>
@@ -8485,7 +8485,7 @@
       <c r="K180" s="15"/>
       <c r="L180" s="155"/>
     </row>
-    <row r="181" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="13"/>
       <c r="B181" s="14"/>
       <c r="C181" s="14"/>
@@ -8499,7 +8499,7 @@
       <c r="K181" s="15"/>
       <c r="L181" s="155"/>
     </row>
-    <row r="182" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="13"/>
       <c r="B182" s="14"/>
       <c r="C182" s="14"/>
@@ -8513,7 +8513,7 @@
       <c r="K182" s="15"/>
       <c r="L182" s="155"/>
     </row>
-    <row r="183" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="13"/>
       <c r="B183" s="14"/>
       <c r="C183" s="14"/>
@@ -8527,7 +8527,7 @@
       <c r="K183" s="15"/>
       <c r="L183" s="155"/>
     </row>
-    <row r="184" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="13"/>
       <c r="B184" s="14"/>
       <c r="C184" s="14"/>
@@ -8541,7 +8541,7 @@
       <c r="K184" s="15"/>
       <c r="L184" s="155"/>
     </row>
-    <row r="185" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="13"/>
       <c r="B185" s="14"/>
       <c r="C185" s="14"/>
@@ -8555,7 +8555,7 @@
       <c r="K185" s="15"/>
       <c r="L185" s="155"/>
     </row>
-    <row r="186" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="13"/>
       <c r="B186" s="14"/>
       <c r="C186" s="14"/>
@@ -8569,7 +8569,7 @@
       <c r="K186" s="15"/>
       <c r="L186" s="155"/>
     </row>
-    <row r="187" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="13"/>
       <c r="B187" s="14"/>
       <c r="C187" s="14"/>
@@ -8583,7 +8583,7 @@
       <c r="K187" s="15"/>
       <c r="L187" s="155"/>
     </row>
-    <row r="188" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="13"/>
       <c r="B188" s="14"/>
       <c r="C188" s="14"/>
@@ -8597,7 +8597,7 @@
       <c r="K188" s="15"/>
       <c r="L188" s="155"/>
     </row>
-    <row r="189" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="13"/>
       <c r="B189" s="14"/>
       <c r="C189" s="14"/>
@@ -8611,7 +8611,7 @@
       <c r="K189" s="15"/>
       <c r="L189" s="155"/>
     </row>
-    <row r="190" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="13"/>
       <c r="B190" s="14"/>
       <c r="C190" s="14"/>
@@ -8625,7 +8625,7 @@
       <c r="K190" s="15"/>
       <c r="L190" s="155"/>
     </row>
-    <row r="191" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="13"/>
       <c r="B191" s="14"/>
       <c r="C191" s="14"/>
@@ -8639,7 +8639,7 @@
       <c r="K191" s="15"/>
       <c r="L191" s="155"/>
     </row>
-    <row r="192" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="13"/>
       <c r="B192" s="14"/>
       <c r="C192" s="14"/>
@@ -8653,7 +8653,7 @@
       <c r="K192" s="15"/>
       <c r="L192" s="155"/>
     </row>
-    <row r="193" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="13"/>
       <c r="B193" s="14"/>
       <c r="C193" s="14"/>
@@ -8667,7 +8667,7 @@
       <c r="K193" s="15"/>
       <c r="L193" s="155"/>
     </row>
-    <row r="194" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="13"/>
       <c r="B194" s="14"/>
       <c r="C194" s="14"/>
@@ -8681,7 +8681,7 @@
       <c r="K194" s="15"/>
       <c r="L194" s="155"/>
     </row>
-    <row r="195" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="13"/>
       <c r="B195" s="14"/>
       <c r="C195" s="14"/>
@@ -8695,7 +8695,7 @@
       <c r="K195" s="15"/>
       <c r="L195" s="155"/>
     </row>
-    <row r="196" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="13"/>
       <c r="B196" s="14"/>
       <c r="C196" s="14"/>
@@ -8709,7 +8709,7 @@
       <c r="K196" s="15"/>
       <c r="L196" s="155"/>
     </row>
-    <row r="197" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="13"/>
       <c r="B197" s="14"/>
       <c r="C197" s="14"/>
@@ -8723,7 +8723,7 @@
       <c r="K197" s="15"/>
       <c r="L197" s="155"/>
     </row>
-    <row r="198" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="13"/>
       <c r="B198" s="14"/>
       <c r="C198" s="14"/>
@@ -8737,7 +8737,7 @@
       <c r="K198" s="15"/>
       <c r="L198" s="155"/>
     </row>
-    <row r="199" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="13"/>
       <c r="B199" s="14"/>
       <c r="C199" s="14"/>
@@ -8751,7 +8751,7 @@
       <c r="K199" s="15"/>
       <c r="L199" s="155"/>
     </row>
-    <row r="200" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="13"/>
       <c r="B200" s="14"/>
       <c r="C200" s="14"/>
@@ -8765,7 +8765,7 @@
       <c r="K200" s="15"/>
       <c r="L200" s="155"/>
     </row>
-    <row r="201" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="13"/>
       <c r="B201" s="14"/>
       <c r="C201" s="14"/>
@@ -8779,7 +8779,7 @@
       <c r="K201" s="15"/>
       <c r="L201" s="155"/>
     </row>
-    <row r="202" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="13"/>
       <c r="B202" s="14"/>
       <c r="C202" s="14"/>
@@ -8793,7 +8793,7 @@
       <c r="K202" s="15"/>
       <c r="L202" s="155"/>
     </row>
-    <row r="203" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="13"/>
       <c r="B203" s="14"/>
       <c r="C203" s="14"/>
@@ -8807,7 +8807,7 @@
       <c r="K203" s="15"/>
       <c r="L203" s="155"/>
     </row>
-    <row r="204" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="13"/>
       <c r="B204" s="14"/>
       <c r="C204" s="14"/>
@@ -8821,7 +8821,7 @@
       <c r="K204" s="15"/>
       <c r="L204" s="155"/>
     </row>
-    <row r="205" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="13"/>
       <c r="B205" s="14"/>
       <c r="C205" s="14"/>
@@ -8835,7 +8835,7 @@
       <c r="K205" s="15"/>
       <c r="L205" s="155"/>
     </row>
-    <row r="206" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="13"/>
       <c r="B206" s="14"/>
       <c r="C206" s="14"/>
@@ -8849,7 +8849,7 @@
       <c r="K206" s="15"/>
       <c r="L206" s="155"/>
     </row>
-    <row r="207" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="13"/>
       <c r="B207" s="14"/>
       <c r="C207" s="14"/>
@@ -8863,7 +8863,7 @@
       <c r="K207" s="15"/>
       <c r="L207" s="155"/>
     </row>
-    <row r="208" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="13"/>
       <c r="B208" s="14"/>
       <c r="C208" s="14"/>
@@ -8877,7 +8877,7 @@
       <c r="K208" s="15"/>
       <c r="L208" s="155"/>
     </row>
-    <row r="209" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="13"/>
       <c r="B209" s="14"/>
       <c r="C209" s="14"/>
@@ -8891,7 +8891,7 @@
       <c r="K209" s="15"/>
       <c r="L209" s="155"/>
     </row>
-    <row r="210" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="13"/>
       <c r="B210" s="14"/>
       <c r="C210" s="14"/>
@@ -8905,7 +8905,7 @@
       <c r="K210" s="15"/>
       <c r="L210" s="155"/>
     </row>
-    <row r="211" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="13"/>
       <c r="B211" s="14"/>
       <c r="C211" s="14"/>
@@ -8919,7 +8919,7 @@
       <c r="K211" s="15"/>
       <c r="L211" s="155"/>
     </row>
-    <row r="212" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="13"/>
       <c r="B212" s="14"/>
       <c r="C212" s="14"/>
@@ -8933,7 +8933,7 @@
       <c r="K212" s="15"/>
       <c r="L212" s="155"/>
     </row>
-    <row r="213" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="13"/>
       <c r="B213" s="14"/>
       <c r="C213" s="14"/>
@@ -8947,7 +8947,7 @@
       <c r="K213" s="15"/>
       <c r="L213" s="155"/>
     </row>
-    <row r="214" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="13"/>
       <c r="B214" s="14"/>
       <c r="C214" s="14"/>
@@ -8968,30 +8968,32 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:T87"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="46.88671875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="47.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.6640625" style="17" customWidth="1"/>
-    <col min="5" max="9" width="7.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="14.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="47.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.7109375" style="17" customWidth="1"/>
+    <col min="5" max="9" width="7.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="14.85546875" style="18" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="72" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.6640625" style="72" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.6640625" style="16"/>
+    <col min="16" max="16" width="7.42578125" style="72" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.7109375" style="72" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.7109375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="37"/>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -9011,7 +9013,7 @@
       <c r="Q1" s="69"/>
       <c r="R1" s="37"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="137" t="s">
         <v>272</v>
       </c>
@@ -9035,7 +9037,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="37"/>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
@@ -9055,7 +9057,7 @@
       <c r="Q3" s="69"/>
       <c r="R3" s="37"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="34"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
@@ -9075,14 +9077,14 @@
       <c r="Q4" s="70"/>
       <c r="R4" s="34"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="O5" s="42"/>
       <c r="P5" s="42" t="s">
         <v>252</v>
       </c>
       <c r="Q5" s="42"/>
     </row>
-    <row r="6" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
         <v>43</v>
       </c>
@@ -9148,7 +9150,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="24" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>216</v>
       </c>
@@ -9180,7 +9182,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>103</v>
       </c>
@@ -9211,7 +9213,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>217</v>
       </c>
@@ -9252,7 +9254,7 @@
       </c>
       <c r="T9" s="134"/>
     </row>
-    <row r="10" spans="1:20" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>220</v>
       </c>
@@ -9292,7 +9294,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>57</v>
       </c>
@@ -9332,7 +9334,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>59</v>
       </c>
@@ -9370,7 +9372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>60</v>
       </c>
@@ -9410,7 +9412,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>493</v>
       </c>
@@ -9450,7 +9452,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>63</v>
       </c>
@@ -9490,7 +9492,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>64</v>
       </c>
@@ -9530,7 +9532,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>65</v>
       </c>
@@ -9570,7 +9572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>66</v>
       </c>
@@ -9610,7 +9612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>67</v>
       </c>
@@ -9650,7 +9652,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>68</v>
       </c>
@@ -9690,7 +9692,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>69</v>
       </c>
@@ -9730,7 +9732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>70</v>
       </c>
@@ -9770,7 +9772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>71</v>
       </c>
@@ -9810,7 +9812,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>72</v>
       </c>
@@ -9850,7 +9852,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>73</v>
       </c>
@@ -9892,7 +9894,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>74</v>
       </c>
@@ -9932,7 +9934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>75</v>
       </c>
@@ -9972,7 +9974,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>76</v>
       </c>
@@ -10012,7 +10014,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>77</v>
       </c>
@@ -10052,7 +10054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
         <v>78</v>
       </c>
@@ -10092,7 +10094,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>80</v>
       </c>
@@ -10132,7 +10134,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>196</v>
       </c>
@@ -10172,7 +10174,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>197</v>
       </c>
@@ -10212,7 +10214,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
         <v>23</v>
       </c>
@@ -10254,12 +10256,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R37" s="16" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="28"/>
       <c r="B38" s="28"/>
       <c r="C38" s="28"/>
@@ -10279,7 +10281,7 @@
       <c r="Q38" s="73"/>
       <c r="R38" s="28"/>
     </row>
-    <row r="40" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="84" t="s">
         <v>44</v>
       </c>
@@ -10294,7 +10296,7 @@
       <c r="P40" s="68"/>
       <c r="Q40" s="68"/>
     </row>
-    <row r="41" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="97" t="s">
         <v>91</v>
       </c>
@@ -10316,7 +10318,7 @@
       <c r="M41" s="16"/>
       <c r="N41" s="16"/>
     </row>
-    <row r="42" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="99" t="s">
         <v>92</v>
       </c>
@@ -10338,7 +10340,7 @@
       <c r="M42" s="16"/>
       <c r="N42" s="16"/>
     </row>
-    <row r="43" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="97" t="s">
         <v>94</v>
       </c>
@@ -10360,7 +10362,7 @@
       <c r="M43" s="16"/>
       <c r="N43" s="16"/>
     </row>
-    <row r="44" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="99" t="s">
         <v>95</v>
       </c>
@@ -10382,7 +10384,7 @@
       <c r="M44" s="16"/>
       <c r="N44" s="16"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="97" t="s">
         <v>19</v>
       </c>
@@ -10404,7 +10406,7 @@
       <c r="M45" s="16"/>
       <c r="N45" s="16"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="149" t="s">
         <v>20</v>
       </c>
@@ -10426,7 +10428,7 @@
       <c r="M46" s="16"/>
       <c r="N46" s="16"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="97" t="s">
         <v>21</v>
       </c>
@@ -10448,7 +10450,7 @@
       <c r="M47" s="16"/>
       <c r="N47" s="16"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="99" t="s">
         <v>22</v>
       </c>
@@ -10470,7 +10472,7 @@
       <c r="M48" s="16"/>
       <c r="N48" s="16"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="148" t="s">
         <v>53</v>
       </c>
@@ -10492,7 +10494,7 @@
       <c r="M49" s="16"/>
       <c r="N49" s="16"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="99" t="s">
         <v>54</v>
       </c>
@@ -10514,7 +10516,7 @@
       <c r="M50" s="16"/>
       <c r="N50" s="16"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="148" t="s">
         <v>55</v>
       </c>
@@ -10536,7 +10538,7 @@
       <c r="M51" s="16"/>
       <c r="N51" s="16"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="99" t="s">
         <v>56</v>
       </c>
@@ -10558,7 +10560,7 @@
       <c r="M52" s="16"/>
       <c r="N52" s="16"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="97" t="s">
         <v>97</v>
       </c>
@@ -10580,7 +10582,7 @@
       <c r="M53" s="16"/>
       <c r="N53" s="16"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="99" t="s">
         <v>98</v>
       </c>
@@ -10602,7 +10604,7 @@
       <c r="M54" s="16"/>
       <c r="N54" s="16"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="97" t="s">
         <v>99</v>
       </c>
@@ -10624,7 +10626,7 @@
       <c r="M55" s="16"/>
       <c r="N55" s="16"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="99" t="s">
         <v>100</v>
       </c>
@@ -10646,7 +10648,7 @@
       <c r="M56" s="16"/>
       <c r="N56" s="16"/>
     </row>
-    <row r="57" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="101" t="s">
         <v>193</v>
       </c>
@@ -10668,7 +10670,7 @@
       <c r="M57" s="16"/>
       <c r="N57" s="16"/>
     </row>
-    <row r="58" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="103" t="s">
         <v>106</v>
       </c>
@@ -10690,7 +10692,7 @@
       <c r="M58" s="16"/>
       <c r="N58" s="16"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="101" t="s">
         <v>107</v>
       </c>
@@ -10712,7 +10714,7 @@
       <c r="M59" s="16"/>
       <c r="N59" s="16"/>
     </row>
-    <row r="60" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="99" t="s">
         <v>109</v>
       </c>
@@ -10734,7 +10736,7 @@
       <c r="M60" s="16"/>
       <c r="N60" s="16"/>
     </row>
-    <row r="61" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="97" t="s">
         <v>110</v>
       </c>
@@ -10756,7 +10758,7 @@
       <c r="M61" s="16"/>
       <c r="N61" s="16"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="104" t="s">
         <v>111</v>
       </c>
@@ -10778,7 +10780,7 @@
       <c r="M62" s="16"/>
       <c r="N62" s="16"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="105" t="s">
         <v>112</v>
       </c>
@@ -10800,7 +10802,7 @@
       <c r="M63" s="16"/>
       <c r="N63" s="16"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="104" t="s">
         <v>113</v>
       </c>
@@ -10822,7 +10824,7 @@
       <c r="M64" s="16"/>
       <c r="N64" s="16"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="105" t="s">
         <v>114</v>
       </c>
@@ -10844,7 +10846,7 @@
       <c r="M65" s="16"/>
       <c r="N65" s="16"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="104" t="s">
         <v>115</v>
       </c>
@@ -10866,7 +10868,7 @@
       <c r="M66" s="16"/>
       <c r="N66" s="16"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="105" t="s">
         <v>116</v>
       </c>
@@ -10888,7 +10890,7 @@
       <c r="M67" s="16"/>
       <c r="N67" s="16"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="104" t="s">
         <v>117</v>
       </c>
@@ -10910,7 +10912,7 @@
       <c r="M68" s="16"/>
       <c r="N68" s="16"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="105" t="s">
         <v>118</v>
       </c>
@@ -10932,7 +10934,7 @@
       <c r="M69" s="16"/>
       <c r="N69" s="16"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="104" t="s">
         <v>119</v>
       </c>
@@ -10954,7 +10956,7 @@
       <c r="M70" s="16"/>
       <c r="N70" s="16"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="105" t="s">
         <v>120</v>
       </c>
@@ -10976,7 +10978,7 @@
       <c r="M71" s="16"/>
       <c r="N71" s="16"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="104" t="s">
         <v>121</v>
       </c>
@@ -10998,7 +11000,7 @@
       <c r="M72" s="16"/>
       <c r="N72" s="16"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="105" t="s">
         <v>122</v>
       </c>
@@ -11020,7 +11022,7 @@
       <c r="M73" s="16"/>
       <c r="N73" s="16"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="104" t="s">
         <v>123</v>
       </c>
@@ -11042,7 +11044,7 @@
       <c r="M74" s="16"/>
       <c r="N74" s="16"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="105" t="s">
         <v>124</v>
       </c>
@@ -11064,7 +11066,7 @@
       <c r="M75" s="16"/>
       <c r="N75" s="16"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="104" t="s">
         <v>125</v>
       </c>
@@ -11086,7 +11088,7 @@
       <c r="M76" s="16"/>
       <c r="N76" s="16"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="105" t="s">
         <v>126</v>
       </c>
@@ -11108,7 +11110,7 @@
       <c r="M77" s="16"/>
       <c r="N77" s="16"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="104" t="s">
         <v>127</v>
       </c>
@@ -11130,7 +11132,7 @@
       <c r="M78" s="16"/>
       <c r="N78" s="16"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="105" t="s">
         <v>128</v>
       </c>
@@ -11152,7 +11154,7 @@
       <c r="M79" s="16"/>
       <c r="N79" s="16"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="104" t="s">
         <v>129</v>
       </c>
@@ -11174,7 +11176,7 @@
       <c r="M80" s="16"/>
       <c r="N80" s="16"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="105" t="s">
         <v>130</v>
       </c>
@@ -11196,7 +11198,7 @@
       <c r="M81" s="16"/>
       <c r="N81" s="16"/>
     </row>
-    <row r="82" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="99" t="s">
         <v>131</v>
       </c>
@@ -11218,7 +11220,7 @@
       <c r="M82" s="16"/>
       <c r="N82" s="16"/>
     </row>
-    <row r="83" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="97" t="s">
         <v>132</v>
       </c>
@@ -11240,7 +11242,7 @@
       <c r="M83" s="16"/>
       <c r="N83" s="16"/>
     </row>
-    <row r="84" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="99" t="s">
         <v>133</v>
       </c>
@@ -11262,7 +11264,7 @@
       <c r="M84" s="16"/>
       <c r="N84" s="16"/>
     </row>
-    <row r="85" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="97" t="s">
         <v>134</v>
       </c>
@@ -11284,7 +11286,7 @@
       <c r="M85" s="16"/>
       <c r="N85" s="16"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="99" t="s">
         <v>135</v>
       </c>
@@ -11306,7 +11308,7 @@
       <c r="M86" s="16"/>
       <c r="N86" s="16"/>
     </row>
-    <row r="87" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="99" t="s">
         <v>497</v>
       </c>
@@ -11335,7 +11337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
@@ -11345,26 +11347,26 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.33203125" customWidth="1"/>
-    <col min="2" max="2" width="62.88671875" customWidth="1"/>
-    <col min="3" max="3" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="7.88671875" style="82" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="82" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="82" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="7.88671875" style="82" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5546875" style="82" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.88671875" customWidth="1"/>
-    <col min="16" max="23" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.28515625" customWidth="1"/>
+    <col min="2" max="2" width="62.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="7.85546875" style="82" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="82" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="82" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="7.85546875" style="82" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="82" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.85546875" customWidth="1"/>
+    <col min="16" max="23" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="48" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="40.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="74"/>
       <c r="B1" s="74"/>
       <c r="C1" s="74"/>
@@ -11381,7 +11383,7 @@
       <c r="N1" s="80"/>
       <c r="O1" s="74"/>
     </row>
-    <row r="2" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
         <v>313</v>
       </c>
@@ -11402,7 +11404,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="74"/>
       <c r="B3" s="74"/>
       <c r="C3" s="74"/>
@@ -11419,7 +11421,7 @@
       <c r="N3" s="80"/>
       <c r="O3" s="74"/>
     </row>
-    <row r="4" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
@@ -11436,7 +11438,7 @@
       <c r="N4" s="70"/>
       <c r="O4" s="34"/>
     </row>
-    <row r="5" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D5" s="17"/>
       <c r="E5" s="72"/>
       <c r="F5" s="72"/>
@@ -11451,7 +11453,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="78" t="s">
         <v>43</v>
       </c>
@@ -11508,7 +11510,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" s="79" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>276</v>
       </c>
@@ -11549,7 +11551,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="79" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" s="79" customFormat="1" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
         <v>500</v>
       </c>
@@ -11590,7 +11592,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" s="79" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>282</v>
       </c>
@@ -11631,7 +11633,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" s="79" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>285</v>
       </c>
@@ -11672,7 +11674,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" s="79" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>287</v>
       </c>
@@ -11713,7 +11715,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" s="79" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>289</v>
       </c>
@@ -11754,7 +11756,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" s="79" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>290</v>
       </c>
@@ -11795,7 +11797,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" s="79" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>292</v>
       </c>
@@ -11836,7 +11838,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" s="79" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>296</v>
       </c>
@@ -11877,7 +11879,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" s="79" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>299</v>
       </c>
@@ -11918,7 +11920,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" s="79" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>302</v>
       </c>
@@ -11959,7 +11961,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" s="79" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>306</v>
       </c>
@@ -12000,7 +12002,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" s="79" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>310</v>
       </c>
@@ -12041,7 +12043,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D22" s="17"/>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
@@ -12059,7 +12061,7 @@
       <c r="P22" s="72"/>
       <c r="Q22" s="72"/>
     </row>
-    <row r="23" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="28"/>
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
@@ -12078,7 +12080,7 @@
       <c r="P23" s="73"/>
       <c r="Q23" s="73"/>
     </row>
-    <row r="24" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D24" s="17"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
@@ -12093,7 +12095,7 @@
       <c r="P24" s="72"/>
       <c r="Q24" s="72"/>
     </row>
-    <row r="25" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="84" t="s">
         <v>44</v>
       </c>
@@ -12107,7 +12109,7 @@
       <c r="P25" s="68"/>
       <c r="Q25" s="68"/>
     </row>
-    <row r="26" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="85" t="s">
         <v>314</v>
       </c>
@@ -12119,7 +12121,7 @@
       <c r="P26" s="68"/>
       <c r="Q26" s="68"/>
     </row>
-    <row r="27" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="85" t="s">
         <v>315</v>
       </c>
@@ -12128,7 +12130,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="85" t="s">
         <v>316</v>
       </c>
@@ -12137,7 +12139,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="85" t="s">
         <v>317</v>
       </c>
@@ -12146,7 +12148,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="85" t="s">
         <v>318</v>
       </c>
@@ -12155,7 +12157,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="85" t="s">
         <v>319</v>
       </c>
@@ -12172,7 +12174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
@@ -12182,27 +12184,27 @@
       <selection activeCell="J9" sqref="J9:N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.33203125" customWidth="1"/>
-    <col min="2" max="2" width="62.88671875" customWidth="1"/>
-    <col min="3" max="3" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="66.5546875" customWidth="1"/>
-    <col min="5" max="8" width="8.33203125" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" style="82" customWidth="1"/>
-    <col min="10" max="14" width="7.88671875" style="82" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.28515625" customWidth="1"/>
+    <col min="2" max="2" width="62.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.5703125" customWidth="1"/>
+    <col min="5" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" style="82" customWidth="1"/>
+    <col min="10" max="14" width="7.85546875" style="82" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="31.33203125" customWidth="1"/>
-    <col min="19" max="24" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.28515625" customWidth="1"/>
+    <col min="19" max="24" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="48" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="40.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="91"/>
       <c r="B1" s="91"/>
       <c r="C1" s="91"/>
@@ -12222,7 +12224,7 @@
       <c r="Q1" s="91"/>
       <c r="R1" s="91"/>
     </row>
-    <row r="2" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="108" t="s">
         <v>327</v>
       </c>
@@ -12244,7 +12246,7 @@
       <c r="Q2" s="91"/>
       <c r="R2" s="91"/>
     </row>
-    <row r="3" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="91"/>
       <c r="B3" s="91"/>
       <c r="C3" s="91"/>
@@ -12264,7 +12266,7 @@
       <c r="Q3" s="91"/>
       <c r="R3" s="91"/>
     </row>
-    <row r="4" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
@@ -12281,7 +12283,7 @@
       <c r="N4" s="70"/>
       <c r="R4" s="34"/>
     </row>
-    <row r="5" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="34"/>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
@@ -12298,7 +12300,7 @@
       <c r="N5" s="70"/>
       <c r="R5" s="34"/>
     </row>
-    <row r="6" spans="1:18" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18" s="16" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A6" s="120" t="s">
         <v>328</v>
       </c>
@@ -12320,7 +12322,7 @@
       <c r="Q6" s="121"/>
       <c r="R6" s="121"/>
     </row>
-    <row r="7" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
@@ -12338,7 +12340,7 @@
       </c>
       <c r="Q7" s="94"/>
     </row>
-    <row r="8" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="88" t="s">
         <v>43</v>
       </c>
@@ -12404,7 +12406,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="79" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" s="79" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
         <v>461</v>
       </c>
@@ -12444,7 +12446,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="79" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" s="79" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
         <v>462</v>
       </c>
@@ -12484,7 +12486,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="79" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" s="79" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
         <v>463</v>
       </c>
@@ -12524,7 +12526,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="79" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" s="79" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
         <v>464</v>
       </c>
@@ -12564,7 +12566,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="79" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" s="79" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
         <v>465</v>
       </c>
@@ -12604,7 +12606,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="79" customFormat="1" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" s="79" customFormat="1" ht="65.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
         <v>501</v>
       </c>
@@ -12644,7 +12646,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="79" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" s="79" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
         <v>502</v>
       </c>
@@ -12684,7 +12686,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="79" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" s="79" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
         <v>503</v>
       </c>
@@ -12724,7 +12726,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="79" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" s="79" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
         <v>504</v>
       </c>
@@ -12764,7 +12766,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="79" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" s="79" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
         <v>505</v>
       </c>
@@ -12811,7 +12813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
@@ -12821,29 +12823,29 @@
       <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.109375" customWidth="1"/>
-    <col min="2" max="2" width="66.88671875" customWidth="1"/>
+    <col min="1" max="1" width="40.140625" customWidth="1"/>
+    <col min="2" max="2" width="66.85546875" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="77" customWidth="1"/>
-    <col min="5" max="9" width="7.88671875" style="82" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="7.85546875" style="82" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" style="82" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" style="82" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="82" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="14" style="82" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.44140625" style="82" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5546875" style="72" customWidth="1"/>
-    <col min="16" max="16" width="9.44140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.6640625" style="72" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.88671875" customWidth="1"/>
-    <col min="19" max="19" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="46.6640625" customWidth="1"/>
-    <col min="22" max="22" width="106.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.88671875" style="143"/>
+    <col min="14" max="14" width="14.42578125" style="82" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" style="72" customWidth="1"/>
+    <col min="16" max="16" width="9.42578125" style="72" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" style="72" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.85546875" customWidth="1"/>
+    <col min="19" max="19" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="46.7109375" customWidth="1"/>
+    <col min="22" max="22" width="106.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.85546875" style="143"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="141" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="141" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="91"/>
       <c r="B1" s="91"/>
       <c r="C1" s="91"/>
@@ -12867,7 +12869,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="16"/>
     </row>
-    <row r="2" spans="1:22" s="141" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" s="141" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="108" t="s">
         <v>340</v>
       </c>
@@ -12895,7 +12897,7 @@
       <c r="U2" s="16"/>
       <c r="V2" s="16"/>
     </row>
-    <row r="3" spans="1:22" s="141" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" s="141" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="91"/>
       <c r="B3" s="91"/>
       <c r="C3" s="91"/>
@@ -12919,7 +12921,7 @@
       <c r="U3" s="16"/>
       <c r="V3" s="16"/>
     </row>
-    <row r="4" spans="1:22" s="141" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" s="141" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
@@ -12943,7 +12945,7 @@
       <c r="U4" s="16"/>
       <c r="V4" s="16"/>
     </row>
-    <row r="5" spans="1:22" s="141" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" s="141" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -12967,7 +12969,7 @@
       <c r="U5" s="16"/>
       <c r="V5" s="16"/>
     </row>
-    <row r="6" spans="1:22" s="141" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:22" s="141" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A6" s="114" t="s">
         <v>342</v>
       </c>
@@ -12993,7 +12995,7 @@
       <c r="U6" s="115"/>
       <c r="V6" s="116"/>
     </row>
-    <row r="7" spans="1:22" s="141" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" s="141" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -13021,7 +13023,7 @@
       <c r="U7" s="16"/>
       <c r="V7" s="16"/>
     </row>
-    <row r="8" spans="1:22" s="141" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" s="141" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="88" t="s">
         <v>43</v>
       </c>
@@ -13097,7 +13099,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="142" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" s="142" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>354</v>
       </c>
@@ -13148,7 +13150,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="142" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" s="142" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
         <v>355</v>
       </c>
@@ -13192,7 +13194,7 @@
       <c r="U10" s="20"/>
       <c r="V10" s="103"/>
     </row>
-    <row r="11" spans="1:22" s="142" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" s="142" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="109"/>
       <c r="B11" s="109"/>
       <c r="C11" s="110"/>
@@ -13216,7 +13218,7 @@
       <c r="U11" s="109"/>
       <c r="V11" s="113"/>
     </row>
-    <row r="13" spans="1:22" s="141" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:22" s="141" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A13" s="120" t="s">
         <v>329</v>
       </c>
@@ -13242,7 +13244,7 @@
       <c r="U13" s="28"/>
       <c r="V13" s="28"/>
     </row>
-    <row r="14" spans="1:22" s="141" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" s="141" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -13270,7 +13272,7 @@
       <c r="U14" s="16"/>
       <c r="V14" s="16"/>
     </row>
-    <row r="15" spans="1:22" s="141" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" s="141" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="88" t="s">
         <v>43</v>
       </c>
@@ -13346,7 +13348,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="142" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" s="142" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>323</v>
       </c>
@@ -13396,12 +13398,12 @@
         <v>326</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O17"/>
       <c r="P17"/>
       <c r="Q17"/>
     </row>
-    <row r="19" spans="1:22" s="141" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:22" s="141" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A19" s="114" t="s">
         <v>332</v>
       </c>
@@ -13427,7 +13429,7 @@
       <c r="U19" s="115"/>
       <c r="V19" s="116"/>
     </row>
-    <row r="20" spans="1:22" s="141" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" s="141" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -13455,7 +13457,7 @@
       <c r="U20" s="16"/>
       <c r="V20" s="16"/>
     </row>
-    <row r="21" spans="1:22" s="141" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" s="141" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="88" t="s">
         <v>43</v>
       </c>
@@ -13531,7 +13533,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:22" s="142" customFormat="1" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" s="142" customFormat="1" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>365</v>
       </c>
@@ -13581,7 +13583,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="23" spans="1:22" s="142" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" s="142" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -13605,7 +13607,7 @@
       <c r="U23" s="109"/>
       <c r="V23" s="113"/>
     </row>
-    <row r="25" spans="1:22" s="141" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:22" s="141" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A25" s="114" t="s">
         <v>333</v>
       </c>
@@ -13631,7 +13633,7 @@
       <c r="U25" s="115"/>
       <c r="V25" s="116"/>
     </row>
-    <row r="26" spans="1:22" s="141" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" s="141" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -13659,7 +13661,7 @@
       <c r="U26" s="16"/>
       <c r="V26" s="16"/>
     </row>
-    <row r="27" spans="1:22" s="141" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" s="141" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="125" t="s">
         <v>43</v>
       </c>
@@ -13735,7 +13737,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:22" s="142" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" s="142" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>371</v>
       </c>
@@ -13783,7 +13785,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="29" spans="1:22" s="142" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" s="142" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="79"/>
       <c r="B29" s="79"/>
       <c r="C29" s="79"/>
@@ -13813,7 +13815,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="31" spans="1:22" s="141" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:22" s="141" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A31" s="114" t="s">
         <v>335</v>
       </c>
@@ -13839,7 +13841,7 @@
       <c r="U31" s="115"/>
       <c r="V31" s="116"/>
     </row>
-    <row r="32" spans="1:22" s="141" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" s="141" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -13867,7 +13869,7 @@
       <c r="U32" s="16"/>
       <c r="V32" s="16"/>
     </row>
-    <row r="33" spans="1:22" s="141" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" s="141" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="88" t="s">
         <v>43</v>
       </c>
@@ -13943,7 +13945,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:22" s="142" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" s="142" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
         <v>385</v>
       </c>
@@ -13986,7 +13988,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="35" spans="1:22" s="142" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" s="142" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>387</v>
       </c>
@@ -14029,7 +14031,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="36" spans="1:22" s="142" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" s="142" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
         <v>390</v>
       </c>
@@ -14073,7 +14075,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="1:22" s="142" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" s="142" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>391</v>
       </c>
@@ -14117,7 +14119,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="38" spans="1:22" s="142" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" s="142" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="109"/>
       <c r="B38" s="109"/>
       <c r="C38" s="110"/>
@@ -14141,7 +14143,7 @@
       <c r="U38" s="109"/>
       <c r="V38" s="113"/>
     </row>
-    <row r="40" spans="1:22" s="141" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:22" s="141" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A40" s="114" t="s">
         <v>337</v>
       </c>
@@ -14167,7 +14169,7 @@
       <c r="U40" s="115"/>
       <c r="V40" s="116"/>
     </row>
-    <row r="41" spans="1:22" s="141" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" s="141" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16"/>
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
@@ -14193,7 +14195,7 @@
       <c r="U41" s="129"/>
       <c r="V41" s="129"/>
     </row>
-    <row r="42" spans="1:22" s="141" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" s="141" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="88" t="s">
         <v>43</v>
       </c>
@@ -14263,7 +14265,7 @@
       <c r="U42" s="130"/>
       <c r="V42" s="130"/>
     </row>
-    <row r="43" spans="1:22" s="142" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" s="142" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
         <v>404</v>
       </c>
@@ -14301,7 +14303,7 @@
       <c r="U43" s="109"/>
       <c r="V43" s="113"/>
     </row>
-    <row r="44" spans="1:22" s="142" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" s="142" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>406</v>
       </c>
@@ -14339,7 +14341,7 @@
       <c r="U44" s="109"/>
       <c r="V44" s="113"/>
     </row>
-    <row r="45" spans="1:22" s="142" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" s="142" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="109"/>
       <c r="B45" s="109"/>
       <c r="C45" s="110"/>
@@ -14363,7 +14365,7 @@
       <c r="U45" s="109"/>
       <c r="V45" s="113"/>
     </row>
-    <row r="47" spans="1:22" s="141" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:22" s="141" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A47" s="114" t="s">
         <v>338</v>
       </c>
@@ -14389,7 +14391,7 @@
       <c r="U47" s="115"/>
       <c r="V47" s="116"/>
     </row>
-    <row r="48" spans="1:22" s="141" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" s="141" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16"/>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
@@ -14417,7 +14419,7 @@
       <c r="U48" s="16"/>
       <c r="V48" s="16"/>
     </row>
-    <row r="49" spans="1:22" s="141" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" s="141" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="88" t="s">
         <v>43</v>
       </c>
@@ -14493,7 +14495,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:22" s="142" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" s="142" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>412</v>
       </c>
@@ -14537,7 +14539,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="51" spans="1:22" s="142" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" s="142" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
         <v>415</v>
       </c>
@@ -14575,7 +14577,7 @@
       <c r="U51" s="109"/>
       <c r="V51" s="113"/>
     </row>
-    <row r="52" spans="1:22" s="142" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" s="142" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="109"/>
       <c r="B52" s="109"/>
       <c r="C52" s="110"/>
@@ -14599,7 +14601,7 @@
       <c r="U52" s="109"/>
       <c r="V52" s="113"/>
     </row>
-    <row r="54" spans="1:22" s="141" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:22" s="141" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A54" s="114" t="s">
         <v>341</v>
       </c>
@@ -14625,7 +14627,7 @@
       <c r="U54" s="115"/>
       <c r="V54" s="116"/>
     </row>
-    <row r="55" spans="1:22" s="141" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" s="141" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16"/>
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
@@ -14651,7 +14653,7 @@
       <c r="U55" s="129"/>
       <c r="V55" s="129"/>
     </row>
-    <row r="56" spans="1:22" s="141" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:22" s="141" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="88" t="s">
         <v>43</v>
       </c>
@@ -14721,7 +14723,7 @@
       <c r="U56" s="130"/>
       <c r="V56" s="130"/>
     </row>
-    <row r="57" spans="1:22" s="142" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" s="142" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="33" t="s">
         <v>422</v>
       </c>
@@ -14772,7 +14774,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
@@ -14782,24 +14784,24 @@
       <selection activeCell="M21" sqref="M21:N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" customWidth="1"/>
     <col min="2" max="2" width="78" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="52.44140625" customWidth="1"/>
-    <col min="5" max="14" width="7.88671875" style="82" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5546875" style="72" customWidth="1"/>
-    <col min="16" max="16" width="9.44140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.6640625" style="72" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.88671875" customWidth="1"/>
-    <col min="19" max="19" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="106.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.42578125" customWidth="1"/>
+    <col min="5" max="14" width="7.85546875" style="82" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" style="72" customWidth="1"/>
+    <col min="16" max="16" width="9.42578125" style="72" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" style="72" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.85546875" customWidth="1"/>
+    <col min="19" max="19" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="106.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="91"/>
       <c r="B1" s="91"/>
       <c r="C1" s="91"/>
@@ -14819,7 +14821,7 @@
       <c r="Q1" s="93"/>
       <c r="R1" s="91"/>
     </row>
-    <row r="2" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="108" t="s">
         <v>340</v>
       </c>
@@ -14841,7 +14843,7 @@
       <c r="Q2" s="93"/>
       <c r="R2" s="108"/>
     </row>
-    <row r="3" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="91"/>
       <c r="B3" s="91"/>
       <c r="C3" s="91"/>
@@ -14861,7 +14863,7 @@
       <c r="Q3" s="93"/>
       <c r="R3" s="91"/>
     </row>
-    <row r="4" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
@@ -14876,7 +14878,7 @@
       <c r="L4" s="70"/>
       <c r="R4" s="34"/>
     </row>
-    <row r="6" spans="1:22" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:22" s="16" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A6" s="114" t="s">
         <v>344</v>
       </c>
@@ -14902,7 +14904,7 @@
       <c r="U6" s="115"/>
       <c r="V6" s="116"/>
     </row>
-    <row r="7" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D7" s="17"/>
       <c r="E7" s="72"/>
       <c r="F7" s="72"/>
@@ -14923,7 +14925,7 @@
       <c r="U7" s="129"/>
       <c r="V7" s="129"/>
     </row>
-    <row r="8" spans="1:22" s="16" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" s="16" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="88" t="s">
         <v>43</v>
       </c>
@@ -14992,7 +14994,7 @@
       <c r="U8" s="130"/>
       <c r="V8" s="130"/>
     </row>
-    <row r="9" spans="1:22" s="79" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" s="79" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
         <v>424</v>
       </c>
@@ -15029,7 +15031,7 @@
       <c r="U9" s="109"/>
       <c r="V9" s="113"/>
     </row>
-    <row r="10" spans="1:22" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" s="79" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="109"/>
       <c r="B10" s="109"/>
       <c r="C10" s="110"/>
@@ -15052,7 +15054,7 @@
       <c r="U10" s="109"/>
       <c r="V10" s="113"/>
     </row>
-    <row r="12" spans="1:22" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:22" s="16" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A12" s="114" t="s">
         <v>347</v>
       </c>
@@ -15078,7 +15080,7 @@
       <c r="U12" s="115"/>
       <c r="V12" s="116"/>
     </row>
-    <row r="13" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D13" s="17"/>
       <c r="E13" s="72"/>
       <c r="F13" s="72"/>
@@ -15099,7 +15101,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="16" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" s="16" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="88" t="s">
         <v>43</v>
       </c>
@@ -15174,7 +15176,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="79" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" s="79" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
         <v>436</v>
       </c>
@@ -15217,7 +15219,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" s="79" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="109"/>
       <c r="B16" s="109"/>
       <c r="C16" s="110"/>
@@ -15240,7 +15242,7 @@
       <c r="U16" s="109"/>
       <c r="V16" s="113"/>
     </row>
-    <row r="18" spans="1:22" s="16" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:22" s="16" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A18" s="114" t="s">
         <v>345</v>
       </c>
@@ -15266,7 +15268,7 @@
       <c r="U18" s="115"/>
       <c r="V18" s="116"/>
     </row>
-    <row r="19" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D19" s="17"/>
       <c r="E19" s="72"/>
       <c r="F19" s="72"/>
@@ -15287,7 +15289,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="20" spans="1:22" s="16" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" s="16" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="88" t="s">
         <v>43</v>
       </c>
@@ -15362,7 +15364,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:22" s="79" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" s="79" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
         <v>438</v>
       </c>

--- a/tests/testesmanuais/CBA_SESI_Planilha_Dados_Entrada - v1.1 - Versão Completa.xlsx
+++ b/tests/testesmanuais/CBA_SESI_Planilha_Dados_Entrada - v1.1 - Versão Completa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="846" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="846" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pl. suporte" sheetId="51" state="hidden" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="540">
   <si>
     <t>Funcionarios</t>
   </si>
@@ -1696,9 +1696,6 @@
     <t>B91 - Auxílio-doença por acidente de trabalho</t>
   </si>
   <si>
-    <t>B92 - Auxílio-doença por acidente de trabalho</t>
-  </si>
-  <si>
     <t>Despesa Média para Contratação de um Funcionário</t>
   </si>
   <si>
@@ -1715,6 +1712,9 @@
   </si>
   <si>
     <t>Aux_CustoContratacaoUmFuncionario/ TempoContratacaoPadrao</t>
+  </si>
+  <si>
+    <t>B94 - Auxílio-acidente por acidente de trabalho</t>
   </si>
 </sst>
 </file>
@@ -2089,7 +2089,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2483,18 +2483,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2551,6 +2539,28 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -3042,9 +3052,9 @@
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="63.28515625" customWidth="1"/>
     <col min="5" max="14" width="7.85546875" style="82" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="171" customWidth="1"/>
-    <col min="16" max="16" width="9.42578125" style="171" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" style="171" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" style="167" customWidth="1"/>
+    <col min="16" max="16" width="9.42578125" style="167" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" style="167" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="33.7109375" customWidth="1"/>
     <col min="19" max="19" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="30.28515625" bestFit="1" customWidth="1"/>
@@ -3053,127 +3063,127 @@
     <col min="23" max="16384" width="8.85546875" style="145"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="167" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="163"/>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="165"/>
-      <c r="L1" s="165"/>
-      <c r="M1" s="165"/>
-      <c r="N1" s="165"/>
-      <c r="O1" s="165"/>
-      <c r="P1" s="165"/>
-      <c r="Q1" s="165"/>
-      <c r="R1" s="163"/>
-      <c r="S1" s="166"/>
-      <c r="T1" s="166"/>
-      <c r="U1" s="166"/>
-      <c r="V1" s="166"/>
-    </row>
-    <row r="2" spans="1:22" s="167" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="163" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="159"/>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
+      <c r="L1" s="161"/>
+      <c r="M1" s="161"/>
+      <c r="N1" s="161"/>
+      <c r="O1" s="161"/>
+      <c r="P1" s="161"/>
+      <c r="Q1" s="161"/>
+      <c r="R1" s="159"/>
+      <c r="S1" s="162"/>
+      <c r="T1" s="162"/>
+      <c r="U1" s="162"/>
+      <c r="V1" s="162"/>
+    </row>
+    <row r="2" spans="1:22" s="163" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="108" t="s">
         <v>351</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="165"/>
-      <c r="L2" s="165"/>
-      <c r="M2" s="165"/>
-      <c r="N2" s="165"/>
-      <c r="O2" s="165"/>
-      <c r="P2" s="165"/>
-      <c r="Q2" s="165"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="161"/>
+      <c r="M2" s="161"/>
+      <c r="N2" s="161"/>
+      <c r="O2" s="161"/>
+      <c r="P2" s="161"/>
+      <c r="Q2" s="161"/>
       <c r="R2" s="140" t="s">
         <v>488</v>
       </c>
-      <c r="S2" s="166"/>
-      <c r="T2" s="166"/>
-      <c r="U2" s="166"/>
-      <c r="V2" s="166"/>
-    </row>
-    <row r="3" spans="1:22" s="167" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="163"/>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="165"/>
-      <c r="K3" s="165"/>
-      <c r="L3" s="165"/>
-      <c r="M3" s="165"/>
-      <c r="N3" s="165"/>
-      <c r="O3" s="165"/>
-      <c r="P3" s="165"/>
-      <c r="Q3" s="165"/>
-      <c r="R3" s="163"/>
-      <c r="S3" s="166"/>
-      <c r="T3" s="166"/>
-      <c r="U3" s="166"/>
-      <c r="V3" s="166"/>
-    </row>
-    <row r="4" spans="1:22" s="167" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="168"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="169"/>
-      <c r="H4" s="169"/>
-      <c r="I4" s="169"/>
-      <c r="J4" s="169"/>
-      <c r="K4" s="169"/>
-      <c r="L4" s="169"/>
-      <c r="M4" s="166"/>
-      <c r="N4" s="166"/>
-      <c r="O4" s="166"/>
-      <c r="P4" s="166"/>
-      <c r="Q4" s="166"/>
-      <c r="S4" s="166"/>
-      <c r="T4" s="166"/>
-      <c r="U4" s="166"/>
-      <c r="V4" s="166"/>
-    </row>
-    <row r="5" spans="1:22" s="167" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="166"/>
-      <c r="B5" s="166"/>
-      <c r="C5" s="166"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="171"/>
-      <c r="F5" s="171"/>
-      <c r="G5" s="171"/>
-      <c r="H5" s="171"/>
-      <c r="I5" s="171"/>
-      <c r="J5" s="171"/>
-      <c r="K5" s="171"/>
-      <c r="L5" s="171"/>
-      <c r="M5" s="166"/>
-      <c r="N5" s="166"/>
-      <c r="O5" s="166"/>
-      <c r="P5" s="166"/>
-      <c r="Q5" s="166"/>
-      <c r="R5" s="166"/>
-      <c r="S5" s="166"/>
-      <c r="T5" s="166"/>
-      <c r="U5" s="166"/>
-      <c r="V5" s="166"/>
-    </row>
-    <row r="6" spans="1:22" s="167" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="S2" s="162"/>
+      <c r="T2" s="162"/>
+      <c r="U2" s="162"/>
+      <c r="V2" s="162"/>
+    </row>
+    <row r="3" spans="1:22" s="163" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="159"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="161"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="161"/>
+      <c r="L3" s="161"/>
+      <c r="M3" s="161"/>
+      <c r="N3" s="161"/>
+      <c r="O3" s="161"/>
+      <c r="P3" s="161"/>
+      <c r="Q3" s="161"/>
+      <c r="R3" s="159"/>
+      <c r="S3" s="162"/>
+      <c r="T3" s="162"/>
+      <c r="U3" s="162"/>
+      <c r="V3" s="162"/>
+    </row>
+    <row r="4" spans="1:22" s="163" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="164"/>
+      <c r="E4" s="165"/>
+      <c r="F4" s="165"/>
+      <c r="G4" s="165"/>
+      <c r="H4" s="165"/>
+      <c r="I4" s="165"/>
+      <c r="J4" s="165"/>
+      <c r="K4" s="165"/>
+      <c r="L4" s="165"/>
+      <c r="M4" s="162"/>
+      <c r="N4" s="162"/>
+      <c r="O4" s="162"/>
+      <c r="P4" s="162"/>
+      <c r="Q4" s="162"/>
+      <c r="S4" s="162"/>
+      <c r="T4" s="162"/>
+      <c r="U4" s="162"/>
+      <c r="V4" s="162"/>
+    </row>
+    <row r="5" spans="1:22" s="163" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="162"/>
+      <c r="B5" s="162"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="166"/>
+      <c r="E5" s="167"/>
+      <c r="F5" s="167"/>
+      <c r="G5" s="167"/>
+      <c r="H5" s="167"/>
+      <c r="I5" s="167"/>
+      <c r="J5" s="167"/>
+      <c r="K5" s="167"/>
+      <c r="L5" s="167"/>
+      <c r="M5" s="162"/>
+      <c r="N5" s="162"/>
+      <c r="O5" s="162"/>
+      <c r="P5" s="162"/>
+      <c r="Q5" s="162"/>
+      <c r="R5" s="162"/>
+      <c r="S5" s="162"/>
+      <c r="T5" s="162"/>
+      <c r="U5" s="162"/>
+      <c r="V5" s="162"/>
+    </row>
+    <row r="6" spans="1:22" s="163" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A6" s="114" t="s">
         <v>349</v>
       </c>
@@ -3199,35 +3209,35 @@
       <c r="U6" s="115"/>
       <c r="V6" s="116"/>
     </row>
-    <row r="7" spans="1:22" s="167" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="166"/>
-      <c r="B7" s="166"/>
-      <c r="C7" s="166"/>
-      <c r="D7" s="170"/>
-      <c r="E7" s="171"/>
-      <c r="F7" s="171"/>
-      <c r="G7" s="171"/>
-      <c r="H7" s="171"/>
-      <c r="I7" s="171"/>
-      <c r="J7" s="171"/>
-      <c r="K7" s="171"/>
-      <c r="L7" s="171"/>
-      <c r="M7" s="171"/>
-      <c r="N7" s="171"/>
+    <row r="7" spans="1:22" s="163" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="162"/>
+      <c r="B7" s="162"/>
+      <c r="C7" s="162"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="167"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="167"/>
+      <c r="H7" s="167"/>
+      <c r="I7" s="167"/>
+      <c r="J7" s="167"/>
+      <c r="K7" s="167"/>
+      <c r="L7" s="167"/>
+      <c r="M7" s="167"/>
+      <c r="N7" s="167"/>
       <c r="O7" s="94"/>
       <c r="P7" s="94" t="s">
         <v>252</v>
       </c>
       <c r="Q7" s="94"/>
-      <c r="R7" s="166"/>
-      <c r="S7" s="166"/>
+      <c r="R7" s="162"/>
+      <c r="S7" s="162"/>
       <c r="T7" s="67" t="s">
         <v>350</v>
       </c>
-      <c r="U7" s="166"/>
-      <c r="V7" s="166"/>
-    </row>
-    <row r="8" spans="1:22" s="167" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U7" s="162"/>
+      <c r="V7" s="162"/>
+    </row>
+    <row r="8" spans="1:22" s="163" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="88" t="s">
         <v>43</v>
       </c>
@@ -3292,7 +3302,7 @@
       <c r="R8" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="S8" s="166"/>
+      <c r="S8" s="162"/>
       <c r="T8" s="84" t="s">
         <v>44</v>
       </c>
@@ -3316,39 +3326,39 @@
       <c r="D9" s="96" t="s">
         <v>480</v>
       </c>
-      <c r="E9" s="172">
+      <c r="E9" s="168">
         <v>41</v>
       </c>
-      <c r="F9" s="172">
+      <c r="F9" s="168">
         <v>37</v>
       </c>
-      <c r="G9" s="172">
+      <c r="G9" s="168">
         <v>33</v>
       </c>
-      <c r="H9" s="172">
+      <c r="H9" s="168">
         <v>27</v>
       </c>
-      <c r="I9" s="172">
+      <c r="I9" s="168">
         <v>21</v>
       </c>
-      <c r="J9" s="172">
+      <c r="J9" s="168">
         <v>17</v>
       </c>
-      <c r="K9" s="172">
+      <c r="K9" s="168">
         <v>32</v>
       </c>
-      <c r="L9" s="172">
+      <c r="L9" s="168">
         <v>34</v>
       </c>
-      <c r="M9" s="172">
+      <c r="M9" s="168">
         <v>28</v>
       </c>
-      <c r="N9" s="172">
+      <c r="N9" s="168">
         <v>45</v>
       </c>
-      <c r="O9" s="173"/>
-      <c r="P9" s="173"/>
-      <c r="Q9" s="173"/>
+      <c r="O9" s="169"/>
+      <c r="P9" s="169"/>
+      <c r="Q9" s="169"/>
       <c r="R9" s="21" t="s">
         <v>476</v>
       </c>
@@ -3365,46 +3375,46 @@
     </row>
     <row r="10" spans="1:22" s="144" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
+        <v>533</v>
+      </c>
+      <c r="B10" s="33" t="s">
         <v>534</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>535</v>
       </c>
       <c r="C10" s="95" t="s">
         <v>278</v>
       </c>
       <c r="D10" s="96" t="s">
+        <v>535</v>
+      </c>
+      <c r="E10" s="170"/>
+      <c r="F10" s="170"/>
+      <c r="G10" s="170"/>
+      <c r="H10" s="170"/>
+      <c r="I10" s="170"/>
+      <c r="J10" s="170"/>
+      <c r="K10" s="170"/>
+      <c r="L10" s="170"/>
+      <c r="M10" s="168">
+        <v>150</v>
+      </c>
+      <c r="N10" s="168">
+        <v>200</v>
+      </c>
+      <c r="O10" s="171"/>
+      <c r="P10" s="171"/>
+      <c r="Q10" s="171"/>
+      <c r="R10" s="21" t="s">
         <v>536</v>
-      </c>
-      <c r="E10" s="174"/>
-      <c r="F10" s="174"/>
-      <c r="G10" s="174"/>
-      <c r="H10" s="174"/>
-      <c r="I10" s="174"/>
-      <c r="J10" s="174"/>
-      <c r="K10" s="174"/>
-      <c r="L10" s="174"/>
-      <c r="M10" s="172">
-        <v>150</v>
-      </c>
-      <c r="N10" s="172">
-        <v>200</v>
-      </c>
-      <c r="O10" s="175"/>
-      <c r="P10" s="175"/>
-      <c r="Q10" s="175"/>
-      <c r="R10" s="21" t="s">
-        <v>537</v>
       </c>
       <c r="S10" s="79"/>
       <c r="T10" s="33" t="s">
+        <v>537</v>
+      </c>
+      <c r="U10" s="33" t="s">
+        <v>537</v>
+      </c>
+      <c r="V10" s="103" t="s">
         <v>538</v>
-      </c>
-      <c r="U10" s="33" t="s">
-        <v>538</v>
-      </c>
-      <c r="V10" s="103" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -3421,7 +3431,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5068,11 +5080,9 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:L214"/>
+  <dimension ref="A1:L146"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5135,7 +5145,7 @@
       <c r="L3" s="44"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
         <v>181</v>
       </c>
@@ -5178,463 +5188,439 @@
         <v>1</v>
       </c>
       <c r="B6" s="2">
-        <v>6009469035</v>
+        <v>6054562553</v>
       </c>
       <c r="C6" s="2">
-        <v>2013097615601</v>
+        <v>2014099398301</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>532</v>
       </c>
       <c r="E6" s="2">
-        <v>846.71</v>
+        <v>918.36</v>
       </c>
       <c r="F6" s="3">
-        <v>41416</v>
+        <v>41739</v>
       </c>
       <c r="G6" s="3">
-        <v>41339</v>
+        <v>41712</v>
       </c>
       <c r="H6" s="3">
-        <v>41383</v>
+        <v>41739</v>
       </c>
       <c r="I6" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="J6" s="8">
-        <v>1270.0650000000001</v>
+        <v>0.93330000000000002</v>
+      </c>
+      <c r="J6" s="2">
+        <v>857.13599999999997</v>
       </c>
       <c r="K6" s="3">
-        <v>28921</v>
-      </c>
-      <c r="L6" s="151">
-        <v>41739</v>
-      </c>
+        <v>26116</v>
+      </c>
+      <c r="L6" s="172"/>
     </row>
     <row r="7" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2</v>
       </c>
       <c r="B7" s="5">
-        <v>6021071640</v>
+        <v>6056429320</v>
       </c>
       <c r="C7" s="5">
-        <v>2013253004001</v>
+        <v>2014137020301</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>532</v>
       </c>
       <c r="E7" s="5">
-        <v>849.46</v>
+        <v>730.36</v>
       </c>
       <c r="F7" s="6">
-        <v>41453</v>
+        <v>41753</v>
       </c>
       <c r="G7" s="6">
-        <v>41432</v>
+        <v>41724</v>
       </c>
       <c r="H7" s="6">
-        <v>41486</v>
+        <v>41740</v>
       </c>
       <c r="I7" s="5">
-        <v>1.8</v>
-      </c>
-      <c r="J7" s="7">
-        <v>1529.028</v>
+        <v>0.56669999999999998</v>
+      </c>
+      <c r="J7" s="5">
+        <v>413.87099999999998</v>
       </c>
       <c r="K7" s="6">
-        <v>32335</v>
-      </c>
-      <c r="L7" s="152">
-        <v>41740</v>
-      </c>
+        <v>33003</v>
+      </c>
+      <c r="L7" s="173"/>
     </row>
     <row r="8" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3</v>
       </c>
       <c r="B8" s="2">
-        <v>6030500710</v>
+        <v>6065393510</v>
       </c>
       <c r="C8" s="2">
-        <v>0</v>
+        <v>2014235194601</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>532</v>
       </c>
       <c r="E8" s="2">
-        <v>914.24</v>
+        <v>724</v>
       </c>
       <c r="F8" s="3">
-        <v>41535</v>
+        <v>41830</v>
       </c>
       <c r="G8" s="3">
-        <v>41510</v>
+        <v>41795</v>
       </c>
       <c r="H8" s="3">
-        <v>41698</v>
+        <v>41858</v>
       </c>
       <c r="I8" s="2">
-        <v>6.2667000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="J8" s="8">
-        <v>5729.2370000000001</v>
+        <v>1520.4</v>
       </c>
       <c r="K8" s="3">
-        <v>22489</v>
-      </c>
-      <c r="L8" s="153">
-        <v>41858</v>
-      </c>
+        <v>34329</v>
+      </c>
+      <c r="L8" s="172"/>
     </row>
     <row r="9" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>4</v>
       </c>
       <c r="B9" s="5">
-        <v>6033250200</v>
+        <v>6067341860</v>
       </c>
       <c r="C9" s="5">
-        <v>0</v>
+        <v>2014259592601</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="E9" s="7">
-        <v>1015.17</v>
+      <c r="E9" s="5">
+        <v>938.01</v>
       </c>
       <c r="F9" s="6">
-        <v>41554</v>
+        <v>41830</v>
       </c>
       <c r="G9" s="6">
-        <v>41530</v>
+        <v>41816</v>
       </c>
       <c r="H9" s="6">
-        <v>41578</v>
+        <v>41892</v>
       </c>
       <c r="I9" s="5">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="J9" s="7">
-        <v>1624.2719999999999</v>
+        <v>2345.0250000000001</v>
       </c>
       <c r="K9" s="6">
-        <v>24161</v>
-      </c>
-      <c r="L9" s="152">
-        <v>41892</v>
-      </c>
+        <v>31355</v>
+      </c>
+      <c r="L9" s="173"/>
     </row>
     <row r="10" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>5</v>
       </c>
       <c r="B10" s="2">
-        <v>6034343724</v>
+        <v>6075829869</v>
       </c>
       <c r="C10" s="2">
-        <v>0</v>
+        <v>2014355119101</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>532</v>
       </c>
       <c r="E10" s="2">
-        <v>678</v>
+        <v>724</v>
       </c>
       <c r="F10" s="3">
-        <v>41558</v>
+        <v>41894</v>
       </c>
       <c r="G10" s="3">
-        <v>41541</v>
+        <v>41883</v>
       </c>
       <c r="H10" s="3">
-        <v>41670</v>
+        <v>41894</v>
       </c>
       <c r="I10" s="2">
-        <v>4.2332999999999998</v>
-      </c>
-      <c r="J10" s="8">
-        <v>2870.2</v>
+        <v>0.4</v>
+      </c>
+      <c r="J10" s="2">
+        <v>289.60000000000002</v>
       </c>
       <c r="K10" s="3">
-        <v>27568</v>
-      </c>
-      <c r="L10" s="153">
-        <v>41894</v>
-      </c>
+        <v>25121</v>
+      </c>
+      <c r="L10" s="172"/>
     </row>
     <row r="11" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>6</v>
       </c>
       <c r="B11" s="5">
-        <v>6039773476</v>
+        <v>6108927945</v>
       </c>
       <c r="C11" s="5">
-        <v>2013263614002</v>
+        <v>0</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="E11" s="5">
-        <v>947.92</v>
+      <c r="E11" s="7">
+        <v>1000.75</v>
       </c>
       <c r="F11" s="6">
-        <v>41598</v>
+        <v>42186</v>
       </c>
       <c r="G11" s="6">
-        <v>41564</v>
+        <v>42175</v>
       </c>
       <c r="H11" s="6">
-        <v>41597</v>
+        <v>42237</v>
       </c>
       <c r="I11" s="5">
-        <v>1.1333</v>
+        <v>2.0667</v>
       </c>
       <c r="J11" s="7">
-        <v>1074.309</v>
+        <v>2068.2170000000001</v>
       </c>
       <c r="K11" s="6">
-        <v>30613</v>
-      </c>
-      <c r="L11" s="152">
-        <v>42237</v>
-      </c>
+        <v>35128</v>
+      </c>
+      <c r="L11" s="173"/>
     </row>
     <row r="12" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>7</v>
       </c>
       <c r="B12" s="2">
-        <v>6063508922</v>
+        <v>6115989926</v>
       </c>
       <c r="C12" s="2">
-        <v>0</v>
+        <v>2015372769101</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>532</v>
       </c>
       <c r="E12" s="8">
-        <v>1527.01</v>
+        <v>1758.18</v>
       </c>
       <c r="F12" s="3">
-        <v>41799</v>
+        <v>42243</v>
       </c>
       <c r="G12" s="3">
-        <v>41783</v>
+        <v>42238</v>
       </c>
       <c r="H12" s="3">
-        <v>41799</v>
+        <v>42267</v>
       </c>
       <c r="I12" s="2">
-        <v>0.56669999999999998</v>
-      </c>
-      <c r="J12" s="2">
-        <v>865.30600000000004</v>
+        <v>1</v>
+      </c>
+      <c r="J12" s="8">
+        <v>1758.18</v>
       </c>
       <c r="K12" s="3">
-        <v>26768</v>
-      </c>
-      <c r="L12" s="153">
-        <v>42267</v>
-      </c>
+        <v>32327</v>
+      </c>
+      <c r="L12" s="172"/>
     </row>
     <row r="13" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>8</v>
       </c>
       <c r="B13" s="10">
-        <v>6083157602</v>
+        <v>6119990201</v>
       </c>
       <c r="C13" s="10">
-        <v>0</v>
+        <v>2015373121401</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>532</v>
       </c>
       <c r="E13" s="12">
-        <v>1033.96</v>
+        <v>1053.3800000000001</v>
       </c>
       <c r="F13" s="11">
-        <v>41950</v>
+        <v>42292</v>
       </c>
       <c r="G13" s="11">
-        <v>41937</v>
+        <v>42280</v>
       </c>
       <c r="H13" s="11">
-        <v>42004</v>
+        <v>42369</v>
       </c>
       <c r="I13" s="10">
-        <v>2.2332999999999998</v>
+        <v>2.9666999999999999</v>
       </c>
       <c r="J13" s="12">
-        <v>2309.1770000000001</v>
+        <v>3125.027</v>
       </c>
       <c r="K13" s="11">
-        <v>22489</v>
-      </c>
-      <c r="L13" s="154">
-        <v>42460</v>
-      </c>
+        <v>33427</v>
+      </c>
+      <c r="L13" s="174"/>
     </row>
     <row r="14" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1</v>
       </c>
       <c r="B14" s="2">
-        <v>5509817077</v>
+        <v>6020087640</v>
       </c>
       <c r="C14" s="2">
-        <v>2012199572001</v>
+        <v>2013221566701</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>532</v>
       </c>
       <c r="E14" s="2">
-        <v>924.82</v>
+        <v>769.05</v>
       </c>
       <c r="F14" s="3">
-        <v>41057</v>
+        <v>41435</v>
       </c>
       <c r="G14" s="3">
-        <v>41010</v>
+        <v>41428</v>
       </c>
       <c r="H14" s="3">
-        <v>41089</v>
+        <v>41458</v>
       </c>
       <c r="I14" s="2">
-        <v>2.6333000000000002</v>
-      </c>
-      <c r="J14" s="8">
-        <v>2435.3589999999999</v>
+        <v>1.0333000000000001</v>
+      </c>
+      <c r="J14" s="2">
+        <v>794.68499999999995</v>
       </c>
       <c r="K14" s="3">
-        <v>32988</v>
-      </c>
-      <c r="L14" s="151">
-        <v>41458</v>
-      </c>
+        <v>32817</v>
+      </c>
+      <c r="L14" s="172"/>
     </row>
     <row r="15" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>2</v>
       </c>
       <c r="B15" s="5">
-        <v>5512469831</v>
+        <v>6030440903</v>
       </c>
       <c r="C15" s="5">
-        <v>2012216747301</v>
+        <v>2013368368001</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="E15" s="7">
-        <v>1414.78</v>
+      <c r="E15" s="5">
+        <v>678</v>
       </c>
       <c r="F15" s="6">
-        <v>41064</v>
+        <v>41522</v>
       </c>
       <c r="G15" s="6">
-        <v>41031</v>
+        <v>41510</v>
       </c>
       <c r="H15" s="6">
-        <v>41078</v>
+        <v>41552</v>
       </c>
       <c r="I15" s="5">
-        <v>1.6</v>
-      </c>
-      <c r="J15" s="7">
-        <v>2263.6480000000001</v>
+        <v>1.4333</v>
+      </c>
+      <c r="J15" s="5">
+        <v>971.8</v>
       </c>
       <c r="K15" s="6">
-        <v>32399</v>
-      </c>
-      <c r="L15" s="152">
-        <v>41552</v>
-      </c>
+        <v>21382</v>
+      </c>
+      <c r="L15" s="173"/>
     </row>
     <row r="16" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>3</v>
       </c>
       <c r="B16" s="2">
-        <v>6009469035</v>
+        <v>6035130694</v>
       </c>
       <c r="C16" s="2">
-        <v>2013097615601</v>
+        <v>2013505511301</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>532</v>
       </c>
       <c r="E16" s="2">
-        <v>846.71</v>
+        <v>723.22</v>
       </c>
       <c r="F16" s="3">
-        <v>41416</v>
+        <v>41561</v>
       </c>
       <c r="G16" s="3">
-        <v>41339</v>
+        <v>41546</v>
       </c>
       <c r="H16" s="3">
-        <v>41383</v>
+        <v>41657</v>
       </c>
       <c r="I16" s="2">
-        <v>1.5</v>
+        <v>3.6667000000000001</v>
       </c>
       <c r="J16" s="8">
-        <v>1270.0650000000001</v>
+        <v>2651.8069999999998</v>
       </c>
       <c r="K16" s="3">
-        <v>28921</v>
-      </c>
-      <c r="L16" s="153">
-        <v>41657</v>
-      </c>
+        <v>30385</v>
+      </c>
+      <c r="L16" s="172"/>
     </row>
     <row r="17" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>4</v>
       </c>
       <c r="B17" s="5">
-        <v>6021071640</v>
+        <v>6039446033</v>
       </c>
       <c r="C17" s="5">
-        <v>2013253004001</v>
+        <v>2013539898301</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>532</v>
       </c>
       <c r="E17" s="5">
-        <v>849.46</v>
+        <v>678</v>
       </c>
       <c r="F17" s="6">
-        <v>41453</v>
+        <v>41592</v>
       </c>
       <c r="G17" s="6">
-        <v>41432</v>
+        <v>41570</v>
       </c>
       <c r="H17" s="6">
-        <v>41486</v>
+        <v>41616</v>
       </c>
       <c r="I17" s="5">
-        <v>1.8</v>
+        <v>1.5667</v>
       </c>
       <c r="J17" s="7">
-        <v>1529.028</v>
+        <v>1062.2</v>
       </c>
       <c r="K17" s="6">
-        <v>32335</v>
-      </c>
-      <c r="L17" s="152">
-        <v>41616</v>
-      </c>
+        <v>31467</v>
+      </c>
+      <c r="L17" s="173"/>
     </row>
     <row r="18" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>5</v>
       </c>
       <c r="B18" s="2">
-        <v>6030500710</v>
+        <v>6040542180</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
@@ -5643,1391 +5629,2115 @@
         <v>532</v>
       </c>
       <c r="E18" s="2">
-        <v>914.24</v>
+        <v>766.09</v>
       </c>
       <c r="F18" s="3">
-        <v>41535</v>
+        <v>41605</v>
       </c>
       <c r="G18" s="3">
-        <v>41510</v>
+        <v>41585</v>
       </c>
       <c r="H18" s="3">
-        <v>41639</v>
+        <v>41766</v>
       </c>
       <c r="I18" s="2">
-        <v>4.2667000000000002</v>
+        <v>6.0332999999999997</v>
       </c>
       <c r="J18" s="8">
-        <v>3900.7570000000001</v>
+        <v>4622.076</v>
       </c>
       <c r="K18" s="3">
-        <v>22489</v>
-      </c>
-      <c r="L18" s="153">
-        <v>41766</v>
-      </c>
+        <v>27652</v>
+      </c>
+      <c r="L18" s="172"/>
     </row>
     <row r="19" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>6</v>
       </c>
       <c r="B19" s="5">
-        <v>6033250200</v>
+        <v>6054562553</v>
       </c>
       <c r="C19" s="5">
-        <v>0</v>
+        <v>2014099398301</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="E19" s="7">
-        <v>1015.17</v>
+      <c r="E19" s="5">
+        <v>918.36</v>
       </c>
       <c r="F19" s="6">
-        <v>41554</v>
+        <v>41739</v>
       </c>
       <c r="G19" s="6">
-        <v>41530</v>
+        <v>41712</v>
       </c>
       <c r="H19" s="6">
-        <v>41578</v>
+        <v>41739</v>
       </c>
       <c r="I19" s="5">
-        <v>1.6</v>
-      </c>
-      <c r="J19" s="7">
-        <v>1624.2719999999999</v>
+        <v>0.93330000000000002</v>
+      </c>
+      <c r="J19" s="5">
+        <v>857.13599999999997</v>
       </c>
       <c r="K19" s="6">
-        <v>24161</v>
-      </c>
-      <c r="L19" s="152">
-        <v>41739</v>
-      </c>
+        <v>26116</v>
+      </c>
+      <c r="L19" s="173"/>
     </row>
     <row r="20" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>7</v>
       </c>
       <c r="B20" s="2">
-        <v>6034343724</v>
+        <v>6056429320</v>
       </c>
       <c r="C20" s="2">
-        <v>0</v>
+        <v>2014137020301</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>532</v>
       </c>
       <c r="E20" s="2">
-        <v>678</v>
+        <v>730.36</v>
       </c>
       <c r="F20" s="3">
-        <v>41558</v>
+        <v>41753</v>
       </c>
       <c r="G20" s="3">
-        <v>41541</v>
+        <v>41724</v>
       </c>
       <c r="H20" s="3">
-        <v>41639</v>
+        <v>41740</v>
       </c>
       <c r="I20" s="2">
-        <v>3.2332999999999998</v>
-      </c>
-      <c r="J20" s="8">
-        <v>2192.1999999999998</v>
+        <v>0.56669999999999998</v>
+      </c>
+      <c r="J20" s="2">
+        <v>413.87099999999998</v>
       </c>
       <c r="K20" s="3">
-        <v>27568</v>
-      </c>
-      <c r="L20" s="153">
-        <v>41740</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
+        <v>33003</v>
+      </c>
+      <c r="L20" s="172"/>
+    </row>
+    <row r="21" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>8</v>
       </c>
-      <c r="B21" s="10">
-        <v>6039773476</v>
-      </c>
-      <c r="C21" s="10">
-        <v>2013263614002</v>
-      </c>
-      <c r="D21" s="10" t="s">
+      <c r="B21" s="5">
+        <v>6065393510</v>
+      </c>
+      <c r="C21" s="5">
+        <v>2014235194601</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="E21" s="10">
-        <v>947.92</v>
-      </c>
-      <c r="F21" s="11">
-        <v>41598</v>
-      </c>
-      <c r="G21" s="11">
-        <v>41564</v>
-      </c>
-      <c r="H21" s="11">
-        <v>41597</v>
-      </c>
-      <c r="I21" s="10">
-        <v>1.1333</v>
-      </c>
-      <c r="J21" s="12">
-        <v>1074.309</v>
-      </c>
-      <c r="K21" s="11">
-        <v>30613</v>
-      </c>
-      <c r="L21" s="152">
+      <c r="E21" s="5">
+        <v>724</v>
+      </c>
+      <c r="F21" s="6">
+        <v>41830</v>
+      </c>
+      <c r="G21" s="6">
+        <v>41795</v>
+      </c>
+      <c r="H21" s="6">
         <v>41858</v>
       </c>
+      <c r="I21" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="J21" s="7">
+        <v>1520.4</v>
+      </c>
+      <c r="K21" s="6">
+        <v>34329</v>
+      </c>
+      <c r="L21" s="173"/>
     </row>
     <row r="22" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B22" s="2">
-        <v>5470723620</v>
+        <v>6067341860</v>
       </c>
       <c r="C22" s="2">
-        <v>2012071614301</v>
+        <v>2014259592601</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="E22" s="8">
-        <v>1196.0899999999999</v>
+      <c r="E22" s="2">
+        <v>938.01</v>
       </c>
       <c r="F22" s="3">
-        <v>40763</v>
+        <v>41830</v>
       </c>
       <c r="G22" s="3">
-        <v>40731</v>
+        <v>41816</v>
       </c>
       <c r="H22" s="3">
-        <v>40786</v>
+        <v>41892</v>
       </c>
       <c r="I22" s="2">
-        <v>1.8332999999999999</v>
+        <v>2.5</v>
       </c>
       <c r="J22" s="8">
-        <v>2192.8319999999999</v>
+        <v>2345.0250000000001</v>
       </c>
       <c r="K22" s="3">
-        <v>27195</v>
-      </c>
-      <c r="L22" s="153">
-        <v>41892</v>
-      </c>
+        <v>31355</v>
+      </c>
+      <c r="L22" s="172"/>
     </row>
     <row r="23" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
-        <v>2</v>
-      </c>
-      <c r="B23" s="5">
-        <v>5471652602</v>
-      </c>
-      <c r="C23" s="5">
-        <v>0</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="A23" s="9">
+        <v>10</v>
+      </c>
+      <c r="B23" s="10">
+        <v>6075829869</v>
+      </c>
+      <c r="C23" s="10">
+        <v>2014355119101</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="E23" s="7">
-        <v>1021.93</v>
-      </c>
-      <c r="F23" s="6">
-        <v>40780</v>
-      </c>
-      <c r="G23" s="6">
-        <v>40746</v>
-      </c>
-      <c r="H23" s="6">
-        <v>40858</v>
-      </c>
-      <c r="I23" s="5">
-        <v>3.7</v>
-      </c>
-      <c r="J23" s="7">
-        <v>3781.1410000000001</v>
-      </c>
-      <c r="K23" s="6">
-        <v>22803</v>
-      </c>
-      <c r="L23" s="154">
+      <c r="E23" s="10">
+        <v>724</v>
+      </c>
+      <c r="F23" s="11">
         <v>41894</v>
       </c>
+      <c r="G23" s="11">
+        <v>41883</v>
+      </c>
+      <c r="H23" s="11">
+        <v>41894</v>
+      </c>
+      <c r="I23" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="J23" s="10">
+        <v>289.60000000000002</v>
+      </c>
+      <c r="K23" s="11">
+        <v>25121</v>
+      </c>
+      <c r="L23" s="174"/>
     </row>
     <row r="24" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B24" s="2">
-        <v>5489854550</v>
+        <v>5514877252</v>
       </c>
       <c r="C24" s="2">
-        <v>0</v>
+        <v>2012282941701</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="E24" s="8">
-        <v>1177.58</v>
+      <c r="E24" s="2">
+        <v>785.99</v>
       </c>
       <c r="F24" s="3">
-        <v>40905</v>
+        <v>41052</v>
       </c>
       <c r="G24" s="3">
-        <v>40870</v>
+        <v>41048</v>
       </c>
       <c r="H24" s="3">
-        <v>41060</v>
+        <v>41101</v>
       </c>
       <c r="I24" s="2">
-        <v>6.2667000000000002</v>
+        <v>1.8</v>
       </c>
       <c r="J24" s="8">
-        <v>7379.5010000000002</v>
+        <v>1414.7819999999999</v>
       </c>
       <c r="K24" s="3">
-        <v>25501</v>
-      </c>
-      <c r="L24" s="151">
-        <v>41101</v>
-      </c>
+        <v>30269</v>
+      </c>
+      <c r="L24" s="172"/>
     </row>
     <row r="25" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B25" s="5">
-        <v>5509817077</v>
+        <v>5540740099</v>
       </c>
       <c r="C25" s="5">
-        <v>2012199572001</v>
+        <v>0</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>532</v>
       </c>
       <c r="E25" s="5">
-        <v>924.82</v>
+        <v>736.87</v>
       </c>
       <c r="F25" s="6">
-        <v>41057</v>
+        <v>41233</v>
       </c>
       <c r="G25" s="6">
-        <v>41010</v>
+        <v>41219</v>
       </c>
       <c r="H25" s="6">
-        <v>41089</v>
+        <v>41296</v>
       </c>
       <c r="I25" s="5">
-        <v>2.6333000000000002</v>
+        <v>2.5667</v>
       </c>
       <c r="J25" s="7">
-        <v>2435.3589999999999</v>
+        <v>1891.3</v>
       </c>
       <c r="K25" s="6">
-        <v>32988</v>
-      </c>
-      <c r="L25" s="152">
-        <v>41296</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13">
+        <v>23996</v>
+      </c>
+      <c r="L25" s="173"/>
+    </row>
+    <row r="26" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>3</v>
+      </c>
+      <c r="B26" s="2">
+        <v>6020087640</v>
+      </c>
+      <c r="C26" s="2">
+        <v>2013221566701</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E26" s="2">
+        <v>769.05</v>
+      </c>
+      <c r="F26" s="3">
+        <v>41435</v>
+      </c>
+      <c r="G26" s="3">
+        <v>41428</v>
+      </c>
+      <c r="H26" s="3">
+        <v>41458</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1.0333000000000001</v>
+      </c>
+      <c r="J26" s="2">
+        <v>794.68499999999995</v>
+      </c>
+      <c r="K26" s="3">
+        <v>32817</v>
+      </c>
+      <c r="L26" s="172"/>
+    </row>
+    <row r="27" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>4</v>
+      </c>
+      <c r="B27" s="5">
+        <v>6030440903</v>
+      </c>
+      <c r="C27" s="5">
+        <v>2013368368001</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="E27" s="5">
+        <v>678</v>
+      </c>
+      <c r="F27" s="6">
+        <v>41522</v>
+      </c>
+      <c r="G27" s="6">
+        <v>41510</v>
+      </c>
+      <c r="H27" s="6">
+        <v>41552</v>
+      </c>
+      <c r="I27" s="5">
+        <v>1.4333</v>
+      </c>
+      <c r="J27" s="5">
+        <v>971.8</v>
+      </c>
+      <c r="K27" s="6">
+        <v>21382</v>
+      </c>
+      <c r="L27" s="173"/>
+    </row>
+    <row r="28" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>5</v>
       </c>
-      <c r="B26" s="14">
-        <v>5512469831</v>
-      </c>
-      <c r="C26" s="14">
-        <v>2012216747301</v>
-      </c>
-      <c r="D26" s="14" t="s">
+      <c r="B28" s="2">
+        <v>6035130694</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2013505511301</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="E26" s="162">
-        <v>1414.78</v>
-      </c>
-      <c r="F26" s="15">
-        <v>41064</v>
-      </c>
-      <c r="G26" s="15">
-        <v>41031</v>
-      </c>
-      <c r="H26" s="15">
-        <v>41078</v>
-      </c>
-      <c r="I26" s="14">
-        <v>1.6</v>
-      </c>
-      <c r="J26" s="162">
-        <v>2263.6480000000001</v>
-      </c>
-      <c r="K26" s="15">
-        <v>32399</v>
-      </c>
-      <c r="L26" s="153">
-        <v>41458</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="E28" s="2">
+        <v>723.22</v>
+      </c>
+      <c r="F28" s="3">
+        <v>41561</v>
+      </c>
+      <c r="G28" s="3">
+        <v>41546</v>
+      </c>
+      <c r="H28" s="3">
+        <v>41639</v>
+      </c>
+      <c r="I28" s="2">
+        <v>3.0667</v>
+      </c>
+      <c r="J28" s="8">
+        <v>2217.875</v>
+      </c>
+      <c r="K28" s="3">
+        <v>30385</v>
+      </c>
+      <c r="L28" s="172"/>
+    </row>
+    <row r="29" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>6</v>
+      </c>
+      <c r="B29" s="5">
+        <v>6039446033</v>
+      </c>
+      <c r="C29" s="5">
+        <v>2013539898301</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="E29" s="5">
+        <v>678</v>
+      </c>
+      <c r="F29" s="6">
+        <v>41592</v>
+      </c>
+      <c r="G29" s="6">
+        <v>41570</v>
+      </c>
+      <c r="H29" s="6">
+        <v>41616</v>
+      </c>
+      <c r="I29" s="5">
+        <v>1.5667</v>
+      </c>
+      <c r="J29" s="7">
+        <v>1062.2</v>
+      </c>
+      <c r="K29" s="6">
+        <v>31467</v>
+      </c>
+      <c r="L29" s="173"/>
+    </row>
+    <row r="30" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="13">
+        <v>7</v>
+      </c>
+      <c r="B30" s="14">
+        <v>6040542180</v>
+      </c>
+      <c r="C30" s="14">
+        <v>0</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="E30" s="14">
+        <v>766.09</v>
+      </c>
+      <c r="F30" s="15">
+        <v>41605</v>
+      </c>
+      <c r="G30" s="15">
+        <v>41585</v>
+      </c>
+      <c r="H30" s="15">
+        <v>41639</v>
+      </c>
+      <c r="I30" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="J30" s="158">
+        <v>1378.962</v>
+      </c>
+      <c r="K30" s="15">
+        <v>27652</v>
+      </c>
+      <c r="L30" s="174"/>
+    </row>
+    <row r="31" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="175">
         <v>1</v>
       </c>
-      <c r="B27" s="2">
-        <v>5471652602</v>
-      </c>
-      <c r="C27" s="2">
+      <c r="B31" s="176">
+        <v>5454103213</v>
+      </c>
+      <c r="C31" s="176">
         <v>0</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D31" s="176" t="s">
         <v>532</v>
       </c>
-      <c r="E27" s="8">
-        <v>1021.93</v>
-      </c>
-      <c r="F27" s="3">
-        <v>40780</v>
-      </c>
-      <c r="G27" s="3">
-        <v>40746</v>
-      </c>
-      <c r="H27" s="3">
-        <v>40858</v>
-      </c>
-      <c r="I27" s="2">
-        <v>3.7332999999999998</v>
-      </c>
-      <c r="J27" s="8">
-        <v>3815.2049999999999</v>
-      </c>
-      <c r="K27" s="3">
-        <v>22803</v>
-      </c>
-      <c r="L27" s="152">
-        <v>41552</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+      <c r="E31" s="176">
+        <v>720.2</v>
+      </c>
+      <c r="F31" s="177">
+        <v>40632</v>
+      </c>
+      <c r="G31" s="177">
+        <v>40627</v>
+      </c>
+      <c r="H31" s="177">
+        <v>40673</v>
+      </c>
+      <c r="I31" s="176">
+        <v>1.5667</v>
+      </c>
+      <c r="J31" s="179">
+        <v>1128.3130000000001</v>
+      </c>
+      <c r="K31" s="177">
+        <v>30331</v>
+      </c>
+      <c r="L31" s="178"/>
+    </row>
+    <row r="32" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
         <v>2</v>
       </c>
-      <c r="B28" s="5">
-        <v>5423149238</v>
-      </c>
-      <c r="C28" s="5">
-        <v>2010345735601</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="B32" s="5">
+        <v>5473865697</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="E28" s="5">
-        <v>679.26</v>
-      </c>
-      <c r="F28" s="6">
-        <v>40457</v>
-      </c>
-      <c r="G28" s="6">
-        <v>40404</v>
-      </c>
-      <c r="H28" s="6">
-        <v>40457</v>
-      </c>
-      <c r="I28" s="5">
-        <v>1.7666999999999999</v>
-      </c>
-      <c r="J28" s="7">
-        <v>1200.0260000000001</v>
-      </c>
-      <c r="K28" s="6">
-        <v>29226</v>
-      </c>
-      <c r="L28" s="153">
-        <v>41657</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="E32" s="5">
+        <v>645.79</v>
+      </c>
+      <c r="F32" s="6">
+        <v>40764</v>
+      </c>
+      <c r="G32" s="6">
+        <v>40760</v>
+      </c>
+      <c r="H32" s="6">
+        <v>40795</v>
+      </c>
+      <c r="I32" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="J32" s="5">
+        <v>774.94799999999998</v>
+      </c>
+      <c r="K32" s="6">
+        <v>29700</v>
+      </c>
+      <c r="L32" s="173"/>
+    </row>
+    <row r="33" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>3</v>
       </c>
-      <c r="B29" s="2">
-        <v>5489854550</v>
-      </c>
-      <c r="C29" s="2">
+      <c r="B33" s="2">
+        <v>5476699151</v>
+      </c>
+      <c r="C33" s="2">
         <v>0</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="E29" s="8">
-        <v>1177.58</v>
-      </c>
-      <c r="F29" s="3">
-        <v>40905</v>
-      </c>
-      <c r="G29" s="3">
-        <v>40870</v>
-      </c>
-      <c r="H29" s="3">
-        <v>40908</v>
-      </c>
-      <c r="I29" s="2">
-        <v>1.2666999999999999</v>
-      </c>
-      <c r="J29" s="8">
-        <v>1491.6010000000001</v>
-      </c>
-      <c r="K29" s="3">
-        <v>25501</v>
-      </c>
-      <c r="L29" s="152">
-        <v>41616</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9">
+      <c r="E33" s="2">
+        <v>545</v>
+      </c>
+      <c r="F33" s="3">
+        <v>40784</v>
+      </c>
+      <c r="G33" s="3">
+        <v>40779</v>
+      </c>
+      <c r="H33" s="3">
+        <v>40848</v>
+      </c>
+      <c r="I33" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J33" s="8">
+        <v>1253.5</v>
+      </c>
+      <c r="K33" s="3">
+        <v>30690</v>
+      </c>
+      <c r="L33" s="172"/>
+    </row>
+    <row r="34" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
         <v>4</v>
       </c>
-      <c r="B30" s="10">
-        <v>5470723620</v>
-      </c>
-      <c r="C30" s="10">
-        <v>2012071614301</v>
-      </c>
-      <c r="D30" s="10" t="s">
+      <c r="B34" s="5">
+        <v>5479865265</v>
+      </c>
+      <c r="C34" s="5">
+        <v>2011389758801</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="E30" s="12">
-        <v>1196.0899999999999</v>
-      </c>
-      <c r="F30" s="11">
-        <v>40763</v>
-      </c>
-      <c r="G30" s="11">
-        <v>40731</v>
-      </c>
-      <c r="H30" s="11">
-        <v>40786</v>
-      </c>
-      <c r="I30" s="10">
-        <v>1.8332999999999999</v>
-      </c>
-      <c r="J30" s="12">
-        <v>2192.8319999999999</v>
-      </c>
-      <c r="K30" s="11">
-        <v>27195</v>
-      </c>
-      <c r="L30" s="155">
-        <v>41766</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13">
-        <v>1</v>
-      </c>
-      <c r="B31" s="14">
-        <v>5423149238</v>
-      </c>
-      <c r="C31" s="14">
-        <v>2010345735601</v>
-      </c>
-      <c r="D31" s="14" t="s">
+      <c r="E34" s="7">
+        <v>1138.05</v>
+      </c>
+      <c r="F34" s="6">
+        <v>40808</v>
+      </c>
+      <c r="G34" s="6">
+        <v>40801</v>
+      </c>
+      <c r="H34" s="6">
+        <v>40892</v>
+      </c>
+      <c r="I34" s="5">
+        <v>3.0333000000000001</v>
+      </c>
+      <c r="J34" s="7">
+        <v>3452.085</v>
+      </c>
+      <c r="K34" s="6">
+        <v>23326</v>
+      </c>
+      <c r="L34" s="173"/>
+    </row>
+    <row r="35" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>5</v>
+      </c>
+      <c r="B35" s="2">
+        <v>5480312070</v>
+      </c>
+      <c r="C35" s="2">
+        <v>2011387540101</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="E31" s="14">
-        <v>679.26</v>
-      </c>
-      <c r="F31" s="15">
-        <v>40457</v>
-      </c>
-      <c r="G31" s="15">
-        <v>40404</v>
-      </c>
-      <c r="H31" s="15">
-        <v>40457</v>
-      </c>
-      <c r="I31" s="14">
-        <v>1.7666999999999999</v>
-      </c>
-      <c r="J31" s="162">
-        <v>1200.0260000000001</v>
-      </c>
-      <c r="K31" s="15">
-        <v>29226</v>
-      </c>
-      <c r="L31" s="151">
-        <v>40673</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>1</v>
-      </c>
-      <c r="B32" s="2">
-        <v>6063508922</v>
-      </c>
-      <c r="C32" s="2">
+      <c r="E35" s="2">
+        <v>647.45000000000005</v>
+      </c>
+      <c r="F35" s="3">
+        <v>40808</v>
+      </c>
+      <c r="G35" s="3">
+        <v>40803</v>
+      </c>
+      <c r="H35" s="3">
+        <v>41012</v>
+      </c>
+      <c r="I35" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="J35" s="8">
+        <v>4467.4049999999997</v>
+      </c>
+      <c r="K35" s="3">
+        <v>29093</v>
+      </c>
+      <c r="L35" s="172"/>
+    </row>
+    <row r="36" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>6</v>
+      </c>
+      <c r="B36" s="5">
+        <v>5485568854</v>
+      </c>
+      <c r="C36" s="5">
         <v>0</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D36" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="E32" s="8">
-        <v>1527.01</v>
-      </c>
-      <c r="F32" s="3">
-        <v>41799</v>
-      </c>
-      <c r="G32" s="3">
-        <v>41783</v>
-      </c>
-      <c r="H32" s="3">
-        <v>41799</v>
-      </c>
-      <c r="I32" s="2">
-        <v>0.56669999999999998</v>
-      </c>
-      <c r="J32" s="2">
-        <v>865.30600000000004</v>
-      </c>
-      <c r="K32" s="3">
-        <v>26768</v>
-      </c>
-      <c r="L32" s="152">
-        <v>40795</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <v>2</v>
-      </c>
-      <c r="B33" s="5">
-        <v>6083157602</v>
-      </c>
-      <c r="C33" s="5">
-        <v>0</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1033.96</v>
-      </c>
-      <c r="F33" s="6">
-        <v>41950</v>
-      </c>
-      <c r="G33" s="6">
-        <v>41937</v>
-      </c>
-      <c r="H33" s="6">
-        <v>42035</v>
-      </c>
-      <c r="I33" s="5">
-        <v>3.2332999999999998</v>
-      </c>
-      <c r="J33" s="7">
-        <v>3343.1370000000002</v>
-      </c>
-      <c r="K33" s="6">
-        <v>22489</v>
-      </c>
-      <c r="L33" s="153">
+      <c r="E36" s="5">
+        <v>545</v>
+      </c>
+      <c r="F36" s="6">
         <v>40848</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>3</v>
-      </c>
-      <c r="B34" s="2">
-        <v>6089192159</v>
-      </c>
-      <c r="C34" s="2">
-        <v>2014558811401</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="E34" s="2">
-        <v>724</v>
-      </c>
-      <c r="F34" s="3">
-        <v>42009</v>
-      </c>
-      <c r="G34" s="3">
-        <v>41977</v>
-      </c>
-      <c r="H34" s="3">
-        <v>42009</v>
-      </c>
-      <c r="I34" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J34" s="2">
-        <v>796.4</v>
-      </c>
-      <c r="K34" s="3">
-        <v>33960</v>
-      </c>
-      <c r="L34" s="152">
-        <v>40892</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <v>4</v>
-      </c>
-      <c r="B35" s="5">
-        <v>6099027223</v>
-      </c>
-      <c r="C35" s="5">
-        <v>0</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="E35" s="7">
-        <v>1058.18</v>
-      </c>
-      <c r="F35" s="6">
-        <v>42101</v>
-      </c>
-      <c r="G35" s="6">
-        <v>42078</v>
-      </c>
-      <c r="H35" s="6">
-        <v>42369</v>
-      </c>
-      <c r="I35" s="5">
-        <v>9.5667000000000009</v>
-      </c>
-      <c r="J35" s="7">
-        <v>10123.254999999999</v>
-      </c>
-      <c r="K35" s="6">
-        <v>30462</v>
-      </c>
-      <c r="L35" s="153">
-        <v>41012</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="13">
-        <v>5</v>
-      </c>
-      <c r="B36" s="14">
-        <v>6111488485</v>
-      </c>
-      <c r="C36" s="14">
-        <v>2015271258501</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>532</v>
-      </c>
-      <c r="E36" s="162">
-        <v>1495.43</v>
-      </c>
-      <c r="F36" s="15">
-        <v>42199</v>
-      </c>
-      <c r="G36" s="15">
-        <v>42195</v>
-      </c>
-      <c r="H36" s="15">
-        <v>42225</v>
-      </c>
-      <c r="I36" s="14">
-        <v>1.0333000000000001</v>
-      </c>
-      <c r="J36" s="162">
-        <v>1545.278</v>
-      </c>
-      <c r="K36" s="15">
-        <v>33514</v>
-      </c>
-      <c r="L36" s="152">
+      <c r="G36" s="6">
+        <v>40827</v>
+      </c>
+      <c r="H36" s="6">
         <v>40888</v>
       </c>
+      <c r="I36" s="5">
+        <v>2.0667</v>
+      </c>
+      <c r="J36" s="7">
+        <v>1126.3330000000001</v>
+      </c>
+      <c r="K36" s="6">
+        <v>24846</v>
+      </c>
+      <c r="L36" s="173"/>
     </row>
     <row r="37" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B37" s="2">
-        <v>6063508923</v>
+        <v>5488447390</v>
       </c>
       <c r="C37" s="2">
-        <v>0</v>
+        <v>2011462882301</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="E37" s="8">
-        <v>1527.01</v>
+        <v>532</v>
+      </c>
+      <c r="E37" s="2">
+        <v>545</v>
       </c>
       <c r="F37" s="3">
-        <v>41799</v>
+        <v>40869</v>
       </c>
       <c r="G37" s="3">
-        <v>41783</v>
+        <v>40860</v>
       </c>
       <c r="H37" s="3">
-        <v>41799</v>
+        <v>40869</v>
       </c>
       <c r="I37" s="2">
-        <v>0.56669999999999998</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="J37" s="2">
-        <v>865.30600000000004</v>
+        <v>181.667</v>
       </c>
       <c r="K37" s="3">
-        <v>26768</v>
-      </c>
-      <c r="L37" s="153">
-        <v>40869</v>
-      </c>
+        <v>29209</v>
+      </c>
+      <c r="L37" s="172"/>
     </row>
     <row r="38" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
+        <v>8</v>
+      </c>
+      <c r="B38" s="5">
+        <v>5514877252</v>
+      </c>
+      <c r="C38" s="5">
+        <v>2012282941701</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="E38" s="5">
+        <v>785.99</v>
+      </c>
+      <c r="F38" s="6">
+        <v>41052</v>
+      </c>
+      <c r="G38" s="6">
+        <v>41048</v>
+      </c>
+      <c r="H38" s="6">
+        <v>41101</v>
+      </c>
+      <c r="I38" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="J38" s="7">
+        <v>1414.7819999999999</v>
+      </c>
+      <c r="K38" s="6">
+        <v>30269</v>
+      </c>
+      <c r="L38" s="173"/>
+    </row>
+    <row r="39" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>9</v>
+      </c>
+      <c r="B39" s="2">
+        <v>5540740099</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E39" s="2">
+        <v>736.87</v>
+      </c>
+      <c r="F39" s="3">
+        <v>41233</v>
+      </c>
+      <c r="G39" s="3">
+        <v>41219</v>
+      </c>
+      <c r="H39" s="3">
+        <v>41274</v>
+      </c>
+      <c r="I39" s="2">
+        <v>1.8332999999999999</v>
+      </c>
+      <c r="J39" s="8">
+        <v>1350.9280000000001</v>
+      </c>
+      <c r="K39" s="3">
+        <v>23996</v>
+      </c>
+      <c r="L39" s="172"/>
+    </row>
+    <row r="40" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="9">
+        <v>10</v>
+      </c>
+      <c r="B40" s="10">
+        <v>5459657373</v>
+      </c>
+      <c r="C40" s="10">
+        <v>0</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="E40" s="10">
+        <v>255</v>
+      </c>
+      <c r="F40" s="11">
+        <v>40666</v>
+      </c>
+      <c r="G40" s="11">
+        <v>40544</v>
+      </c>
+      <c r="H40" s="11">
+        <v>47450</v>
+      </c>
+      <c r="I40" s="10">
+        <v>234</v>
+      </c>
+      <c r="J40" s="12">
+        <v>59670</v>
+      </c>
+      <c r="K40" s="11">
+        <v>18388</v>
+      </c>
+      <c r="L40" s="174"/>
+    </row>
+    <row r="41" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>1</v>
+      </c>
+      <c r="B41" s="2">
+        <v>5488447390</v>
+      </c>
+      <c r="C41" s="2">
+        <v>2011462882301</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E41" s="2">
+        <v>545</v>
+      </c>
+      <c r="F41" s="3">
+        <v>40869</v>
+      </c>
+      <c r="G41" s="3">
+        <v>40860</v>
+      </c>
+      <c r="H41" s="3">
+        <v>40869</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="J41" s="2">
+        <v>163.5</v>
+      </c>
+      <c r="K41" s="3">
+        <v>29209</v>
+      </c>
+      <c r="L41" s="172"/>
+    </row>
+    <row r="42" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
         <v>2</v>
       </c>
-      <c r="B38" s="5">
-        <v>6083157614</v>
-      </c>
-      <c r="C38" s="5">
+      <c r="B42" s="5">
+        <v>5454103213</v>
+      </c>
+      <c r="C42" s="5">
         <v>0</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="E38" s="7">
-        <v>1033.96</v>
-      </c>
-      <c r="F38" s="6">
-        <v>41950</v>
-      </c>
-      <c r="G38" s="6">
-        <v>41937</v>
-      </c>
-      <c r="H38" s="6">
-        <v>42035</v>
-      </c>
-      <c r="I38" s="5">
-        <v>3.2332999999999998</v>
-      </c>
-      <c r="J38" s="7">
-        <v>3343.1370000000002</v>
-      </c>
-      <c r="K38" s="6">
-        <v>22489</v>
-      </c>
-      <c r="L38" s="152">
-        <v>41101</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
+      <c r="D42" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="E42" s="5">
+        <v>720.2</v>
+      </c>
+      <c r="F42" s="6">
+        <v>40632</v>
+      </c>
+      <c r="G42" s="6">
+        <v>40627</v>
+      </c>
+      <c r="H42" s="6">
+        <v>40673</v>
+      </c>
+      <c r="I42" s="5">
+        <v>1.5333000000000001</v>
+      </c>
+      <c r="J42" s="7">
+        <v>1104.307</v>
+      </c>
+      <c r="K42" s="6">
+        <v>30331</v>
+      </c>
+      <c r="L42" s="173"/>
+    </row>
+    <row r="43" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>3</v>
       </c>
-      <c r="B39" s="2">
-        <v>6089192368</v>
-      </c>
-      <c r="C39" s="2">
-        <v>2014558811401</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="E39" s="2">
-        <v>724</v>
-      </c>
-      <c r="F39" s="3">
-        <v>42009</v>
-      </c>
-      <c r="G39" s="3">
-        <v>41977</v>
-      </c>
-      <c r="H39" s="3">
-        <v>42009</v>
-      </c>
-      <c r="I39" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J39" s="2">
-        <v>796.4</v>
-      </c>
-      <c r="K39" s="3">
-        <v>33960</v>
-      </c>
-      <c r="L39" s="155">
-        <v>41296</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
+      <c r="B43" s="2">
+        <v>5473865697</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E43" s="2">
+        <v>645.79</v>
+      </c>
+      <c r="F43" s="3">
+        <v>40764</v>
+      </c>
+      <c r="G43" s="3">
+        <v>40760</v>
+      </c>
+      <c r="H43" s="3">
+        <v>40795</v>
+      </c>
+      <c r="I43" s="2">
+        <v>1.1667000000000001</v>
+      </c>
+      <c r="J43" s="2">
+        <v>753.42200000000003</v>
+      </c>
+      <c r="K43" s="3">
+        <v>29700</v>
+      </c>
+      <c r="L43" s="172"/>
+    </row>
+    <row r="44" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
         <v>4</v>
       </c>
-      <c r="B40" s="5">
-        <v>6099027112</v>
-      </c>
-      <c r="C40" s="5">
+      <c r="B44" s="5">
+        <v>5485568854</v>
+      </c>
+      <c r="C44" s="5">
         <v>0</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="E40" s="7">
-        <v>1058.18</v>
-      </c>
-      <c r="F40" s="6">
-        <v>42101</v>
-      </c>
-      <c r="G40" s="6">
-        <v>42078</v>
-      </c>
-      <c r="H40" s="6">
-        <v>42369</v>
-      </c>
-      <c r="I40" s="5">
-        <v>9.5667000000000009</v>
-      </c>
-      <c r="J40" s="7">
-        <v>10123.254999999999</v>
-      </c>
-      <c r="K40" s="6">
-        <v>30462</v>
-      </c>
-      <c r="L40" s="155"/>
-    </row>
-    <row r="41" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="13">
+      <c r="D44" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="E44" s="5">
+        <v>545</v>
+      </c>
+      <c r="F44" s="6">
+        <v>40848</v>
+      </c>
+      <c r="G44" s="6">
+        <v>40827</v>
+      </c>
+      <c r="H44" s="6">
+        <v>40888</v>
+      </c>
+      <c r="I44" s="5">
+        <v>2.0333000000000001</v>
+      </c>
+      <c r="J44" s="7">
+        <v>1108.1669999999999</v>
+      </c>
+      <c r="K44" s="6">
+        <v>24846</v>
+      </c>
+      <c r="L44" s="173"/>
+    </row>
+    <row r="45" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>5</v>
       </c>
-      <c r="B41" s="14">
-        <v>6111488995</v>
-      </c>
-      <c r="C41" s="14">
-        <v>2015271258501</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="E41" s="162">
-        <v>1495.43</v>
-      </c>
-      <c r="F41" s="15">
-        <v>42199</v>
-      </c>
-      <c r="G41" s="15">
-        <v>42195</v>
-      </c>
-      <c r="H41" s="15">
-        <v>42225</v>
-      </c>
-      <c r="I41" s="14">
-        <v>1.0333000000000001</v>
-      </c>
-      <c r="J41" s="162">
-        <v>1545.278</v>
-      </c>
-      <c r="K41" s="15">
-        <v>33514</v>
-      </c>
-      <c r="L41" s="151">
-        <v>40869</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="13"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="155"/>
-    </row>
-    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="13"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="155"/>
-    </row>
-    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="13"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="155"/>
-    </row>
-    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="13"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="155"/>
-    </row>
-    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="13"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15"/>
-      <c r="L46" s="155"/>
-    </row>
-    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="13"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="155"/>
-    </row>
-    <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="13"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="155"/>
-    </row>
-    <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="13"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="155"/>
-    </row>
-    <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="13"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="15"/>
-      <c r="L50" s="155"/>
-    </row>
-    <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="13"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="155"/>
-    </row>
-    <row r="52" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="13"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="155"/>
-    </row>
-    <row r="53" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="13"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="155"/>
-    </row>
-    <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="13"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="155"/>
-    </row>
-    <row r="55" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="13"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="155"/>
-    </row>
-    <row r="56" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="13"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="15"/>
-      <c r="L56" s="155"/>
-    </row>
-    <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="13"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="15"/>
-      <c r="L57" s="155"/>
-    </row>
-    <row r="58" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="13"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="15"/>
-      <c r="L58" s="155"/>
-    </row>
-    <row r="59" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="13"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="15"/>
-      <c r="L59" s="155"/>
-    </row>
-    <row r="60" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="13"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="155"/>
-    </row>
-    <row r="61" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="13"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="15"/>
-      <c r="L61" s="155"/>
-    </row>
-    <row r="62" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="13"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="15"/>
-      <c r="L62" s="155"/>
-    </row>
-    <row r="63" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="13"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="15"/>
-      <c r="L63" s="155"/>
-    </row>
-    <row r="64" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="13"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="15"/>
-      <c r="L64" s="155"/>
-    </row>
-    <row r="65" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="13"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="15"/>
-      <c r="L65" s="155"/>
-    </row>
-    <row r="66" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="13"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="15"/>
-      <c r="L66" s="155"/>
-    </row>
-    <row r="67" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="13"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="15"/>
-      <c r="L67" s="155"/>
-    </row>
-    <row r="68" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="13"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="15"/>
-      <c r="L68" s="155"/>
-    </row>
-    <row r="69" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="13"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="15"/>
-      <c r="L69" s="155"/>
-    </row>
-    <row r="70" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="13"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="15"/>
-      <c r="L70" s="155"/>
-    </row>
-    <row r="71" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="13"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="15"/>
-      <c r="L71" s="155"/>
-    </row>
-    <row r="72" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="13"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="15"/>
-      <c r="K72" s="15"/>
-      <c r="L72" s="155"/>
-    </row>
-    <row r="73" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="13"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="15"/>
-      <c r="K73" s="15"/>
-      <c r="L73" s="155"/>
-    </row>
-    <row r="74" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="13"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="15"/>
-      <c r="K74" s="15"/>
-      <c r="L74" s="155"/>
-    </row>
-    <row r="75" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="13"/>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="14"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="15"/>
-      <c r="L75" s="155"/>
-    </row>
-    <row r="76" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="13"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="14"/>
-      <c r="H76" s="15"/>
-      <c r="I76" s="14"/>
-      <c r="J76" s="15"/>
-      <c r="K76" s="15"/>
-      <c r="L76" s="155"/>
+      <c r="B45" s="2">
+        <v>5410338045</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E45" s="2">
+        <v>510</v>
+      </c>
+      <c r="F45" s="3">
+        <v>40326</v>
+      </c>
+      <c r="G45" s="3">
+        <v>40319</v>
+      </c>
+      <c r="H45" s="3">
+        <v>40387</v>
+      </c>
+      <c r="I45" s="2">
+        <v>2.2667000000000002</v>
+      </c>
+      <c r="J45" s="8">
+        <v>1156</v>
+      </c>
+      <c r="K45" s="3">
+        <v>30690</v>
+      </c>
+      <c r="L45" s="172"/>
+    </row>
+    <row r="46" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>6</v>
+      </c>
+      <c r="B46" s="5">
+        <v>5479865265</v>
+      </c>
+      <c r="C46" s="5">
+        <v>2011389758801</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="E46" s="7">
+        <v>1138.05</v>
+      </c>
+      <c r="F46" s="6">
+        <v>40808</v>
+      </c>
+      <c r="G46" s="6">
+        <v>40801</v>
+      </c>
+      <c r="H46" s="6">
+        <v>40892</v>
+      </c>
+      <c r="I46" s="5">
+        <v>3.0333000000000001</v>
+      </c>
+      <c r="J46" s="7">
+        <v>3452.085</v>
+      </c>
+      <c r="K46" s="6">
+        <v>23326</v>
+      </c>
+      <c r="L46" s="173"/>
+    </row>
+    <row r="47" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>7</v>
+      </c>
+      <c r="B47" s="2">
+        <v>5480312070</v>
+      </c>
+      <c r="C47" s="2">
+        <v>2011387540101</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E47" s="2">
+        <v>647.45000000000005</v>
+      </c>
+      <c r="F47" s="3">
+        <v>40808</v>
+      </c>
+      <c r="G47" s="3">
+        <v>40803</v>
+      </c>
+      <c r="H47" s="3">
+        <v>40908</v>
+      </c>
+      <c r="I47" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="J47" s="8">
+        <v>2266.0749999999998</v>
+      </c>
+      <c r="K47" s="3">
+        <v>29093</v>
+      </c>
+      <c r="L47" s="172"/>
+    </row>
+    <row r="48" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>8</v>
+      </c>
+      <c r="B48" s="5">
+        <v>5424970130</v>
+      </c>
+      <c r="C48" s="5">
+        <v>2010341378201</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="E48" s="7">
+        <v>1254.7</v>
+      </c>
+      <c r="F48" s="6">
+        <v>40449</v>
+      </c>
+      <c r="G48" s="6">
+        <v>40424</v>
+      </c>
+      <c r="H48" s="6">
+        <v>40463</v>
+      </c>
+      <c r="I48" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="J48" s="7">
+        <v>1631.11</v>
+      </c>
+      <c r="K48" s="6">
+        <v>23663</v>
+      </c>
+      <c r="L48" s="173"/>
+    </row>
+    <row r="49" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>9</v>
+      </c>
+      <c r="B49" s="2">
+        <v>5436082013</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E49" s="2">
+        <v>510</v>
+      </c>
+      <c r="F49" s="3">
+        <v>40507</v>
+      </c>
+      <c r="G49" s="3">
+        <v>40500</v>
+      </c>
+      <c r="H49" s="3">
+        <v>40537</v>
+      </c>
+      <c r="I49" s="2">
+        <v>1.2333000000000001</v>
+      </c>
+      <c r="J49" s="2">
+        <v>629</v>
+      </c>
+      <c r="K49" s="3">
+        <v>30728</v>
+      </c>
+      <c r="L49" s="172"/>
+    </row>
+    <row r="50" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>10</v>
+      </c>
+      <c r="B50" s="5">
+        <v>5476699151</v>
+      </c>
+      <c r="C50" s="5">
+        <v>0</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="E50" s="5">
+        <v>545</v>
+      </c>
+      <c r="F50" s="6">
+        <v>40784</v>
+      </c>
+      <c r="G50" s="6">
+        <v>40779</v>
+      </c>
+      <c r="H50" s="6">
+        <v>40848</v>
+      </c>
+      <c r="I50" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J50" s="7">
+        <v>1253.5</v>
+      </c>
+      <c r="K50" s="6">
+        <v>30690</v>
+      </c>
+      <c r="L50" s="173"/>
+    </row>
+    <row r="51" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>11</v>
+      </c>
+      <c r="B51" s="2">
+        <v>5429306599</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E51" s="2">
+        <v>510</v>
+      </c>
+      <c r="F51" s="3">
+        <v>40462</v>
+      </c>
+      <c r="G51" s="3">
+        <v>40442</v>
+      </c>
+      <c r="H51" s="3">
+        <v>40602</v>
+      </c>
+      <c r="I51" s="2">
+        <v>5.3333000000000004</v>
+      </c>
+      <c r="J51" s="8">
+        <v>2720</v>
+      </c>
+      <c r="K51" s="3">
+        <v>30690</v>
+      </c>
+      <c r="L51" s="172"/>
+    </row>
+    <row r="52" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>12</v>
+      </c>
+      <c r="B52" s="5">
+        <v>5407421760</v>
+      </c>
+      <c r="C52" s="5">
+        <v>2010164921501</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="E52" s="5">
+        <v>516.77</v>
+      </c>
+      <c r="F52" s="6">
+        <v>40306</v>
+      </c>
+      <c r="G52" s="6">
+        <v>40299</v>
+      </c>
+      <c r="H52" s="6">
+        <v>40356</v>
+      </c>
+      <c r="I52" s="5">
+        <v>1.9</v>
+      </c>
+      <c r="J52" s="5">
+        <v>981.86300000000006</v>
+      </c>
+      <c r="K52" s="6">
+        <v>29924</v>
+      </c>
+      <c r="L52" s="173"/>
+    </row>
+    <row r="53" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="13">
+        <v>13</v>
+      </c>
+      <c r="B53" s="14">
+        <v>5459657373</v>
+      </c>
+      <c r="C53" s="14">
+        <v>0</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>539</v>
+      </c>
+      <c r="E53" s="14">
+        <v>255</v>
+      </c>
+      <c r="F53" s="15">
+        <v>40666</v>
+      </c>
+      <c r="G53" s="15">
+        <v>40326</v>
+      </c>
+      <c r="H53" s="15">
+        <v>48143</v>
+      </c>
+      <c r="I53" s="14">
+        <v>256.8</v>
+      </c>
+      <c r="J53" s="158">
+        <v>65484</v>
+      </c>
+      <c r="K53" s="15">
+        <v>18388</v>
+      </c>
+      <c r="L53" s="174"/>
+    </row>
+    <row r="54" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>1</v>
+      </c>
+      <c r="B54" s="2">
+        <v>5369845766</v>
+      </c>
+      <c r="C54" s="2">
+        <v>2009336369901</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E54" s="2">
+        <v>465</v>
+      </c>
+      <c r="F54" s="3">
+        <v>40056</v>
+      </c>
+      <c r="G54" s="3">
+        <v>40048</v>
+      </c>
+      <c r="H54" s="3">
+        <v>40086</v>
+      </c>
+      <c r="I54" s="2">
+        <v>1.2666999999999999</v>
+      </c>
+      <c r="J54" s="2">
+        <v>589</v>
+      </c>
+      <c r="K54" s="3">
+        <v>30690</v>
+      </c>
+      <c r="L54" s="172"/>
+    </row>
+    <row r="55" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>2</v>
+      </c>
+      <c r="B55" s="5">
+        <v>5356260306</v>
+      </c>
+      <c r="C55" s="5">
+        <v>2009191205901</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="E55" s="5">
+        <v>635.28</v>
+      </c>
+      <c r="F55" s="6">
+        <v>39952</v>
+      </c>
+      <c r="G55" s="6">
+        <v>39950</v>
+      </c>
+      <c r="H55" s="6">
+        <v>40056</v>
+      </c>
+      <c r="I55" s="5">
+        <v>3.5333000000000001</v>
+      </c>
+      <c r="J55" s="7">
+        <v>2244.6559999999999</v>
+      </c>
+      <c r="K55" s="6">
+        <v>27424</v>
+      </c>
+      <c r="L55" s="173"/>
+    </row>
+    <row r="56" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>3</v>
+      </c>
+      <c r="B56" s="2">
+        <v>5410338045</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E56" s="2">
+        <v>510</v>
+      </c>
+      <c r="F56" s="3">
+        <v>40326</v>
+      </c>
+      <c r="G56" s="3">
+        <v>40319</v>
+      </c>
+      <c r="H56" s="3">
+        <v>40387</v>
+      </c>
+      <c r="I56" s="2">
+        <v>2.2667000000000002</v>
+      </c>
+      <c r="J56" s="8">
+        <v>1156</v>
+      </c>
+      <c r="K56" s="3">
+        <v>30690</v>
+      </c>
+      <c r="L56" s="172"/>
+    </row>
+    <row r="57" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>4</v>
+      </c>
+      <c r="B57" s="5">
+        <v>5424970130</v>
+      </c>
+      <c r="C57" s="5">
+        <v>2010341378201</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="E57" s="7">
+        <v>1254.7</v>
+      </c>
+      <c r="F57" s="6">
+        <v>40449</v>
+      </c>
+      <c r="G57" s="6">
+        <v>40424</v>
+      </c>
+      <c r="H57" s="6">
+        <v>40463</v>
+      </c>
+      <c r="I57" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="J57" s="7">
+        <v>1631.11</v>
+      </c>
+      <c r="K57" s="6">
+        <v>23663</v>
+      </c>
+      <c r="L57" s="173"/>
+    </row>
+    <row r="58" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>5</v>
+      </c>
+      <c r="B58" s="2">
+        <v>5367134030</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E58" s="2">
+        <v>465</v>
+      </c>
+      <c r="F58" s="3">
+        <v>40033</v>
+      </c>
+      <c r="G58" s="3">
+        <v>40030</v>
+      </c>
+      <c r="H58" s="3">
+        <v>40148</v>
+      </c>
+      <c r="I58" s="2">
+        <v>3.9333</v>
+      </c>
+      <c r="J58" s="8">
+        <v>1829</v>
+      </c>
+      <c r="K58" s="3">
+        <v>26695</v>
+      </c>
+      <c r="L58" s="172"/>
+    </row>
+    <row r="59" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>6</v>
+      </c>
+      <c r="B59" s="5">
+        <v>5436082013</v>
+      </c>
+      <c r="C59" s="5">
+        <v>0</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="E59" s="5">
+        <v>510</v>
+      </c>
+      <c r="F59" s="6">
+        <v>40507</v>
+      </c>
+      <c r="G59" s="6">
+        <v>40500</v>
+      </c>
+      <c r="H59" s="6">
+        <v>40537</v>
+      </c>
+      <c r="I59" s="5">
+        <v>1.2333000000000001</v>
+      </c>
+      <c r="J59" s="5">
+        <v>629</v>
+      </c>
+      <c r="K59" s="6">
+        <v>30728</v>
+      </c>
+      <c r="L59" s="173"/>
+    </row>
+    <row r="60" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>7</v>
+      </c>
+      <c r="B60" s="2">
+        <v>5417937874</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E60" s="2">
+        <v>847.44</v>
+      </c>
+      <c r="F60" s="3">
+        <v>40378</v>
+      </c>
+      <c r="G60" s="3">
+        <v>40375</v>
+      </c>
+      <c r="H60" s="3">
+        <v>40421</v>
+      </c>
+      <c r="I60" s="2">
+        <v>1.5333000000000001</v>
+      </c>
+      <c r="J60" s="8">
+        <v>1299.4079999999999</v>
+      </c>
+      <c r="K60" s="3">
+        <v>29000</v>
+      </c>
+      <c r="L60" s="172"/>
+    </row>
+    <row r="61" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>8</v>
+      </c>
+      <c r="B61" s="5">
+        <v>5429306599</v>
+      </c>
+      <c r="C61" s="5">
+        <v>0</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="E61" s="5">
+        <v>510</v>
+      </c>
+      <c r="F61" s="6">
+        <v>40462</v>
+      </c>
+      <c r="G61" s="6">
+        <v>40442</v>
+      </c>
+      <c r="H61" s="6">
+        <v>40543</v>
+      </c>
+      <c r="I61" s="5">
+        <v>3.3666999999999998</v>
+      </c>
+      <c r="J61" s="7">
+        <v>1717</v>
+      </c>
+      <c r="K61" s="6">
+        <v>30690</v>
+      </c>
+      <c r="L61" s="173"/>
+    </row>
+    <row r="62" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>9</v>
+      </c>
+      <c r="B62" s="2">
+        <v>5377456749</v>
+      </c>
+      <c r="C62" s="2">
+        <v>2009408667201</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E62" s="2">
+        <v>488.5</v>
+      </c>
+      <c r="F62" s="3">
+        <v>40106</v>
+      </c>
+      <c r="G62" s="3">
+        <v>40095</v>
+      </c>
+      <c r="H62" s="3">
+        <v>40147</v>
+      </c>
+      <c r="I62" s="2">
+        <v>1.7333000000000001</v>
+      </c>
+      <c r="J62" s="2">
+        <v>846.73299999999995</v>
+      </c>
+      <c r="K62" s="3">
+        <v>31817</v>
+      </c>
+      <c r="L62" s="172"/>
+    </row>
+    <row r="63" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="9">
+        <v>10</v>
+      </c>
+      <c r="B63" s="10">
+        <v>5407421760</v>
+      </c>
+      <c r="C63" s="10">
+        <v>2010164921501</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="E63" s="10">
+        <v>516.77</v>
+      </c>
+      <c r="F63" s="11">
+        <v>40306</v>
+      </c>
+      <c r="G63" s="11">
+        <v>40299</v>
+      </c>
+      <c r="H63" s="11">
+        <v>40356</v>
+      </c>
+      <c r="I63" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="J63" s="10">
+        <v>981.86300000000006</v>
+      </c>
+      <c r="K63" s="11">
+        <v>29924</v>
+      </c>
+      <c r="L63" s="174"/>
+    </row>
+    <row r="64" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>1</v>
+      </c>
+      <c r="B64" s="2">
+        <v>5369845766</v>
+      </c>
+      <c r="C64" s="2">
+        <v>2009336369901</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E64" s="2">
+        <v>465</v>
+      </c>
+      <c r="F64" s="3">
+        <v>40056</v>
+      </c>
+      <c r="G64" s="3">
+        <v>40048</v>
+      </c>
+      <c r="H64" s="3">
+        <v>40086</v>
+      </c>
+      <c r="I64" s="2">
+        <v>1</v>
+      </c>
+      <c r="J64" s="2">
+        <v>465</v>
+      </c>
+      <c r="K64" s="3">
+        <v>30690</v>
+      </c>
+      <c r="L64" s="172"/>
+    </row>
+    <row r="65" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>2</v>
+      </c>
+      <c r="B65" s="5">
+        <v>5297113470</v>
+      </c>
+      <c r="C65" s="5">
+        <v>2006232271002</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="E65" s="5">
+        <v>550.53</v>
+      </c>
+      <c r="F65" s="6">
+        <v>39541</v>
+      </c>
+      <c r="G65" s="6">
+        <v>39535</v>
+      </c>
+      <c r="H65" s="6">
+        <v>39580</v>
+      </c>
+      <c r="I65" s="5">
+        <v>1</v>
+      </c>
+      <c r="J65" s="5">
+        <v>550.53</v>
+      </c>
+      <c r="K65" s="6">
+        <v>27148</v>
+      </c>
+      <c r="L65" s="173"/>
+    </row>
+    <row r="66" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>3</v>
+      </c>
+      <c r="B66" s="2">
+        <v>5286867550</v>
+      </c>
+      <c r="C66" s="2">
+        <v>2008067279501</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E66" s="2">
+        <v>381.93</v>
+      </c>
+      <c r="F66" s="3">
+        <v>39498</v>
+      </c>
+      <c r="G66" s="3">
+        <v>39495</v>
+      </c>
+      <c r="H66" s="3">
+        <v>39538</v>
+      </c>
+      <c r="I66" s="2">
+        <v>1</v>
+      </c>
+      <c r="J66" s="2">
+        <v>381.93</v>
+      </c>
+      <c r="K66" s="3">
+        <v>31601</v>
+      </c>
+      <c r="L66" s="172"/>
+    </row>
+    <row r="67" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>4</v>
+      </c>
+      <c r="B67" s="5">
+        <v>5356260306</v>
+      </c>
+      <c r="C67" s="5">
+        <v>2009191205901</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="E67" s="5">
+        <v>635.28</v>
+      </c>
+      <c r="F67" s="6">
+        <v>39952</v>
+      </c>
+      <c r="G67" s="6">
+        <v>39950</v>
+      </c>
+      <c r="H67" s="6">
+        <v>40056</v>
+      </c>
+      <c r="I67" s="5">
+        <v>3</v>
+      </c>
+      <c r="J67" s="7">
+        <v>1905.84</v>
+      </c>
+      <c r="K67" s="6">
+        <v>27424</v>
+      </c>
+      <c r="L67" s="173"/>
+    </row>
+    <row r="68" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>5</v>
+      </c>
+      <c r="B68" s="2">
+        <v>5298561213</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E68" s="2">
+        <v>415</v>
+      </c>
+      <c r="F68" s="3">
+        <v>39556</v>
+      </c>
+      <c r="G68" s="3">
+        <v>39545</v>
+      </c>
+      <c r="H68" s="3">
+        <v>39613</v>
+      </c>
+      <c r="I68" s="2">
+        <v>2</v>
+      </c>
+      <c r="J68" s="2">
+        <v>830</v>
+      </c>
+      <c r="K68" s="3">
+        <v>30354</v>
+      </c>
+      <c r="L68" s="172"/>
+    </row>
+    <row r="69" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>6</v>
+      </c>
+      <c r="B69" s="5">
+        <v>5319030890</v>
+      </c>
+      <c r="C69" s="5">
+        <v>0</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="E69" s="5">
+        <v>504.19</v>
+      </c>
+      <c r="F69" s="6">
+        <v>39692</v>
+      </c>
+      <c r="G69" s="6">
+        <v>39684</v>
+      </c>
+      <c r="H69" s="6">
+        <v>39898</v>
+      </c>
+      <c r="I69" s="5">
+        <v>7</v>
+      </c>
+      <c r="J69" s="7">
+        <v>3529.33</v>
+      </c>
+      <c r="K69" s="6">
+        <v>25279</v>
+      </c>
+      <c r="L69" s="173"/>
+    </row>
+    <row r="70" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>7</v>
+      </c>
+      <c r="B70" s="2">
+        <v>5332336213</v>
+      </c>
+      <c r="C70" s="2">
+        <v>2008497201701</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E70" s="2">
+        <v>415</v>
+      </c>
+      <c r="F70" s="3">
+        <v>39778</v>
+      </c>
+      <c r="G70" s="3">
+        <v>39771</v>
+      </c>
+      <c r="H70" s="3">
+        <v>39817</v>
+      </c>
+      <c r="I70" s="2">
+        <v>1</v>
+      </c>
+      <c r="J70" s="2">
+        <v>415</v>
+      </c>
+      <c r="K70" s="3">
+        <v>32019</v>
+      </c>
+      <c r="L70" s="172"/>
+    </row>
+    <row r="71" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>8</v>
+      </c>
+      <c r="B71" s="5">
+        <v>5367134030</v>
+      </c>
+      <c r="C71" s="5">
+        <v>0</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="E71" s="5">
+        <v>465</v>
+      </c>
+      <c r="F71" s="6">
+        <v>40033</v>
+      </c>
+      <c r="G71" s="6">
+        <v>40030</v>
+      </c>
+      <c r="H71" s="6">
+        <v>40049</v>
+      </c>
+      <c r="I71" s="5">
+        <v>0</v>
+      </c>
+      <c r="J71" s="5">
+        <v>0</v>
+      </c>
+      <c r="K71" s="6">
+        <v>26695</v>
+      </c>
+      <c r="L71" s="173"/>
+    </row>
+    <row r="72" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>9</v>
+      </c>
+      <c r="B72" s="2">
+        <v>5325120170</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E72" s="2">
+        <v>468.37</v>
+      </c>
+      <c r="F72" s="3">
+        <v>39732</v>
+      </c>
+      <c r="G72" s="3">
+        <v>39729</v>
+      </c>
+      <c r="H72" s="3">
+        <v>39797</v>
+      </c>
+      <c r="I72" s="2">
+        <v>2</v>
+      </c>
+      <c r="J72" s="2">
+        <v>936.74</v>
+      </c>
+      <c r="K72" s="3">
+        <v>29623</v>
+      </c>
+      <c r="L72" s="172"/>
+    </row>
+    <row r="73" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>10</v>
+      </c>
+      <c r="B73" s="5">
+        <v>5324712805</v>
+      </c>
+      <c r="C73" s="5">
+        <v>0</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="E73" s="5">
+        <v>484.17</v>
+      </c>
+      <c r="F73" s="6">
+        <v>39732</v>
+      </c>
+      <c r="G73" s="6">
+        <v>39722</v>
+      </c>
+      <c r="H73" s="6">
+        <v>39887</v>
+      </c>
+      <c r="I73" s="5">
+        <v>5</v>
+      </c>
+      <c r="J73" s="7">
+        <v>2420.85</v>
+      </c>
+      <c r="K73" s="6">
+        <v>31188</v>
+      </c>
+      <c r="L73" s="173"/>
+    </row>
+    <row r="74" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>11</v>
+      </c>
+      <c r="B74" s="2">
+        <v>5300145730</v>
+      </c>
+      <c r="C74" s="2">
+        <v>2008164561901</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E74" s="2">
+        <v>451.69</v>
+      </c>
+      <c r="F74" s="3">
+        <v>39566</v>
+      </c>
+      <c r="G74" s="3">
+        <v>39554</v>
+      </c>
+      <c r="H74" s="3">
+        <v>39722</v>
+      </c>
+      <c r="I74" s="2">
+        <v>5</v>
+      </c>
+      <c r="J74" s="8">
+        <v>2258.4499999999998</v>
+      </c>
+      <c r="K74" s="3">
+        <v>27421</v>
+      </c>
+      <c r="L74" s="172"/>
+    </row>
+    <row r="75" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>12</v>
+      </c>
+      <c r="B75" s="5">
+        <v>5377456749</v>
+      </c>
+      <c r="C75" s="5">
+        <v>2009408667201</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="E75" s="5">
+        <v>488.5</v>
+      </c>
+      <c r="F75" s="6">
+        <v>40106</v>
+      </c>
+      <c r="G75" s="6">
+        <v>40095</v>
+      </c>
+      <c r="H75" s="6">
+        <v>40147</v>
+      </c>
+      <c r="I75" s="5">
+        <v>1</v>
+      </c>
+      <c r="J75" s="5">
+        <v>488.5</v>
+      </c>
+      <c r="K75" s="6">
+        <v>31817</v>
+      </c>
+      <c r="L75" s="173"/>
+    </row>
+    <row r="76" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="13">
+        <v>13</v>
+      </c>
+      <c r="B76" s="14">
+        <v>5324848103</v>
+      </c>
+      <c r="C76" s="14">
+        <v>0</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>539</v>
+      </c>
+      <c r="E76" s="14">
+        <v>281.66000000000003</v>
+      </c>
+      <c r="F76" s="15">
+        <v>39743</v>
+      </c>
+      <c r="G76" s="15">
+        <v>39723</v>
+      </c>
+      <c r="H76" s="15">
+        <v>55647</v>
+      </c>
+      <c r="I76" s="14">
+        <v>523.20000000000005</v>
+      </c>
+      <c r="J76" s="158">
+        <v>147364.51199999999</v>
+      </c>
+      <c r="K76" s="15">
+        <v>27421</v>
+      </c>
+      <c r="L76" s="174"/>
     </row>
     <row r="77" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="13"/>
@@ -7041,7 +7751,7 @@
       <c r="I77" s="14"/>
       <c r="J77" s="15"/>
       <c r="K77" s="15"/>
-      <c r="L77" s="155"/>
+      <c r="L77" s="151"/>
     </row>
     <row r="78" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="13"/>
@@ -7055,7 +7765,7 @@
       <c r="I78" s="14"/>
       <c r="J78" s="15"/>
       <c r="K78" s="15"/>
-      <c r="L78" s="155"/>
+      <c r="L78" s="151"/>
     </row>
     <row r="79" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="13"/>
@@ -7069,7 +7779,7 @@
       <c r="I79" s="14"/>
       <c r="J79" s="15"/>
       <c r="K79" s="15"/>
-      <c r="L79" s="155"/>
+      <c r="L79" s="151"/>
     </row>
     <row r="80" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="13"/>
@@ -7083,7 +7793,7 @@
       <c r="I80" s="14"/>
       <c r="J80" s="15"/>
       <c r="K80" s="15"/>
-      <c r="L80" s="155"/>
+      <c r="L80" s="151"/>
     </row>
     <row r="81" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="13"/>
@@ -7097,7 +7807,7 @@
       <c r="I81" s="14"/>
       <c r="J81" s="15"/>
       <c r="K81" s="15"/>
-      <c r="L81" s="155"/>
+      <c r="L81" s="151"/>
     </row>
     <row r="82" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="13"/>
@@ -7111,7 +7821,7 @@
       <c r="I82" s="14"/>
       <c r="J82" s="15"/>
       <c r="K82" s="15"/>
-      <c r="L82" s="155"/>
+      <c r="L82" s="151"/>
     </row>
     <row r="83" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="13"/>
@@ -7125,7 +7835,7 @@
       <c r="I83" s="14"/>
       <c r="J83" s="15"/>
       <c r="K83" s="15"/>
-      <c r="L83" s="155"/>
+      <c r="L83" s="151"/>
     </row>
     <row r="84" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="13"/>
@@ -7139,7 +7849,7 @@
       <c r="I84" s="14"/>
       <c r="J84" s="15"/>
       <c r="K84" s="15"/>
-      <c r="L84" s="155"/>
+      <c r="L84" s="151"/>
     </row>
     <row r="85" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="13"/>
@@ -7153,7 +7863,7 @@
       <c r="I85" s="14"/>
       <c r="J85" s="15"/>
       <c r="K85" s="15"/>
-      <c r="L85" s="155"/>
+      <c r="L85" s="151"/>
     </row>
     <row r="86" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="13"/>
@@ -7167,7 +7877,7 @@
       <c r="I86" s="14"/>
       <c r="J86" s="15"/>
       <c r="K86" s="15"/>
-      <c r="L86" s="155"/>
+      <c r="L86" s="151"/>
     </row>
     <row r="87" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="13"/>
@@ -7181,7 +7891,7 @@
       <c r="I87" s="14"/>
       <c r="J87" s="15"/>
       <c r="K87" s="15"/>
-      <c r="L87" s="155"/>
+      <c r="L87" s="151"/>
     </row>
     <row r="88" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="13"/>
@@ -7195,7 +7905,7 @@
       <c r="I88" s="14"/>
       <c r="J88" s="15"/>
       <c r="K88" s="15"/>
-      <c r="L88" s="155"/>
+      <c r="L88" s="151"/>
     </row>
     <row r="89" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="13"/>
@@ -7209,7 +7919,7 @@
       <c r="I89" s="14"/>
       <c r="J89" s="15"/>
       <c r="K89" s="15"/>
-      <c r="L89" s="155"/>
+      <c r="L89" s="151"/>
     </row>
     <row r="90" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="13"/>
@@ -7223,7 +7933,7 @@
       <c r="I90" s="14"/>
       <c r="J90" s="15"/>
       <c r="K90" s="15"/>
-      <c r="L90" s="155"/>
+      <c r="L90" s="151"/>
     </row>
     <row r="91" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="13"/>
@@ -7237,7 +7947,7 @@
       <c r="I91" s="14"/>
       <c r="J91" s="15"/>
       <c r="K91" s="15"/>
-      <c r="L91" s="155"/>
+      <c r="L91" s="151"/>
     </row>
     <row r="92" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="13"/>
@@ -7251,7 +7961,7 @@
       <c r="I92" s="14"/>
       <c r="J92" s="15"/>
       <c r="K92" s="15"/>
-      <c r="L92" s="155"/>
+      <c r="L92" s="151"/>
     </row>
     <row r="93" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="13"/>
@@ -7265,7 +7975,7 @@
       <c r="I93" s="14"/>
       <c r="J93" s="15"/>
       <c r="K93" s="15"/>
-      <c r="L93" s="155"/>
+      <c r="L93" s="151"/>
     </row>
     <row r="94" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="13"/>
@@ -7279,7 +7989,7 @@
       <c r="I94" s="14"/>
       <c r="J94" s="15"/>
       <c r="K94" s="15"/>
-      <c r="L94" s="155"/>
+      <c r="L94" s="151"/>
     </row>
     <row r="95" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="13"/>
@@ -7293,7 +8003,7 @@
       <c r="I95" s="14"/>
       <c r="J95" s="15"/>
       <c r="K95" s="15"/>
-      <c r="L95" s="155"/>
+      <c r="L95" s="151"/>
     </row>
     <row r="96" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="13"/>
@@ -7307,7 +8017,7 @@
       <c r="I96" s="14"/>
       <c r="J96" s="15"/>
       <c r="K96" s="15"/>
-      <c r="L96" s="155"/>
+      <c r="L96" s="151"/>
     </row>
     <row r="97" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="13"/>
@@ -7321,7 +8031,7 @@
       <c r="I97" s="14"/>
       <c r="J97" s="15"/>
       <c r="K97" s="15"/>
-      <c r="L97" s="155"/>
+      <c r="L97" s="151"/>
     </row>
     <row r="98" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="13"/>
@@ -7335,7 +8045,7 @@
       <c r="I98" s="14"/>
       <c r="J98" s="15"/>
       <c r="K98" s="15"/>
-      <c r="L98" s="155"/>
+      <c r="L98" s="151"/>
     </row>
     <row r="99" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="13"/>
@@ -7349,7 +8059,7 @@
       <c r="I99" s="14"/>
       <c r="J99" s="15"/>
       <c r="K99" s="15"/>
-      <c r="L99" s="155"/>
+      <c r="L99" s="151"/>
     </row>
     <row r="100" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="13"/>
@@ -7363,7 +8073,7 @@
       <c r="I100" s="14"/>
       <c r="J100" s="15"/>
       <c r="K100" s="15"/>
-      <c r="L100" s="155"/>
+      <c r="L100" s="151"/>
     </row>
     <row r="101" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="13"/>
@@ -7377,7 +8087,7 @@
       <c r="I101" s="14"/>
       <c r="J101" s="15"/>
       <c r="K101" s="15"/>
-      <c r="L101" s="155"/>
+      <c r="L101" s="151"/>
     </row>
     <row r="102" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="13"/>
@@ -7391,7 +8101,7 @@
       <c r="I102" s="14"/>
       <c r="J102" s="15"/>
       <c r="K102" s="15"/>
-      <c r="L102" s="155"/>
+      <c r="L102" s="151"/>
     </row>
     <row r="103" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="13"/>
@@ -7405,7 +8115,7 @@
       <c r="I103" s="14"/>
       <c r="J103" s="15"/>
       <c r="K103" s="15"/>
-      <c r="L103" s="155"/>
+      <c r="L103" s="151"/>
     </row>
     <row r="104" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="13"/>
@@ -7419,7 +8129,7 @@
       <c r="I104" s="14"/>
       <c r="J104" s="15"/>
       <c r="K104" s="15"/>
-      <c r="L104" s="155"/>
+      <c r="L104" s="151"/>
     </row>
     <row r="105" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="13"/>
@@ -7433,7 +8143,7 @@
       <c r="I105" s="14"/>
       <c r="J105" s="15"/>
       <c r="K105" s="15"/>
-      <c r="L105" s="155"/>
+      <c r="L105" s="151"/>
     </row>
     <row r="106" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="13"/>
@@ -7447,7 +8157,7 @@
       <c r="I106" s="14"/>
       <c r="J106" s="15"/>
       <c r="K106" s="15"/>
-      <c r="L106" s="155"/>
+      <c r="L106" s="151"/>
     </row>
     <row r="107" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="13"/>
@@ -7461,7 +8171,7 @@
       <c r="I107" s="14"/>
       <c r="J107" s="15"/>
       <c r="K107" s="15"/>
-      <c r="L107" s="155"/>
+      <c r="L107" s="151"/>
     </row>
     <row r="108" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="13"/>
@@ -7475,7 +8185,7 @@
       <c r="I108" s="14"/>
       <c r="J108" s="15"/>
       <c r="K108" s="15"/>
-      <c r="L108" s="155"/>
+      <c r="L108" s="151"/>
     </row>
     <row r="109" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="13"/>
@@ -7489,7 +8199,7 @@
       <c r="I109" s="14"/>
       <c r="J109" s="15"/>
       <c r="K109" s="15"/>
-      <c r="L109" s="155"/>
+      <c r="L109" s="151"/>
     </row>
     <row r="110" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="13"/>
@@ -7503,7 +8213,7 @@
       <c r="I110" s="14"/>
       <c r="J110" s="15"/>
       <c r="K110" s="15"/>
-      <c r="L110" s="155"/>
+      <c r="L110" s="151"/>
     </row>
     <row r="111" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="13"/>
@@ -7517,7 +8227,7 @@
       <c r="I111" s="14"/>
       <c r="J111" s="15"/>
       <c r="K111" s="15"/>
-      <c r="L111" s="155"/>
+      <c r="L111" s="151"/>
     </row>
     <row r="112" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="13"/>
@@ -7531,7 +8241,7 @@
       <c r="I112" s="14"/>
       <c r="J112" s="15"/>
       <c r="K112" s="15"/>
-      <c r="L112" s="155"/>
+      <c r="L112" s="151"/>
     </row>
     <row r="113" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="13"/>
@@ -7545,7 +8255,7 @@
       <c r="I113" s="14"/>
       <c r="J113" s="15"/>
       <c r="K113" s="15"/>
-      <c r="L113" s="155"/>
+      <c r="L113" s="151"/>
     </row>
     <row r="114" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="13"/>
@@ -7559,7 +8269,7 @@
       <c r="I114" s="14"/>
       <c r="J114" s="15"/>
       <c r="K114" s="15"/>
-      <c r="L114" s="155"/>
+      <c r="L114" s="151"/>
     </row>
     <row r="115" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="13"/>
@@ -7573,7 +8283,7 @@
       <c r="I115" s="14"/>
       <c r="J115" s="15"/>
       <c r="K115" s="15"/>
-      <c r="L115" s="155"/>
+      <c r="L115" s="151"/>
     </row>
     <row r="116" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="13"/>
@@ -7587,7 +8297,7 @@
       <c r="I116" s="14"/>
       <c r="J116" s="15"/>
       <c r="K116" s="15"/>
-      <c r="L116" s="155"/>
+      <c r="L116" s="151"/>
     </row>
     <row r="117" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="13"/>
@@ -7601,7 +8311,7 @@
       <c r="I117" s="14"/>
       <c r="J117" s="15"/>
       <c r="K117" s="15"/>
-      <c r="L117" s="155"/>
+      <c r="L117" s="151"/>
     </row>
     <row r="118" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="13"/>
@@ -7615,7 +8325,7 @@
       <c r="I118" s="14"/>
       <c r="J118" s="15"/>
       <c r="K118" s="15"/>
-      <c r="L118" s="155"/>
+      <c r="L118" s="151"/>
     </row>
     <row r="119" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="13"/>
@@ -7629,7 +8339,7 @@
       <c r="I119" s="14"/>
       <c r="J119" s="15"/>
       <c r="K119" s="15"/>
-      <c r="L119" s="155"/>
+      <c r="L119" s="151"/>
     </row>
     <row r="120" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="13"/>
@@ -7643,7 +8353,7 @@
       <c r="I120" s="14"/>
       <c r="J120" s="15"/>
       <c r="K120" s="15"/>
-      <c r="L120" s="155"/>
+      <c r="L120" s="151"/>
     </row>
     <row r="121" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="13"/>
@@ -7657,7 +8367,7 @@
       <c r="I121" s="14"/>
       <c r="J121" s="15"/>
       <c r="K121" s="15"/>
-      <c r="L121" s="155"/>
+      <c r="L121" s="151"/>
     </row>
     <row r="122" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="13"/>
@@ -7671,7 +8381,7 @@
       <c r="I122" s="14"/>
       <c r="J122" s="15"/>
       <c r="K122" s="15"/>
-      <c r="L122" s="155"/>
+      <c r="L122" s="151"/>
     </row>
     <row r="123" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="13"/>
@@ -7685,7 +8395,7 @@
       <c r="I123" s="14"/>
       <c r="J123" s="15"/>
       <c r="K123" s="15"/>
-      <c r="L123" s="155"/>
+      <c r="L123" s="151"/>
     </row>
     <row r="124" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="13"/>
@@ -7699,7 +8409,7 @@
       <c r="I124" s="14"/>
       <c r="J124" s="15"/>
       <c r="K124" s="15"/>
-      <c r="L124" s="155"/>
+      <c r="L124" s="151"/>
     </row>
     <row r="125" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="13"/>
@@ -7713,7 +8423,7 @@
       <c r="I125" s="14"/>
       <c r="J125" s="15"/>
       <c r="K125" s="15"/>
-      <c r="L125" s="155"/>
+      <c r="L125" s="151"/>
     </row>
     <row r="126" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="13"/>
@@ -7727,7 +8437,7 @@
       <c r="I126" s="14"/>
       <c r="J126" s="15"/>
       <c r="K126" s="15"/>
-      <c r="L126" s="155"/>
+      <c r="L126" s="151"/>
     </row>
     <row r="127" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="13"/>
@@ -7741,7 +8451,7 @@
       <c r="I127" s="14"/>
       <c r="J127" s="15"/>
       <c r="K127" s="15"/>
-      <c r="L127" s="155"/>
+      <c r="L127" s="151"/>
     </row>
     <row r="128" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="13"/>
@@ -7755,7 +8465,7 @@
       <c r="I128" s="14"/>
       <c r="J128" s="15"/>
       <c r="K128" s="15"/>
-      <c r="L128" s="155"/>
+      <c r="L128" s="151"/>
     </row>
     <row r="129" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="13"/>
@@ -7769,7 +8479,7 @@
       <c r="I129" s="14"/>
       <c r="J129" s="15"/>
       <c r="K129" s="15"/>
-      <c r="L129" s="155"/>
+      <c r="L129" s="151"/>
     </row>
     <row r="130" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="13"/>
@@ -7783,7 +8493,7 @@
       <c r="I130" s="14"/>
       <c r="J130" s="15"/>
       <c r="K130" s="15"/>
-      <c r="L130" s="155"/>
+      <c r="L130" s="151"/>
     </row>
     <row r="131" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="13"/>
@@ -7797,7 +8507,7 @@
       <c r="I131" s="14"/>
       <c r="J131" s="15"/>
       <c r="K131" s="15"/>
-      <c r="L131" s="155"/>
+      <c r="L131" s="151"/>
     </row>
     <row r="132" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="13"/>
@@ -7811,7 +8521,7 @@
       <c r="I132" s="14"/>
       <c r="J132" s="15"/>
       <c r="K132" s="15"/>
-      <c r="L132" s="155"/>
+      <c r="L132" s="151"/>
     </row>
     <row r="133" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="13"/>
@@ -7825,7 +8535,7 @@
       <c r="I133" s="14"/>
       <c r="J133" s="15"/>
       <c r="K133" s="15"/>
-      <c r="L133" s="155"/>
+      <c r="L133" s="151"/>
     </row>
     <row r="134" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="13"/>
@@ -7839,7 +8549,7 @@
       <c r="I134" s="14"/>
       <c r="J134" s="15"/>
       <c r="K134" s="15"/>
-      <c r="L134" s="155"/>
+      <c r="L134" s="151"/>
     </row>
     <row r="135" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="13"/>
@@ -7853,7 +8563,7 @@
       <c r="I135" s="14"/>
       <c r="J135" s="15"/>
       <c r="K135" s="15"/>
-      <c r="L135" s="155"/>
+      <c r="L135" s="151"/>
     </row>
     <row r="136" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="13"/>
@@ -7867,7 +8577,7 @@
       <c r="I136" s="14"/>
       <c r="J136" s="15"/>
       <c r="K136" s="15"/>
-      <c r="L136" s="155"/>
+      <c r="L136" s="151"/>
     </row>
     <row r="137" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="13"/>
@@ -7881,7 +8591,7 @@
       <c r="I137" s="14"/>
       <c r="J137" s="15"/>
       <c r="K137" s="15"/>
-      <c r="L137" s="155"/>
+      <c r="L137" s="151"/>
     </row>
     <row r="138" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="13"/>
@@ -7895,7 +8605,7 @@
       <c r="I138" s="14"/>
       <c r="J138" s="15"/>
       <c r="K138" s="15"/>
-      <c r="L138" s="155"/>
+      <c r="L138" s="151"/>
     </row>
     <row r="139" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="13"/>
@@ -7909,7 +8619,7 @@
       <c r="I139" s="14"/>
       <c r="J139" s="15"/>
       <c r="K139" s="15"/>
-      <c r="L139" s="155"/>
+      <c r="L139" s="151"/>
     </row>
     <row r="140" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="13"/>
@@ -7923,7 +8633,7 @@
       <c r="I140" s="14"/>
       <c r="J140" s="15"/>
       <c r="K140" s="15"/>
-      <c r="L140" s="155"/>
+      <c r="L140" s="151"/>
     </row>
     <row r="141" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="13"/>
@@ -7937,7 +8647,7 @@
       <c r="I141" s="14"/>
       <c r="J141" s="15"/>
       <c r="K141" s="15"/>
-      <c r="L141" s="155"/>
+      <c r="L141" s="151"/>
     </row>
     <row r="142" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="13"/>
@@ -7951,7 +8661,7 @@
       <c r="I142" s="14"/>
       <c r="J142" s="15"/>
       <c r="K142" s="15"/>
-      <c r="L142" s="155"/>
+      <c r="L142" s="151"/>
     </row>
     <row r="143" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="13"/>
@@ -7965,7 +8675,7 @@
       <c r="I143" s="14"/>
       <c r="J143" s="15"/>
       <c r="K143" s="15"/>
-      <c r="L143" s="155"/>
+      <c r="L143" s="151"/>
     </row>
     <row r="144" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="13"/>
@@ -7979,7 +8689,7 @@
       <c r="I144" s="14"/>
       <c r="J144" s="15"/>
       <c r="K144" s="15"/>
-      <c r="L144" s="155"/>
+      <c r="L144" s="151"/>
     </row>
     <row r="145" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="13"/>
@@ -7993,7 +8703,7 @@
       <c r="I145" s="14"/>
       <c r="J145" s="15"/>
       <c r="K145" s="15"/>
-      <c r="L145" s="155"/>
+      <c r="L145" s="151"/>
     </row>
     <row r="146" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="13"/>
@@ -8007,959 +8717,7 @@
       <c r="I146" s="14"/>
       <c r="J146" s="15"/>
       <c r="K146" s="15"/>
-      <c r="L146" s="155"/>
-    </row>
-    <row r="147" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="13"/>
-      <c r="B147" s="14"/>
-      <c r="C147" s="14"/>
-      <c r="D147" s="14"/>
-      <c r="E147" s="14"/>
-      <c r="F147" s="14"/>
-      <c r="G147" s="14"/>
-      <c r="H147" s="15"/>
-      <c r="I147" s="14"/>
-      <c r="J147" s="15"/>
-      <c r="K147" s="15"/>
-      <c r="L147" s="155"/>
-    </row>
-    <row r="148" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="13"/>
-      <c r="B148" s="14"/>
-      <c r="C148" s="14"/>
-      <c r="D148" s="14"/>
-      <c r="E148" s="14"/>
-      <c r="F148" s="14"/>
-      <c r="G148" s="14"/>
-      <c r="H148" s="15"/>
-      <c r="I148" s="14"/>
-      <c r="J148" s="15"/>
-      <c r="K148" s="15"/>
-      <c r="L148" s="155"/>
-    </row>
-    <row r="149" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="13"/>
-      <c r="B149" s="14"/>
-      <c r="C149" s="14"/>
-      <c r="D149" s="14"/>
-      <c r="E149" s="14"/>
-      <c r="F149" s="14"/>
-      <c r="G149" s="14"/>
-      <c r="H149" s="15"/>
-      <c r="I149" s="14"/>
-      <c r="J149" s="15"/>
-      <c r="K149" s="15"/>
-      <c r="L149" s="155"/>
-    </row>
-    <row r="150" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="13"/>
-      <c r="B150" s="14"/>
-      <c r="C150" s="14"/>
-      <c r="D150" s="14"/>
-      <c r="E150" s="14"/>
-      <c r="F150" s="14"/>
-      <c r="G150" s="14"/>
-      <c r="H150" s="15"/>
-      <c r="I150" s="14"/>
-      <c r="J150" s="15"/>
-      <c r="K150" s="15"/>
-      <c r="L150" s="155"/>
-    </row>
-    <row r="151" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="13"/>
-      <c r="B151" s="14"/>
-      <c r="C151" s="14"/>
-      <c r="D151" s="14"/>
-      <c r="E151" s="14"/>
-      <c r="F151" s="14"/>
-      <c r="G151" s="14"/>
-      <c r="H151" s="15"/>
-      <c r="I151" s="14"/>
-      <c r="J151" s="15"/>
-      <c r="K151" s="15"/>
-      <c r="L151" s="155"/>
-    </row>
-    <row r="152" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="13"/>
-      <c r="B152" s="14"/>
-      <c r="C152" s="14"/>
-      <c r="D152" s="14"/>
-      <c r="E152" s="14"/>
-      <c r="F152" s="14"/>
-      <c r="G152" s="14"/>
-      <c r="H152" s="15"/>
-      <c r="I152" s="14"/>
-      <c r="J152" s="15"/>
-      <c r="K152" s="15"/>
-      <c r="L152" s="155"/>
-    </row>
-    <row r="153" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="13"/>
-      <c r="B153" s="14"/>
-      <c r="C153" s="14"/>
-      <c r="D153" s="14"/>
-      <c r="E153" s="14"/>
-      <c r="F153" s="14"/>
-      <c r="G153" s="14"/>
-      <c r="H153" s="15"/>
-      <c r="I153" s="14"/>
-      <c r="J153" s="15"/>
-      <c r="K153" s="15"/>
-      <c r="L153" s="155"/>
-    </row>
-    <row r="154" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="13"/>
-      <c r="B154" s="14"/>
-      <c r="C154" s="14"/>
-      <c r="D154" s="14"/>
-      <c r="E154" s="14"/>
-      <c r="F154" s="14"/>
-      <c r="G154" s="14"/>
-      <c r="H154" s="15"/>
-      <c r="I154" s="14"/>
-      <c r="J154" s="15"/>
-      <c r="K154" s="15"/>
-      <c r="L154" s="155"/>
-    </row>
-    <row r="155" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="13"/>
-      <c r="B155" s="14"/>
-      <c r="C155" s="14"/>
-      <c r="D155" s="14"/>
-      <c r="E155" s="14"/>
-      <c r="F155" s="14"/>
-      <c r="G155" s="14"/>
-      <c r="H155" s="15"/>
-      <c r="I155" s="14"/>
-      <c r="J155" s="15"/>
-      <c r="K155" s="15"/>
-      <c r="L155" s="155"/>
-    </row>
-    <row r="156" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="13"/>
-      <c r="B156" s="14"/>
-      <c r="C156" s="14"/>
-      <c r="D156" s="14"/>
-      <c r="E156" s="14"/>
-      <c r="F156" s="14"/>
-      <c r="G156" s="14"/>
-      <c r="H156" s="15"/>
-      <c r="I156" s="14"/>
-      <c r="J156" s="15"/>
-      <c r="K156" s="15"/>
-      <c r="L156" s="155"/>
-    </row>
-    <row r="157" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="13"/>
-      <c r="B157" s="14"/>
-      <c r="C157" s="14"/>
-      <c r="D157" s="14"/>
-      <c r="E157" s="14"/>
-      <c r="F157" s="14"/>
-      <c r="G157" s="14"/>
-      <c r="H157" s="15"/>
-      <c r="I157" s="14"/>
-      <c r="J157" s="15"/>
-      <c r="K157" s="15"/>
-      <c r="L157" s="155"/>
-    </row>
-    <row r="158" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="13"/>
-      <c r="B158" s="14"/>
-      <c r="C158" s="14"/>
-      <c r="D158" s="14"/>
-      <c r="E158" s="14"/>
-      <c r="F158" s="14"/>
-      <c r="G158" s="14"/>
-      <c r="H158" s="15"/>
-      <c r="I158" s="14"/>
-      <c r="J158" s="15"/>
-      <c r="K158" s="15"/>
-      <c r="L158" s="155"/>
-    </row>
-    <row r="159" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="13"/>
-      <c r="B159" s="14"/>
-      <c r="C159" s="14"/>
-      <c r="D159" s="14"/>
-      <c r="E159" s="14"/>
-      <c r="F159" s="14"/>
-      <c r="G159" s="14"/>
-      <c r="H159" s="15"/>
-      <c r="I159" s="14"/>
-      <c r="J159" s="15"/>
-      <c r="K159" s="15"/>
-      <c r="L159" s="155"/>
-    </row>
-    <row r="160" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="13"/>
-      <c r="B160" s="14"/>
-      <c r="C160" s="14"/>
-      <c r="D160" s="14"/>
-      <c r="E160" s="14"/>
-      <c r="F160" s="14"/>
-      <c r="G160" s="14"/>
-      <c r="H160" s="15"/>
-      <c r="I160" s="14"/>
-      <c r="J160" s="15"/>
-      <c r="K160" s="15"/>
-      <c r="L160" s="155"/>
-    </row>
-    <row r="161" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="13"/>
-      <c r="B161" s="14"/>
-      <c r="C161" s="14"/>
-      <c r="D161" s="14"/>
-      <c r="E161" s="14"/>
-      <c r="F161" s="14"/>
-      <c r="G161" s="14"/>
-      <c r="H161" s="15"/>
-      <c r="I161" s="14"/>
-      <c r="J161" s="15"/>
-      <c r="K161" s="15"/>
-      <c r="L161" s="155"/>
-    </row>
-    <row r="162" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="13"/>
-      <c r="B162" s="14"/>
-      <c r="C162" s="14"/>
-      <c r="D162" s="14"/>
-      <c r="E162" s="14"/>
-      <c r="F162" s="14"/>
-      <c r="G162" s="14"/>
-      <c r="H162" s="15"/>
-      <c r="I162" s="14"/>
-      <c r="J162" s="15"/>
-      <c r="K162" s="15"/>
-      <c r="L162" s="155"/>
-    </row>
-    <row r="163" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="13"/>
-      <c r="B163" s="14"/>
-      <c r="C163" s="14"/>
-      <c r="D163" s="14"/>
-      <c r="E163" s="14"/>
-      <c r="F163" s="14"/>
-      <c r="G163" s="14"/>
-      <c r="H163" s="15"/>
-      <c r="I163" s="14"/>
-      <c r="J163" s="15"/>
-      <c r="K163" s="15"/>
-      <c r="L163" s="155"/>
-    </row>
-    <row r="164" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="13"/>
-      <c r="B164" s="14"/>
-      <c r="C164" s="14"/>
-      <c r="D164" s="14"/>
-      <c r="E164" s="14"/>
-      <c r="F164" s="14"/>
-      <c r="G164" s="14"/>
-      <c r="H164" s="15"/>
-      <c r="I164" s="14"/>
-      <c r="J164" s="15"/>
-      <c r="K164" s="15"/>
-      <c r="L164" s="155"/>
-    </row>
-    <row r="165" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="13"/>
-      <c r="B165" s="14"/>
-      <c r="C165" s="14"/>
-      <c r="D165" s="14"/>
-      <c r="E165" s="14"/>
-      <c r="F165" s="14"/>
-      <c r="G165" s="14"/>
-      <c r="H165" s="15"/>
-      <c r="I165" s="14"/>
-      <c r="J165" s="15"/>
-      <c r="K165" s="15"/>
-      <c r="L165" s="155"/>
-    </row>
-    <row r="166" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="13"/>
-      <c r="B166" s="14"/>
-      <c r="C166" s="14"/>
-      <c r="D166" s="14"/>
-      <c r="E166" s="14"/>
-      <c r="F166" s="14"/>
-      <c r="G166" s="14"/>
-      <c r="H166" s="15"/>
-      <c r="I166" s="14"/>
-      <c r="J166" s="15"/>
-      <c r="K166" s="15"/>
-      <c r="L166" s="155"/>
-    </row>
-    <row r="167" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="13"/>
-      <c r="B167" s="14"/>
-      <c r="C167" s="14"/>
-      <c r="D167" s="14"/>
-      <c r="E167" s="14"/>
-      <c r="F167" s="14"/>
-      <c r="G167" s="14"/>
-      <c r="H167" s="15"/>
-      <c r="I167" s="14"/>
-      <c r="J167" s="15"/>
-      <c r="K167" s="15"/>
-      <c r="L167" s="155"/>
-    </row>
-    <row r="168" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="13"/>
-      <c r="B168" s="14"/>
-      <c r="C168" s="14"/>
-      <c r="D168" s="14"/>
-      <c r="E168" s="14"/>
-      <c r="F168" s="14"/>
-      <c r="G168" s="14"/>
-      <c r="H168" s="15"/>
-      <c r="I168" s="14"/>
-      <c r="J168" s="15"/>
-      <c r="K168" s="15"/>
-      <c r="L168" s="155"/>
-    </row>
-    <row r="169" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="13"/>
-      <c r="B169" s="14"/>
-      <c r="C169" s="14"/>
-      <c r="D169" s="14"/>
-      <c r="E169" s="14"/>
-      <c r="F169" s="14"/>
-      <c r="G169" s="14"/>
-      <c r="H169" s="15"/>
-      <c r="I169" s="14"/>
-      <c r="J169" s="15"/>
-      <c r="K169" s="15"/>
-      <c r="L169" s="155"/>
-    </row>
-    <row r="170" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="13"/>
-      <c r="B170" s="14"/>
-      <c r="C170" s="14"/>
-      <c r="D170" s="14"/>
-      <c r="E170" s="14"/>
-      <c r="F170" s="14"/>
-      <c r="G170" s="14"/>
-      <c r="H170" s="15"/>
-      <c r="I170" s="14"/>
-      <c r="J170" s="15"/>
-      <c r="K170" s="15"/>
-      <c r="L170" s="155"/>
-    </row>
-    <row r="171" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="13"/>
-      <c r="B171" s="14"/>
-      <c r="C171" s="14"/>
-      <c r="D171" s="14"/>
-      <c r="E171" s="14"/>
-      <c r="F171" s="14"/>
-      <c r="G171" s="14"/>
-      <c r="H171" s="15"/>
-      <c r="I171" s="14"/>
-      <c r="J171" s="15"/>
-      <c r="K171" s="15"/>
-      <c r="L171" s="155"/>
-    </row>
-    <row r="172" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="13"/>
-      <c r="B172" s="14"/>
-      <c r="C172" s="14"/>
-      <c r="D172" s="14"/>
-      <c r="E172" s="14"/>
-      <c r="F172" s="14"/>
-      <c r="G172" s="14"/>
-      <c r="H172" s="15"/>
-      <c r="I172" s="14"/>
-      <c r="J172" s="15"/>
-      <c r="K172" s="15"/>
-      <c r="L172" s="155"/>
-    </row>
-    <row r="173" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="13"/>
-      <c r="B173" s="14"/>
-      <c r="C173" s="14"/>
-      <c r="D173" s="14"/>
-      <c r="E173" s="14"/>
-      <c r="F173" s="14"/>
-      <c r="G173" s="14"/>
-      <c r="H173" s="15"/>
-      <c r="I173" s="14"/>
-      <c r="J173" s="15"/>
-      <c r="K173" s="15"/>
-      <c r="L173" s="155"/>
-    </row>
-    <row r="174" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="13"/>
-      <c r="B174" s="14"/>
-      <c r="C174" s="14"/>
-      <c r="D174" s="14"/>
-      <c r="E174" s="14"/>
-      <c r="F174" s="14"/>
-      <c r="G174" s="14"/>
-      <c r="H174" s="15"/>
-      <c r="I174" s="14"/>
-      <c r="J174" s="15"/>
-      <c r="K174" s="15"/>
-      <c r="L174" s="155"/>
-    </row>
-    <row r="175" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="13"/>
-      <c r="B175" s="14"/>
-      <c r="C175" s="14"/>
-      <c r="D175" s="14"/>
-      <c r="E175" s="14"/>
-      <c r="F175" s="14"/>
-      <c r="G175" s="14"/>
-      <c r="H175" s="15"/>
-      <c r="I175" s="14"/>
-      <c r="J175" s="15"/>
-      <c r="K175" s="15"/>
-      <c r="L175" s="155"/>
-    </row>
-    <row r="176" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="13"/>
-      <c r="B176" s="14"/>
-      <c r="C176" s="14"/>
-      <c r="D176" s="14"/>
-      <c r="E176" s="14"/>
-      <c r="F176" s="14"/>
-      <c r="G176" s="14"/>
-      <c r="H176" s="15"/>
-      <c r="I176" s="14"/>
-      <c r="J176" s="15"/>
-      <c r="K176" s="15"/>
-      <c r="L176" s="155"/>
-    </row>
-    <row r="177" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="13"/>
-      <c r="B177" s="14"/>
-      <c r="C177" s="14"/>
-      <c r="D177" s="14"/>
-      <c r="E177" s="14"/>
-      <c r="F177" s="14"/>
-      <c r="G177" s="14"/>
-      <c r="H177" s="15"/>
-      <c r="I177" s="14"/>
-      <c r="J177" s="15"/>
-      <c r="K177" s="15"/>
-      <c r="L177" s="155"/>
-    </row>
-    <row r="178" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="13"/>
-      <c r="B178" s="14"/>
-      <c r="C178" s="14"/>
-      <c r="D178" s="14"/>
-      <c r="E178" s="14"/>
-      <c r="F178" s="14"/>
-      <c r="G178" s="14"/>
-      <c r="H178" s="15"/>
-      <c r="I178" s="14"/>
-      <c r="J178" s="15"/>
-      <c r="K178" s="15"/>
-      <c r="L178" s="155"/>
-    </row>
-    <row r="179" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="13"/>
-      <c r="B179" s="14"/>
-      <c r="C179" s="14"/>
-      <c r="D179" s="14"/>
-      <c r="E179" s="14"/>
-      <c r="F179" s="14"/>
-      <c r="G179" s="14"/>
-      <c r="H179" s="15"/>
-      <c r="I179" s="14"/>
-      <c r="J179" s="15"/>
-      <c r="K179" s="15"/>
-      <c r="L179" s="155"/>
-    </row>
-    <row r="180" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="13"/>
-      <c r="B180" s="14"/>
-      <c r="C180" s="14"/>
-      <c r="D180" s="14"/>
-      <c r="E180" s="14"/>
-      <c r="F180" s="14"/>
-      <c r="G180" s="14"/>
-      <c r="H180" s="15"/>
-      <c r="I180" s="14"/>
-      <c r="J180" s="15"/>
-      <c r="K180" s="15"/>
-      <c r="L180" s="155"/>
-    </row>
-    <row r="181" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="13"/>
-      <c r="B181" s="14"/>
-      <c r="C181" s="14"/>
-      <c r="D181" s="14"/>
-      <c r="E181" s="14"/>
-      <c r="F181" s="14"/>
-      <c r="G181" s="14"/>
-      <c r="H181" s="15"/>
-      <c r="I181" s="14"/>
-      <c r="J181" s="15"/>
-      <c r="K181" s="15"/>
-      <c r="L181" s="155"/>
-    </row>
-    <row r="182" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="13"/>
-      <c r="B182" s="14"/>
-      <c r="C182" s="14"/>
-      <c r="D182" s="14"/>
-      <c r="E182" s="14"/>
-      <c r="F182" s="14"/>
-      <c r="G182" s="14"/>
-      <c r="H182" s="15"/>
-      <c r="I182" s="14"/>
-      <c r="J182" s="15"/>
-      <c r="K182" s="15"/>
-      <c r="L182" s="155"/>
-    </row>
-    <row r="183" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="13"/>
-      <c r="B183" s="14"/>
-      <c r="C183" s="14"/>
-      <c r="D183" s="14"/>
-      <c r="E183" s="14"/>
-      <c r="F183" s="14"/>
-      <c r="G183" s="14"/>
-      <c r="H183" s="15"/>
-      <c r="I183" s="14"/>
-      <c r="J183" s="15"/>
-      <c r="K183" s="15"/>
-      <c r="L183" s="155"/>
-    </row>
-    <row r="184" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="13"/>
-      <c r="B184" s="14"/>
-      <c r="C184" s="14"/>
-      <c r="D184" s="14"/>
-      <c r="E184" s="14"/>
-      <c r="F184" s="14"/>
-      <c r="G184" s="14"/>
-      <c r="H184" s="15"/>
-      <c r="I184" s="14"/>
-      <c r="J184" s="15"/>
-      <c r="K184" s="15"/>
-      <c r="L184" s="155"/>
-    </row>
-    <row r="185" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="13"/>
-      <c r="B185" s="14"/>
-      <c r="C185" s="14"/>
-      <c r="D185" s="14"/>
-      <c r="E185" s="14"/>
-      <c r="F185" s="14"/>
-      <c r="G185" s="14"/>
-      <c r="H185" s="15"/>
-      <c r="I185" s="14"/>
-      <c r="J185" s="15"/>
-      <c r="K185" s="15"/>
-      <c r="L185" s="155"/>
-    </row>
-    <row r="186" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="13"/>
-      <c r="B186" s="14"/>
-      <c r="C186" s="14"/>
-      <c r="D186" s="14"/>
-      <c r="E186" s="14"/>
-      <c r="F186" s="14"/>
-      <c r="G186" s="14"/>
-      <c r="H186" s="15"/>
-      <c r="I186" s="14"/>
-      <c r="J186" s="15"/>
-      <c r="K186" s="15"/>
-      <c r="L186" s="155"/>
-    </row>
-    <row r="187" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="13"/>
-      <c r="B187" s="14"/>
-      <c r="C187" s="14"/>
-      <c r="D187" s="14"/>
-      <c r="E187" s="14"/>
-      <c r="F187" s="14"/>
-      <c r="G187" s="14"/>
-      <c r="H187" s="15"/>
-      <c r="I187" s="14"/>
-      <c r="J187" s="15"/>
-      <c r="K187" s="15"/>
-      <c r="L187" s="155"/>
-    </row>
-    <row r="188" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="13"/>
-      <c r="B188" s="14"/>
-      <c r="C188" s="14"/>
-      <c r="D188" s="14"/>
-      <c r="E188" s="14"/>
-      <c r="F188" s="14"/>
-      <c r="G188" s="14"/>
-      <c r="H188" s="15"/>
-      <c r="I188" s="14"/>
-      <c r="J188" s="15"/>
-      <c r="K188" s="15"/>
-      <c r="L188" s="155"/>
-    </row>
-    <row r="189" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="13"/>
-      <c r="B189" s="14"/>
-      <c r="C189" s="14"/>
-      <c r="D189" s="14"/>
-      <c r="E189" s="14"/>
-      <c r="F189" s="14"/>
-      <c r="G189" s="14"/>
-      <c r="H189" s="15"/>
-      <c r="I189" s="14"/>
-      <c r="J189" s="15"/>
-      <c r="K189" s="15"/>
-      <c r="L189" s="155"/>
-    </row>
-    <row r="190" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="13"/>
-      <c r="B190" s="14"/>
-      <c r="C190" s="14"/>
-      <c r="D190" s="14"/>
-      <c r="E190" s="14"/>
-      <c r="F190" s="14"/>
-      <c r="G190" s="14"/>
-      <c r="H190" s="15"/>
-      <c r="I190" s="14"/>
-      <c r="J190" s="15"/>
-      <c r="K190" s="15"/>
-      <c r="L190" s="155"/>
-    </row>
-    <row r="191" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="13"/>
-      <c r="B191" s="14"/>
-      <c r="C191" s="14"/>
-      <c r="D191" s="14"/>
-      <c r="E191" s="14"/>
-      <c r="F191" s="14"/>
-      <c r="G191" s="14"/>
-      <c r="H191" s="15"/>
-      <c r="I191" s="14"/>
-      <c r="J191" s="15"/>
-      <c r="K191" s="15"/>
-      <c r="L191" s="155"/>
-    </row>
-    <row r="192" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="13"/>
-      <c r="B192" s="14"/>
-      <c r="C192" s="14"/>
-      <c r="D192" s="14"/>
-      <c r="E192" s="14"/>
-      <c r="F192" s="14"/>
-      <c r="G192" s="14"/>
-      <c r="H192" s="15"/>
-      <c r="I192" s="14"/>
-      <c r="J192" s="15"/>
-      <c r="K192" s="15"/>
-      <c r="L192" s="155"/>
-    </row>
-    <row r="193" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="13"/>
-      <c r="B193" s="14"/>
-      <c r="C193" s="14"/>
-      <c r="D193" s="14"/>
-      <c r="E193" s="14"/>
-      <c r="F193" s="14"/>
-      <c r="G193" s="14"/>
-      <c r="H193" s="15"/>
-      <c r="I193" s="14"/>
-      <c r="J193" s="15"/>
-      <c r="K193" s="15"/>
-      <c r="L193" s="155"/>
-    </row>
-    <row r="194" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="13"/>
-      <c r="B194" s="14"/>
-      <c r="C194" s="14"/>
-      <c r="D194" s="14"/>
-      <c r="E194" s="14"/>
-      <c r="F194" s="14"/>
-      <c r="G194" s="14"/>
-      <c r="H194" s="15"/>
-      <c r="I194" s="14"/>
-      <c r="J194" s="15"/>
-      <c r="K194" s="15"/>
-      <c r="L194" s="155"/>
-    </row>
-    <row r="195" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="13"/>
-      <c r="B195" s="14"/>
-      <c r="C195" s="14"/>
-      <c r="D195" s="14"/>
-      <c r="E195" s="14"/>
-      <c r="F195" s="14"/>
-      <c r="G195" s="14"/>
-      <c r="H195" s="15"/>
-      <c r="I195" s="14"/>
-      <c r="J195" s="15"/>
-      <c r="K195" s="15"/>
-      <c r="L195" s="155"/>
-    </row>
-    <row r="196" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="13"/>
-      <c r="B196" s="14"/>
-      <c r="C196" s="14"/>
-      <c r="D196" s="14"/>
-      <c r="E196" s="14"/>
-      <c r="F196" s="14"/>
-      <c r="G196" s="14"/>
-      <c r="H196" s="15"/>
-      <c r="I196" s="14"/>
-      <c r="J196" s="15"/>
-      <c r="K196" s="15"/>
-      <c r="L196" s="155"/>
-    </row>
-    <row r="197" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="13"/>
-      <c r="B197" s="14"/>
-      <c r="C197" s="14"/>
-      <c r="D197" s="14"/>
-      <c r="E197" s="14"/>
-      <c r="F197" s="14"/>
-      <c r="G197" s="14"/>
-      <c r="H197" s="15"/>
-      <c r="I197" s="14"/>
-      <c r="J197" s="15"/>
-      <c r="K197" s="15"/>
-      <c r="L197" s="155"/>
-    </row>
-    <row r="198" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="13"/>
-      <c r="B198" s="14"/>
-      <c r="C198" s="14"/>
-      <c r="D198" s="14"/>
-      <c r="E198" s="14"/>
-      <c r="F198" s="14"/>
-      <c r="G198" s="14"/>
-      <c r="H198" s="15"/>
-      <c r="I198" s="14"/>
-      <c r="J198" s="15"/>
-      <c r="K198" s="15"/>
-      <c r="L198" s="155"/>
-    </row>
-    <row r="199" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="13"/>
-      <c r="B199" s="14"/>
-      <c r="C199" s="14"/>
-      <c r="D199" s="14"/>
-      <c r="E199" s="14"/>
-      <c r="F199" s="14"/>
-      <c r="G199" s="14"/>
-      <c r="H199" s="15"/>
-      <c r="I199" s="14"/>
-      <c r="J199" s="15"/>
-      <c r="K199" s="15"/>
-      <c r="L199" s="155"/>
-    </row>
-    <row r="200" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="13"/>
-      <c r="B200" s="14"/>
-      <c r="C200" s="14"/>
-      <c r="D200" s="14"/>
-      <c r="E200" s="14"/>
-      <c r="F200" s="14"/>
-      <c r="G200" s="14"/>
-      <c r="H200" s="15"/>
-      <c r="I200" s="14"/>
-      <c r="J200" s="15"/>
-      <c r="K200" s="15"/>
-      <c r="L200" s="155"/>
-    </row>
-    <row r="201" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="13"/>
-      <c r="B201" s="14"/>
-      <c r="C201" s="14"/>
-      <c r="D201" s="14"/>
-      <c r="E201" s="14"/>
-      <c r="F201" s="14"/>
-      <c r="G201" s="14"/>
-      <c r="H201" s="15"/>
-      <c r="I201" s="14"/>
-      <c r="J201" s="15"/>
-      <c r="K201" s="15"/>
-      <c r="L201" s="155"/>
-    </row>
-    <row r="202" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="13"/>
-      <c r="B202" s="14"/>
-      <c r="C202" s="14"/>
-      <c r="D202" s="14"/>
-      <c r="E202" s="14"/>
-      <c r="F202" s="14"/>
-      <c r="G202" s="14"/>
-      <c r="H202" s="15"/>
-      <c r="I202" s="14"/>
-      <c r="J202" s="15"/>
-      <c r="K202" s="15"/>
-      <c r="L202" s="155"/>
-    </row>
-    <row r="203" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="13"/>
-      <c r="B203" s="14"/>
-      <c r="C203" s="14"/>
-      <c r="D203" s="14"/>
-      <c r="E203" s="14"/>
-      <c r="F203" s="14"/>
-      <c r="G203" s="14"/>
-      <c r="H203" s="15"/>
-      <c r="I203" s="14"/>
-      <c r="J203" s="15"/>
-      <c r="K203" s="15"/>
-      <c r="L203" s="155"/>
-    </row>
-    <row r="204" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="13"/>
-      <c r="B204" s="14"/>
-      <c r="C204" s="14"/>
-      <c r="D204" s="14"/>
-      <c r="E204" s="14"/>
-      <c r="F204" s="14"/>
-      <c r="G204" s="14"/>
-      <c r="H204" s="15"/>
-      <c r="I204" s="14"/>
-      <c r="J204" s="15"/>
-      <c r="K204" s="15"/>
-      <c r="L204" s="155"/>
-    </row>
-    <row r="205" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="13"/>
-      <c r="B205" s="14"/>
-      <c r="C205" s="14"/>
-      <c r="D205" s="14"/>
-      <c r="E205" s="14"/>
-      <c r="F205" s="14"/>
-      <c r="G205" s="14"/>
-      <c r="H205" s="15"/>
-      <c r="I205" s="14"/>
-      <c r="J205" s="15"/>
-      <c r="K205" s="15"/>
-      <c r="L205" s="155"/>
-    </row>
-    <row r="206" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="13"/>
-      <c r="B206" s="14"/>
-      <c r="C206" s="14"/>
-      <c r="D206" s="14"/>
-      <c r="E206" s="14"/>
-      <c r="F206" s="14"/>
-      <c r="G206" s="14"/>
-      <c r="H206" s="15"/>
-      <c r="I206" s="14"/>
-      <c r="J206" s="15"/>
-      <c r="K206" s="15"/>
-      <c r="L206" s="155"/>
-    </row>
-    <row r="207" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="13"/>
-      <c r="B207" s="14"/>
-      <c r="C207" s="14"/>
-      <c r="D207" s="14"/>
-      <c r="E207" s="14"/>
-      <c r="F207" s="14"/>
-      <c r="G207" s="14"/>
-      <c r="H207" s="15"/>
-      <c r="I207" s="14"/>
-      <c r="J207" s="15"/>
-      <c r="K207" s="15"/>
-      <c r="L207" s="155"/>
-    </row>
-    <row r="208" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="13"/>
-      <c r="B208" s="14"/>
-      <c r="C208" s="14"/>
-      <c r="D208" s="14"/>
-      <c r="E208" s="14"/>
-      <c r="F208" s="14"/>
-      <c r="G208" s="14"/>
-      <c r="H208" s="15"/>
-      <c r="I208" s="14"/>
-      <c r="J208" s="15"/>
-      <c r="K208" s="15"/>
-      <c r="L208" s="155"/>
-    </row>
-    <row r="209" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="13"/>
-      <c r="B209" s="14"/>
-      <c r="C209" s="14"/>
-      <c r="D209" s="14"/>
-      <c r="E209" s="14"/>
-      <c r="F209" s="14"/>
-      <c r="G209" s="14"/>
-      <c r="H209" s="15"/>
-      <c r="I209" s="14"/>
-      <c r="J209" s="15"/>
-      <c r="K209" s="15"/>
-      <c r="L209" s="155"/>
-    </row>
-    <row r="210" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="13"/>
-      <c r="B210" s="14"/>
-      <c r="C210" s="14"/>
-      <c r="D210" s="14"/>
-      <c r="E210" s="14"/>
-      <c r="F210" s="14"/>
-      <c r="G210" s="14"/>
-      <c r="H210" s="15"/>
-      <c r="I210" s="14"/>
-      <c r="J210" s="15"/>
-      <c r="K210" s="15"/>
-      <c r="L210" s="155"/>
-    </row>
-    <row r="211" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="13"/>
-      <c r="B211" s="14"/>
-      <c r="C211" s="14"/>
-      <c r="D211" s="14"/>
-      <c r="E211" s="14"/>
-      <c r="F211" s="14"/>
-      <c r="G211" s="14"/>
-      <c r="H211" s="15"/>
-      <c r="I211" s="14"/>
-      <c r="J211" s="15"/>
-      <c r="K211" s="15"/>
-      <c r="L211" s="155"/>
-    </row>
-    <row r="212" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="13"/>
-      <c r="B212" s="14"/>
-      <c r="C212" s="14"/>
-      <c r="D212" s="14"/>
-      <c r="E212" s="14"/>
-      <c r="F212" s="14"/>
-      <c r="G212" s="14"/>
-      <c r="H212" s="15"/>
-      <c r="I212" s="14"/>
-      <c r="J212" s="15"/>
-      <c r="K212" s="15"/>
-      <c r="L212" s="155"/>
-    </row>
-    <row r="213" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="13"/>
-      <c r="B213" s="14"/>
-      <c r="C213" s="14"/>
-      <c r="D213" s="14"/>
-      <c r="E213" s="14"/>
-      <c r="F213" s="14"/>
-      <c r="G213" s="14"/>
-      <c r="H213" s="15"/>
-      <c r="I213" s="14"/>
-      <c r="J213" s="15"/>
-      <c r="K213" s="15"/>
-      <c r="L213" s="155"/>
-    </row>
-    <row r="214" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="13"/>
-      <c r="B214" s="14"/>
-      <c r="C214" s="14"/>
-      <c r="D214" s="14"/>
-      <c r="E214" s="14"/>
-      <c r="F214" s="14"/>
-      <c r="G214" s="14"/>
-      <c r="H214" s="15"/>
-      <c r="I214" s="14"/>
-      <c r="J214" s="15"/>
-      <c r="K214" s="15"/>
-      <c r="L214" s="155"/>
+      <c r="L146" s="151"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -8974,8 +8732,8 @@
   </sheetPr>
   <dimension ref="A1:T87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView showGridLines="0" topLeftCell="C19" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="N12" sqref="J12:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9402,7 +9160,7 @@
       <c r="M13" s="26">
         <v>974166</v>
       </c>
-      <c r="N13" s="159">
+      <c r="N13" s="155">
         <v>834969</v>
       </c>
       <c r="O13" s="71"/>
@@ -9645,9 +9403,15 @@
       <c r="N19" s="27">
         <v>0</v>
       </c>
-      <c r="O19" s="71"/>
-      <c r="P19" s="71"/>
-      <c r="Q19" s="71"/>
+      <c r="O19" s="71">
+        <v>2</v>
+      </c>
+      <c r="P19" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="71">
+        <v>4.4000000000000004</v>
+      </c>
       <c r="R19" s="25" t="s">
         <v>11</v>
       </c>
@@ -9886,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="71">
-        <v>0.1</v>
+        <v>1.3333333333333334E-2</v>
       </c>
       <c r="P25" s="32"/>
       <c r="Q25" s="32"/>
@@ -10153,19 +9917,19 @@
       <c r="H32" s="26"/>
       <c r="I32" s="26"/>
       <c r="J32" s="26">
-        <v>82.43</v>
+        <v>44.84</v>
       </c>
       <c r="K32" s="26">
-        <v>59.71</v>
+        <v>45.85</v>
       </c>
       <c r="L32" s="26">
-        <v>80.069999999999993</v>
+        <v>38.74</v>
       </c>
       <c r="M32" s="26">
-        <v>42.28</v>
+        <v>21.65</v>
       </c>
       <c r="N32" s="26">
-        <v>34.729999999999997</v>
+        <v>26.67</v>
       </c>
       <c r="O32" s="32"/>
       <c r="P32" s="32"/>
@@ -10193,19 +9957,19 @@
       <c r="H33" s="26"/>
       <c r="I33" s="26"/>
       <c r="J33" s="26">
-        <v>1752</v>
+        <v>893.5</v>
       </c>
       <c r="K33" s="26">
-        <v>1269</v>
+        <v>209.46</v>
       </c>
       <c r="L33" s="26">
-        <v>1922</v>
+        <v>181.4</v>
       </c>
       <c r="M33" s="26">
-        <v>1055</v>
+        <v>135.93</v>
       </c>
       <c r="N33" s="26">
-        <v>776</v>
+        <v>93.33</v>
       </c>
       <c r="O33" s="32"/>
       <c r="P33" s="32"/>
@@ -11449,7 +11213,7 @@
       <c r="K5" s="72"/>
       <c r="L5" s="72"/>
       <c r="M5" s="72"/>
-      <c r="N5" s="156" t="s">
+      <c r="N5" s="152" t="s">
         <v>531</v>
       </c>
     </row>
@@ -11525,26 +11289,26 @@
       </c>
       <c r="E7" s="83"/>
       <c r="F7" s="83"/>
-      <c r="G7" s="157"/>
-      <c r="H7" s="157">
+      <c r="G7" s="153"/>
+      <c r="H7" s="153">
         <v>161546.68</v>
       </c>
-      <c r="I7" s="157">
+      <c r="I7" s="153">
         <v>12923.77</v>
       </c>
-      <c r="J7" s="157">
+      <c r="J7" s="153">
         <v>82703.03</v>
       </c>
-      <c r="K7" s="157">
+      <c r="K7" s="153">
         <v>74819.960000000006</v>
       </c>
-      <c r="L7" s="157">
+      <c r="L7" s="153">
         <v>9731.6</v>
       </c>
-      <c r="M7" s="157">
+      <c r="M7" s="153">
         <v>15528.6</v>
       </c>
-      <c r="N7" s="157">
+      <c r="N7" s="153">
         <v>12377.45</v>
       </c>
       <c r="O7" s="20" t="s">
@@ -11566,26 +11330,26 @@
       </c>
       <c r="E8" s="83"/>
       <c r="F8" s="83"/>
-      <c r="G8" s="157"/>
-      <c r="H8" s="157">
+      <c r="G8" s="153"/>
+      <c r="H8" s="153">
         <v>9185836.7799999993</v>
       </c>
-      <c r="I8" s="157">
+      <c r="I8" s="153">
         <v>10482276.380000001</v>
       </c>
-      <c r="J8" s="157">
+      <c r="J8" s="153">
         <v>12131972.640000001</v>
       </c>
-      <c r="K8" s="157">
+      <c r="K8" s="153">
         <v>14891128.08</v>
       </c>
-      <c r="L8" s="157">
+      <c r="L8" s="153">
         <v>17267819.699999999</v>
       </c>
-      <c r="M8" s="157">
+      <c r="M8" s="153">
         <v>19762497.449999999</v>
       </c>
-      <c r="N8" s="157">
+      <c r="N8" s="153">
         <v>21515114.34</v>
       </c>
       <c r="O8" s="20" t="s">
@@ -11936,25 +11700,25 @@
       <c r="E17" s="83"/>
       <c r="F17" s="83"/>
       <c r="G17" s="83"/>
-      <c r="H17" s="161">
+      <c r="H17" s="157">
         <v>3.3464999999999995E-2</v>
       </c>
-      <c r="I17" s="161">
+      <c r="I17" s="157">
         <v>3.0023999999999995E-2</v>
       </c>
-      <c r="J17" s="161">
+      <c r="J17" s="157">
         <v>3.4110000000000001E-2</v>
       </c>
-      <c r="K17" s="161">
+      <c r="K17" s="157">
         <v>3.2735999999999994E-2</v>
       </c>
-      <c r="L17" s="161">
+      <c r="L17" s="157">
         <v>0.03</v>
       </c>
-      <c r="M17" s="161">
+      <c r="M17" s="157">
         <v>0.03</v>
       </c>
-      <c r="N17" s="161">
+      <c r="N17" s="157">
         <v>0.03</v>
       </c>
       <c r="O17" s="20" t="s">
@@ -11977,25 +11741,25 @@
       <c r="E18" s="83"/>
       <c r="F18" s="83"/>
       <c r="G18" s="83"/>
-      <c r="H18" s="160">
+      <c r="H18" s="156">
         <v>0.03</v>
       </c>
-      <c r="I18" s="160">
+      <c r="I18" s="156">
         <v>0.03</v>
       </c>
-      <c r="J18" s="160">
+      <c r="J18" s="156">
         <v>0.03</v>
       </c>
-      <c r="K18" s="160">
+      <c r="K18" s="156">
         <v>0.03</v>
       </c>
-      <c r="L18" s="160">
+      <c r="L18" s="156">
         <v>0.03</v>
       </c>
-      <c r="M18" s="160">
+      <c r="M18" s="156">
         <v>0.03</v>
       </c>
-      <c r="N18" s="160">
+      <c r="N18" s="156">
         <v>0.03</v>
       </c>
       <c r="O18" s="20" t="s">
@@ -12018,25 +11782,25 @@
       <c r="E19" s="83"/>
       <c r="F19" s="83"/>
       <c r="G19" s="83"/>
-      <c r="H19" s="158">
+      <c r="H19" s="154">
         <v>1.062527</v>
       </c>
-      <c r="I19" s="158">
+      <c r="I19" s="154">
         <v>0.94659700000000002</v>
       </c>
-      <c r="J19" s="158">
+      <c r="J19" s="154">
         <v>1.0478719999999999</v>
       </c>
-      <c r="K19" s="158">
+      <c r="K19" s="154">
         <v>0.97857400000000005</v>
       </c>
-      <c r="L19" s="158">
+      <c r="L19" s="154">
         <v>0.94670900000000002</v>
       </c>
-      <c r="M19" s="158">
+      <c r="M19" s="154">
         <v>1.104808</v>
       </c>
-      <c r="N19" s="158">
+      <c r="N19" s="154">
         <v>0.78859599999999996</v>
       </c>
       <c r="O19" s="20" t="s">
@@ -12180,8 +11944,8 @@
   </sheetPr>
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9:N18"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12819,8 +12583,8 @@
   </sheetPr>
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView showGridLines="0" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13754,19 +13518,19 @@
       <c r="H28" s="83"/>
       <c r="I28" s="83"/>
       <c r="J28" s="83">
-        <v>2</v>
+        <v>111946.34</v>
       </c>
       <c r="K28" s="83">
-        <v>4</v>
+        <v>109166.7</v>
       </c>
       <c r="L28" s="83">
-        <v>5</v>
+        <v>113153.78</v>
       </c>
       <c r="M28" s="83">
-        <v>3</v>
+        <v>131057.18</v>
       </c>
       <c r="N28" s="83">
-        <v>4</v>
+        <v>187615.68</v>
       </c>
       <c r="O28" s="32"/>
       <c r="P28" s="32"/>
@@ -14742,19 +14506,19 @@
       <c r="H57" s="124"/>
       <c r="I57" s="124"/>
       <c r="J57" s="83">
-        <v>0</v>
+        <v>44467.72</v>
       </c>
       <c r="K57" s="83">
-        <v>0</v>
+        <v>48481.53</v>
       </c>
       <c r="L57" s="83">
-        <v>0</v>
+        <v>53208.62</v>
       </c>
       <c r="M57" s="83">
-        <v>0</v>
+        <v>56908.2</v>
       </c>
       <c r="N57" s="83">
-        <v>0</v>
+        <v>58709.18</v>
       </c>
       <c r="O57" s="71"/>
       <c r="P57" s="71"/>

--- a/tests/testesmanuais/CBA_SESI_Planilha_Dados_Entrada - v1.1 - Versão Completa.xlsx
+++ b/tests/testesmanuais/CBA_SESI_Planilha_Dados_Entrada - v1.1 - Versão Completa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="846" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="846" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pl. suporte" sheetId="51" state="hidden" r:id="rId1"/>
@@ -5082,7 +5082,7 @@
   </sheetPr>
   <dimension ref="A1:L146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8732,8 +8732,8 @@
   </sheetPr>
   <dimension ref="A1:T87"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C19" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="N12" sqref="J12:N12"/>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12583,8 +12583,8 @@
   </sheetPr>
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14544,9 +14544,7 @@
   </sheetPr>
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21:N21"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
